--- a/GLOBAL/Causas Cambio Climático/Antropógenas/Emisiones CO2 Importacion y Exportacion Global 1990-2017.xlsx
+++ b/GLOBAL/Causas Cambio Climático/Antropógenas/Emisiones CO2 Importacion y Exportacion Global 1990-2017.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\DATAICC\Emisiones GEI\GLOBAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\DATA-ICC\GLOBAL\Causas Cambio Climático\Antropógenas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A1E2D5-149D-4BE8-A9FB-35F22DF87E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915B3E5C-E7EC-470C-AED6-7943DB3C305C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{69534350-4EE5-4E94-84B0-CB741D844A8B}"/>
   </bookViews>
@@ -175,7 +175,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,8 +194,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +219,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -250,23 +278,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -275,13 +314,11 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -290,12 +327,10 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
         <top style="thin">
@@ -304,33 +339,7 @@
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -397,13 +406,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -417,6 +419,37 @@
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -432,14 +465,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDFEF4CC-568C-4E41-A215-21960BA1F30B}" name="Emisiones_CO2_Importacion_Exportacion_LA" displayName="Emisiones_CO2_Importacion_Exportacion_LA" ref="A1:G505" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDFEF4CC-568C-4E41-A215-21960BA1F30B}" name="Emisiones_CO2_Importacion_Exportacion_LA" displayName="Emisiones_CO2_Importacion_Exportacion_LA" ref="A1:G505" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="A1:G505" xr:uid="{50E74DEE-A4A4-4048-90A0-EBEF635B77B4}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{49C3A821-7F98-49D2-A965-01E5331B2E91}" name="País" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{EFF440E8-9129-4E19-84D9-BCFACADD7674}" name="País Español" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{28FFCC39-DA64-42FD-BEEE-0F890EB3D3F9}" name="Código País" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{92963DE3-DA3A-47CF-9D36-E3008BB185B6}" name="Año" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{1349CAAD-4421-4614-BC94-4058793EB53B}" name="Emisiones Absolutas de CO₂ por Exportaciones e Importaciones (toneladas)" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{49C3A821-7F98-49D2-A965-01E5331B2E91}" name="País" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{EFF440E8-9129-4E19-84D9-BCFACADD7674}" name="País Español" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{28FFCC39-DA64-42FD-BEEE-0F890EB3D3F9}" name="Código País" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{92963DE3-DA3A-47CF-9D36-E3008BB185B6}" name="Año" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{1349CAAD-4421-4614-BC94-4058793EB53B}" name="Emisiones Absolutas de CO₂ por Exportaciones e Importaciones (toneladas)" dataDxfId="2" dataCellStyle="Millares [0]"/>
     <tableColumn id="6" xr3:uid="{FC1997AA-CCCB-43BA-8D65-E3C30C45F8DB}" name="Emisiones Absolutas de CO₂ por Exportaciones e Importaciones per cápita (toneladas)" dataDxfId="1"/>
     <tableColumn id="7" xr3:uid="{E50149AB-D913-4C93-BB86-2FB8A8CEBB05}" name="Emisiones de CO₂ sobre el Total de Emisiones por Exportaciones e Importaciones (%)" dataDxfId="0"/>
   </tableColumns>
@@ -747,7 +780,7 @@
   <dimension ref="A1:G505"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,13 +803,13 @@
       <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
     </row>
@@ -793,13 +826,13 @@
       <c r="D2" s="1">
         <v>1990</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <v>-7463678.8588827001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>-0.22881384649690978</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>-6.6705493510115996</v>
       </c>
     </row>
@@ -816,13 +849,13 @@
       <c r="D3" s="2">
         <v>1991</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="9">
         <v>-4330225.4837859096</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="12">
         <v>-0.13090557404352943</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="12">
         <v>-3.70595691832568</v>
       </c>
     </row>
@@ -839,13 +872,13 @@
       <c r="D4" s="1">
         <v>1992</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <v>-3243139.5249049598</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="12">
         <v>-9.6726401768766138E-2</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="12">
         <v>-2.67991042661729</v>
       </c>
     </row>
@@ -862,13 +895,13 @@
       <c r="D5" s="2">
         <v>1993</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="9">
         <v>-1537010.2996263001</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="12">
         <v>-4.5246108319879311E-2</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="12">
         <v>-1.3073744765167301</v>
       </c>
     </row>
@@ -885,13 +918,13 @@
       <c r="D6" s="1">
         <v>1994</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <v>-2270102.0465345699</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="12">
         <v>-6.5985584005306797E-2</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="12">
         <v>-1.8605861178557599</v>
       </c>
     </row>
@@ -908,13 +941,13 @@
       <c r="D7" s="2">
         <v>1995</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="9">
         <v>-5986392.8460291</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="12">
         <v>-0.17188448507031986</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="12">
         <v>-4.6915873385268796</v>
       </c>
     </row>
@@ -931,13 +964,13 @@
       <c r="D8" s="1">
         <v>1996</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <v>-5240751.8861133102</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="12">
         <v>-0.14869068507386116</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="12">
         <v>-3.89231250142804</v>
       </c>
     </row>
@@ -954,13 +987,13 @@
       <c r="D9" s="2">
         <v>1997</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="9">
         <v>-1395752.02852836</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="12">
         <v>-3.9143843523806267E-2</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="12">
         <v>-1.01466399521392</v>
       </c>
     </row>
@@ -977,13 +1010,13 @@
       <c r="D10" s="1">
         <v>1998</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="8">
         <v>-1453238.9213938699</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="12">
         <v>-4.0297227668077251E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="12">
         <v>-1.0428363844883399</v>
       </c>
     </row>
@@ -1000,13 +1033,13 @@
       <c r="D11" s="2">
         <v>1999</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="9">
         <v>-11089127.4835584</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="12">
         <v>-0.30408663952500614</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="12">
         <v>-7.5688381751624796</v>
       </c>
     </row>
@@ -1023,13 +1056,13 @@
       <c r="D12" s="1">
         <v>2000</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="8">
         <v>-13556805.459014799</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="12">
         <v>-0.36768206609570664</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="12">
         <v>-9.5661241610372496</v>
       </c>
     </row>
@@ -1046,13 +1079,13 @@
       <c r="D13" s="2">
         <v>2001</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="9">
         <v>-16618528.1994112</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="12">
         <v>-0.44582380618658657</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="12">
         <v>-12.4660206877964</v>
       </c>
     </row>
@@ -1069,13 +1102,13 @@
       <c r="D14" s="1">
         <v>2002</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="8">
         <v>-28235269.786417399</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="12">
         <v>-0.74930390601394292</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="12">
         <v>-22.700409091759902</v>
       </c>
     </row>
@@ -1092,13 +1125,13 @@
       <c r="D15" s="2">
         <v>2003</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="9">
         <v>-20821581.8008788</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="12">
         <v>-0.54667038964710146</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="12">
         <v>-15.4668546281733</v>
       </c>
     </row>
@@ -1115,13 +1148,13 @@
       <c r="D16" s="1">
         <v>2004</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="8">
         <v>-22883722.403932899</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="12">
         <v>-0.59450593380268368</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="12">
         <v>-14.572496093889299</v>
       </c>
     </row>
@@ -1138,13 +1171,13 @@
       <c r="D17" s="2">
         <v>2005</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="9">
         <v>-21384654.404154401</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="12">
         <v>-0.549832988048091</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="12">
         <v>-13.2474422338642</v>
       </c>
     </row>
@@ -1161,13 +1194,13 @@
       <c r="D18" s="1">
         <v>2006</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="8">
         <v>-18794443.5441208</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="12">
         <v>-0.47835183365031303</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="12">
         <v>-10.763206954683801</v>
       </c>
     </row>
@@ -1184,13 +1217,13 @@
       <c r="D19" s="2">
         <v>2007</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="9">
         <v>-12961766.4254677</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="12">
         <v>-0.32662449414040168</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="12">
         <v>-7.4393329970320803</v>
       </c>
     </row>
@@ -1207,13 +1240,13 @@
       <c r="D20" s="1">
         <v>2008</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="8">
         <v>-11413877.8504629</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="12">
         <v>-0.2847773914786153</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="12">
         <v>-6.0698819221330496</v>
       </c>
     </row>
@@ -1230,13 +1263,13 @@
       <c r="D21" s="2">
         <v>2009</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="9">
         <v>-14212576.088646799</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="12">
         <v>-0.35107516954392709</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="12">
         <v>-7.9458735012642903</v>
       </c>
     </row>
@@ -1253,13 +1286,13 @@
       <c r="D22" s="1">
         <v>2010</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="8">
         <v>-9561383.0497526303</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="12">
         <v>-0.23379751197556314</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="12">
         <v>-5.1220287582562101</v>
       </c>
     </row>
@@ -1276,13 +1309,13 @@
       <c r="D23" s="2">
         <v>2011</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="9">
         <v>-5538531.9759693304</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="12">
         <v>-0.134039980057341</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="12">
         <v>-2.9113870043115999</v>
       </c>
     </row>
@@ -1299,13 +1332,13 @@
       <c r="D24" s="1">
         <v>2012</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="8">
         <v>-4611475.1985852197</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="12">
         <v>-0.11044126927518189</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="12">
         <v>-2.4053780738356001</v>
       </c>
     </row>
@@ -1322,13 +1355,13 @@
       <c r="D25" s="2">
         <v>2013</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="9">
         <v>980364.690833056</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="12">
         <v>2.3233593014339179E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="12">
         <v>0.50987532783157197</v>
       </c>
     </row>
@@ -1345,13 +1378,13 @@
       <c r="D26" s="1">
         <v>2014</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="8">
         <v>2314542.7926924899</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="12">
         <v>5.4283568476300247E-2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="12">
         <v>1.19041765867266</v>
       </c>
     </row>
@@ -1368,13 +1401,13 @@
       <c r="D27" s="2">
         <v>2015</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="9">
         <v>2579665.3105456899</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="12">
         <v>5.9887761127003829E-2</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="12">
         <v>1.2907408525435899</v>
       </c>
     </row>
@@ -1391,13 +1424,13 @@
       <c r="D28" s="1">
         <v>2016</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="8">
         <v>-119725.910005314</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="12">
         <v>-2.751813689558564E-3</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="12">
         <v>-5.9851334298760599E-2</v>
       </c>
     </row>
@@ -1414,13 +1447,13 @@
       <c r="D29" s="2">
         <v>2017</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="9">
         <v>2170252.35203763</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="12">
         <v>4.9394641237172091E-2</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="12">
         <v>1.08756228306166</v>
       </c>
     </row>
@@ -1437,13 +1470,13 @@
       <c r="D30" s="1">
         <v>1990</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="8">
         <v>-543252.80430145795</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="12">
         <v>-7.9133693270423591E-2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="12">
         <v>-9.4861975706496402</v>
       </c>
     </row>
@@ -1460,13 +1493,13 @@
       <c r="D31" s="2">
         <v>1991</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="9">
         <v>-612788.59521432896</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="12">
         <v>-8.7403878935148907E-2</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="12">
         <v>-10.257563908301</v>
       </c>
     </row>
@@ -1483,13 +1516,13 @@
       <c r="D32" s="1">
         <v>1992</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="8">
         <v>-735052.12996958196</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="12">
         <v>-0.10264657589297332</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="12">
         <v>-11.100175498494</v>
       </c>
     </row>
@@ -1506,13 +1539,13 @@
       <c r="D33" s="2">
         <v>1993</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="9">
         <v>-1029037.77142707</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="12">
         <v>-0.14071349260591687</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="12">
         <v>-13.206632474504</v>
       </c>
     </row>
@@ -1529,13 +1562,13 @@
       <c r="D34" s="1">
         <v>1994</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="8">
         <v>-1390763.52366783</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="12">
         <v>-0.18625465697975493</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="12">
         <v>-16.1859330182807</v>
       </c>
     </row>
@@ -1552,13 +1585,13 @@
       <c r="D35" s="2">
         <v>1995</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="9">
         <v>-1727483.0566201301</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="12">
         <v>-0.22664432650487143</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="12">
         <v>-17.629233092123599</v>
       </c>
     </row>
@@ -1575,13 +1608,13 @@
       <c r="D36" s="1">
         <v>1996</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="8">
         <v>-1561680.82810946</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="12">
         <v>-0.20075598767315336</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="12">
         <v>-15.977000480957001</v>
       </c>
     </row>
@@ -1598,13 +1631,13 @@
       <c r="D37" s="2">
         <v>1997</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="9">
         <v>-965902.19008657301</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="12">
         <v>-0.12169613079079918</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="12">
         <v>-8.8752790571479299</v>
       </c>
     </row>
@@ -1621,13 +1654,13 @@
       <c r="D38" s="1">
         <v>1998</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="8">
         <v>-770819.57019077695</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="12">
         <v>-9.5198168481014811E-2</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="12">
         <v>-7.0562869330751203</v>
       </c>
     </row>
@@ -1644,13 +1677,13 @@
       <c r="D39" s="2">
         <v>1999</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="9">
         <v>35432.3590250622</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="12">
         <v>4.2911903869519439E-3</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="12">
         <v>0.34148233895952401</v>
       </c>
     </row>
@@ -1667,13 +1700,13 @@
       <c r="D40" s="1">
         <v>2000</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="8">
         <v>-810362.22816367901</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="12">
         <v>-9.6265410805854004E-2</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="12">
         <v>-7.3637872564128504</v>
       </c>
     </row>
@@ -1690,13 +1723,13 @@
       <c r="D41" s="2">
         <v>2001</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="9">
         <v>-434693.42683826498</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="12">
         <v>-5.0663569561569345E-2</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="12">
         <v>-5.0778361473095499</v>
       </c>
     </row>
@@ -1713,13 +1746,13 @@
       <c r="D42" s="1">
         <v>2002</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="8">
         <v>-588387.64131823799</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="12">
         <v>-6.7298140377243285E-2</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="12">
         <v>-5.6969702517583203</v>
       </c>
     </row>
@@ -1736,13 +1769,13 @@
       <c r="D43" s="2">
         <v>2003</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="9">
         <v>-2147541.6197951501</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="12">
         <v>-0.2411342487980182</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="12">
         <v>-19.503305461180499</v>
       </c>
     </row>
@@ -1759,13 +1792,13 @@
       <c r="D44" s="1">
         <v>2004</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="8">
         <v>-2511265.66442652</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="12">
         <v>-0.27690656791559376</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="12">
         <v>-22.791716370295202</v>
       </c>
     </row>
@@ -1782,13 +1815,13 @@
       <c r="D45" s="2">
         <v>2005</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="9">
         <v>-2799122.8172093602</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="12">
         <v>-0.30319787881383886</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="12">
         <v>-23.189754640505502</v>
       </c>
     </row>
@@ -1805,13 +1838,13 @@
       <c r="D46" s="1">
         <v>2006</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="8">
         <v>-3241849.54424085</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="12">
         <v>-0.34506115425660988</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="12">
         <v>-21.7270308530851</v>
       </c>
     </row>
@@ -1828,13 +1861,13 @@
       <c r="D47" s="2">
         <v>2007</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="9">
         <v>-2238193.7024116302</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="12">
         <v>-0.23416966963921637</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="12">
         <v>-18.380728406394699</v>
       </c>
     </row>
@@ -1851,13 +1884,13 @@
       <c r="D48" s="1">
         <v>2008</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="8">
         <v>-1667723.68642065</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="12">
         <v>-0.1715588608600607</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="12">
         <v>-12.7886151577577</v>
       </c>
     </row>
@@ -1874,13 +1907,13 @@
       <c r="D49" s="2">
         <v>2009</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="9">
         <v>-933213.615298216</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="12">
         <v>-9.4407042518787662E-2</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="12">
         <v>-6.8470944050141904</v>
       </c>
     </row>
@@ -1897,13 +1930,13 @@
       <c r="D50" s="1">
         <v>2010</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" s="8">
         <v>-1484598.8148944799</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="12">
         <v>-0.1477359752109145</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="12">
         <v>-9.9458693815434902</v>
       </c>
     </row>
@@ -1920,13 +1953,13 @@
       <c r="D51" s="2">
         <v>2011</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="9">
         <v>-1141361.89914648</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="12">
         <v>-0.11175579155453638</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="12">
         <v>-7.1312555909480597</v>
       </c>
     </row>
@@ -1943,13 +1976,13 @@
       <c r="D52" s="1">
         <v>2012</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="8">
         <v>-2095693.0851391801</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="12">
         <v>-0.20193612306216804</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="12">
         <v>-11.321084406914901</v>
       </c>
     </row>
@@ -1966,13 +1999,13 @@
       <c r="D53" s="2">
         <v>2013</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="9">
         <v>-1977392.6542412899</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="12">
         <v>-0.18757281865312939</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="12">
         <v>-10.5140403518113</v>
       </c>
     </row>
@@ -1989,13 +2022,13 @@
       <c r="D54" s="1">
         <v>2014</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" s="8">
         <v>-2477994.3541683001</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="12">
         <v>-0.23143685011378537</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="12">
         <v>-12.411061130114801</v>
       </c>
     </row>
@@ -2012,13 +2045,13 @@
       <c r="D55" s="2">
         <v>2015</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="9">
         <v>-1954749.77800919</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="12">
         <v>-0.17982978638539007</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="12">
         <v>-9.9247189760443</v>
       </c>
     </row>
@@ -2035,13 +2068,13 @@
       <c r="D56" s="1">
         <v>2016</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="8">
         <v>-1887111.78779798</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="12">
         <v>-0.17105799381780096</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="12">
         <v>-8.8957824819389799</v>
       </c>
     </row>
@@ -2058,13 +2091,13 @@
       <c r="D57" s="2">
         <v>2017</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="9">
         <v>-1512962.3097814501</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="12">
         <v>-0.1351704020174618</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="12">
         <v>-6.9683322441512301</v>
       </c>
     </row>
@@ -2081,13 +2114,13 @@
       <c r="D58" s="1">
         <v>1990</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="8">
         <v>27355505.156796101</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="12">
         <v>0.1835902978919626</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="12">
         <v>13.2202576309253</v>
       </c>
     </row>
@@ -2104,13 +2137,13 @@
       <c r="D59" s="2">
         <v>1991</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="9">
         <v>27400471.2453444</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="12">
         <v>0.1806846858866876</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="12">
         <v>12.613709537915801</v>
       </c>
     </row>
@@ -2127,13 +2160,13 @@
       <c r="D60" s="1">
         <v>1992</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" s="8">
         <v>24581796.484913599</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="12">
         <v>0.15935405055726795</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="12">
         <v>11.2562617195911</v>
       </c>
     </row>
@@ -2150,13 +2183,13 @@
       <c r="D61" s="2">
         <v>1993</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="9">
         <v>24045089.1590381</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="12">
         <v>0.15330087637816053</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="12">
         <v>10.530701393457401</v>
       </c>
     </row>
@@ -2173,13 +2206,13 @@
       <c r="D62" s="1">
         <v>1994</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="8">
         <v>26368537.146809299</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="12">
         <v>0.16538945605244396</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="12">
         <v>11.011182539964</v>
       </c>
     </row>
@@ -2196,13 +2229,13 @@
       <c r="D63" s="2">
         <v>1995</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="9">
         <v>31145542.591712199</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="12">
         <v>0.19223270331880138</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="12">
         <v>12.186050096093</v>
       </c>
     </row>
@@ -2219,13 +2252,13 @@
       <c r="D64" s="1">
         <v>1996</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="8">
         <v>34579242.212127797</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="12">
         <v>0.2100613079739258</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="12">
         <v>12.2972559164283</v>
       </c>
     </row>
@@ -2242,13 +2275,13 @@
       <c r="D65" s="2">
         <v>1997</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="9">
         <v>38033779.859264404</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="12">
         <v>0.22746251612810556</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="12">
         <v>12.8238843260495</v>
       </c>
     </row>
@@ -2265,13 +2298,13 @@
       <c r="D66" s="1">
         <v>1998</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="8">
         <v>36887869.793478101</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="12">
         <v>0.21726224220913568</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="12">
         <v>11.964714036453699</v>
       </c>
     </row>
@@ -2288,13 +2321,13 @@
       <c r="D67" s="2">
         <v>1999</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="9">
         <v>18590170.3377636</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="12">
         <v>0.10788230164847522</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="12">
         <v>5.8777118128226302</v>
       </c>
     </row>
@@ -2311,13 +2344,13 @@
       <c r="D68" s="1">
         <v>2000</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" s="8">
         <v>20892206.558855001</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="12">
         <v>0.11952747044370388</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="12">
         <v>6.4437164142815497</v>
       </c>
     </row>
@@ -2334,13 +2367,13 @@
       <c r="D69" s="2">
         <v>2001</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="9">
         <v>14952711.3021004</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="12">
         <v>8.438515148254136E-2</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="12">
         <v>4.4904736041364997</v>
       </c>
     </row>
@@ -2357,13 +2390,13 @@
       <c r="D70" s="1">
         <v>2002</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" s="8">
         <v>7027773.7336311303</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="12">
         <v>3.9143656126453062E-2</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="12">
         <v>2.1463121961414098</v>
       </c>
     </row>
@@ -2380,13 +2413,13 @@
       <c r="D71" s="2">
         <v>2003</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="9">
         <v>3547705.92881385</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="12">
         <v>1.9513368033561872E-2</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="12">
         <v>1.1173586435418901</v>
       </c>
     </row>
@@ -2403,13 +2436,13 @@
       <c r="D72" s="1">
         <v>2004</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="8">
         <v>1961569.45181195</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="12">
         <v>1.0660355922154441E-2</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="12">
         <v>0.58786801686731305</v>
       </c>
     </row>
@@ -2426,13 +2459,13 @@
       <c r="D73" s="2">
         <v>2005</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="9">
         <v>3328050.8039154001</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="12">
         <v>1.7880537503507821E-2</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="12">
         <v>0.97286828808459902</v>
       </c>
     </row>
@@ -2449,13 +2482,13 @@
       <c r="D74" s="1">
         <v>2006</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="8">
         <v>10291196.9036275</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="12">
         <v>5.4691826428797288E-2</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="12">
         <v>3.0095938622829599</v>
       </c>
     </row>
@@ -2472,13 +2505,13 @@
       <c r="D75" s="2">
         <v>2007</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="9">
         <v>16584056.4493032</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="12">
         <v>8.722482748279177E-2</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="12">
         <v>4.6464514280558902</v>
       </c>
     </row>
@@ -2495,13 +2528,13 @@
       <c r="D76" s="1">
         <v>2008</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="8">
         <v>40330537.957791097</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="12">
         <v>0.21002206924850855</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="12">
         <v>10.6036812699757</v>
       </c>
     </row>
@@ -2518,13 +2551,13 @@
       <c r="D77" s="2">
         <v>2009</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="9">
         <v>25214137.948816001</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="12">
         <v>0.13004553141167793</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="12">
         <v>7.0021615740626499</v>
       </c>
     </row>
@@ -2541,13 +2574,13 @@
       <c r="D78" s="1">
         <v>2010</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="8">
         <v>47013020.753143698</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="12">
         <v>0.2402128654728006</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="12">
         <v>11.4320102139101</v>
       </c>
     </row>
@@ -2564,13 +2597,13 @@
       <c r="D79" s="2">
         <v>2011</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="9">
         <v>55684986.991242699</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="12">
         <v>0.28192788897674959</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="12">
         <v>12.9512207747134</v>
       </c>
     </row>
@@ -2587,13 +2620,13 @@
       <c r="D80" s="1">
         <v>2012</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="8">
         <v>55109917.204521097</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="12">
         <v>0.27653543484783805</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="12">
         <v>11.977864977574599</v>
       </c>
     </row>
@@ -2610,13 +2643,13 @@
       <c r="D81" s="2">
         <v>2013</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="9">
         <v>57103634.219874799</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="12">
         <v>0.28404680863066711</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="12">
         <v>11.534997885265399</v>
       </c>
     </row>
@@ -2633,13 +2666,13 @@
       <c r="D82" s="1">
         <v>2014</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="8">
         <v>56738101.422556996</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="12">
         <v>0.27982334843738038</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="12">
         <v>10.8300706989247</v>
       </c>
     </row>
@@ -2656,13 +2689,13 @@
       <c r="D83" s="2">
         <v>2015</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="9">
         <v>48896618.032943599</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="12">
         <v>0.23913600900340193</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="12">
         <v>9.87384307240246</v>
       </c>
     </row>
@@ -2679,13 +2712,13 @@
       <c r="D84" s="1">
         <v>2016</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="8">
         <v>50291732.032906704</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="12">
         <v>0.24394159976769209</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="12">
         <v>11.0727259951808</v>
       </c>
     </row>
@@ -2702,13 +2735,13 @@
       <c r="D85" s="2">
         <v>2017</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="9">
         <v>49212581.969353102</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="12">
         <v>0.23678792675574306</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="12">
         <v>10.6098271645187</v>
       </c>
     </row>
@@ -2725,13 +2758,13 @@
       <c r="D86" s="1">
         <v>1990</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="8">
         <v>-2118621.77711605</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="12">
         <v>-0.15959486079970245</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="12">
         <v>-6.4430673833121901</v>
       </c>
     </row>
@@ -2748,13 +2781,13 @@
       <c r="D87" s="2">
         <v>1991</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="9">
         <v>-1703398.5658990999</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="12">
         <v>-0.12622442133376063</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="12">
         <v>-5.4707213954398499</v>
       </c>
     </row>
@@ -2771,13 +2804,13 @@
       <c r="D88" s="1">
         <v>1992</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="8">
         <v>-2153688.1501229499</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="12">
         <v>-0.15697435496522957</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="12">
         <v>-6.6879856637856898</v>
       </c>
     </row>
@@ -2794,13 +2827,13 @@
       <c r="D89" s="2">
         <v>1993</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="9">
         <v>-1913302.8862046599</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="12">
         <v>-0.13720350564393402</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="12">
         <v>-5.5847452247469596</v>
       </c>
     </row>
@@ -2817,13 +2850,13 @@
       <c r="D90" s="1">
         <v>1994</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="8">
         <v>-2944274.9543591002</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="12">
         <v>-0.2078409539996541</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="12">
         <v>-7.8014547568984796</v>
       </c>
     </row>
@@ -2840,13 +2873,13 @@
       <c r="D91" s="2">
         <v>1995</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="9">
         <v>-2804499.1433827798</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="12">
         <v>-0.19501419535378484</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="12">
         <v>-6.8252673826080699</v>
       </c>
     </row>
@@ -2863,13 +2896,13 @@
       <c r="D92" s="1">
         <v>1996</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" s="8">
         <v>-3962829.3910711198</v>
       </c>
-      <c r="F92" s="2">
+      <c r="F92" s="12">
         <v>-0.27166856729081512</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="12">
         <v>-8.3203056673254903</v>
       </c>
     </row>
@@ -2886,13 +2919,13 @@
       <c r="D93" s="2">
         <v>1997</v>
       </c>
-      <c r="E93" s="2">
+      <c r="E93" s="9">
         <v>-6705486.7778086998</v>
       </c>
-      <c r="F93" s="2">
+      <c r="F93" s="12">
         <v>-0.45350241970842009</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="12">
         <v>-12.092799407354599</v>
       </c>
     </row>
@@ -2909,13 +2942,13 @@
       <c r="D94" s="1">
         <v>1998</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" s="8">
         <v>-6237185.5332926</v>
       </c>
-      <c r="F94" s="2">
+      <c r="F94" s="12">
         <v>-0.41642312279961274</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="12">
         <v>-10.9795570729737</v>
       </c>
     </row>
@@ -2932,13 +2965,13 @@
       <c r="D95" s="2">
         <v>1999</v>
       </c>
-      <c r="E95" s="2">
+      <c r="E95" s="9">
         <v>-5289796.6005024305</v>
       </c>
-      <c r="F95" s="2">
+      <c r="F95" s="12">
         <v>-0.34886213813245603</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="12">
         <v>-8.6849994744510202</v>
       </c>
     </row>
@@ -2955,13 +2988,13 @@
       <c r="D96" s="1">
         <v>2000</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="8">
         <v>-2566874.8576691202</v>
       </c>
-      <c r="F96" s="2">
+      <c r="F96" s="12">
         <v>-0.16731031532193458</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="12">
         <v>-4.4169859676322902</v>
       </c>
     </row>
@@ -2978,13 +3011,13 @@
       <c r="D97" s="2">
         <v>2001</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="9">
         <v>-939554.61735362804</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="12">
         <v>-6.0553919654139469E-2</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="12">
         <v>-1.7870262187352499</v>
       </c>
     </row>
@@ -3001,13 +3034,13 @@
       <c r="D98" s="1">
         <v>2002</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="8">
         <v>-1496588.0565688999</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="12">
         <v>-9.5421324698348631E-2</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="12">
         <v>-2.7465215586024998</v>
       </c>
     </row>
@@ -3024,13 +3057,13 @@
       <c r="D99" s="2">
         <v>2003</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="9">
         <v>-4789515.7656857902</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="12">
         <v>-0.30217765083191106</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="12">
         <v>-8.7265870888219297</v>
       </c>
     </row>
@@ -3047,13 +3080,13 @@
       <c r="D100" s="1">
         <v>2004</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="8">
         <v>-5445618.9849379398</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="12">
         <v>-0.34003240617782954</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="12">
         <v>-9.2224415907937196</v>
       </c>
     </row>
@@ -3070,13 +3103,13 @@
       <c r="D101" s="2">
         <v>2005</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="9">
         <v>-1836682.87121572</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="12">
         <v>-0.11349458513351789</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="12">
         <v>-3.0135691308667401</v>
       </c>
     </row>
@@ -3093,13 +3126,13 @@
       <c r="D102" s="1">
         <v>2006</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="8">
         <v>1316318.8219113001</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="12">
         <v>8.0484183547007038E-2</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="12">
         <v>2.0576604744492601</v>
       </c>
     </row>
@@ -3116,13 +3149,13 @@
       <c r="D103" s="2">
         <v>2007</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="9">
         <v>-1307012.8579895699</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="12">
         <v>-7.9069138414372048E-2</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="12">
         <v>-1.8484928213696501</v>
       </c>
     </row>
@@ -3139,13 +3172,13 @@
       <c r="D104" s="1">
         <v>2008</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="8">
         <v>3368673.8610493499</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="12">
         <v>0.20162041303862521</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="12">
         <v>4.7567602395320003</v>
       </c>
     </row>
@@ -3162,13 +3195,13 @@
       <c r="D105" s="2">
         <v>2009</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="9">
         <v>-3043598.8064403501</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="12">
         <v>-0.18024391842001364</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="12">
         <v>-4.6171147438493003</v>
       </c>
     </row>
@@ -3185,13 +3218,13 @@
       <c r="D106" s="1">
         <v>2010</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" s="8">
         <v>1617473.2204038501</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="12">
         <v>9.4794187446747349E-2</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="12">
         <v>2.26760036290435</v>
       </c>
     </row>
@@ -3208,13 +3241,13 @@
       <c r="D107" s="2">
         <v>2011</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="9">
         <v>3120407.7104799799</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="12">
         <v>0.18106114137634791</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="12">
         <v>3.9962291161941601</v>
       </c>
     </row>
@@ -3231,13 +3264,13 @@
       <c r="D108" s="1">
         <v>2012</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="8">
         <v>7297313.6861245604</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="12">
         <v>0.41938584403014717</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="12">
         <v>9.1555458412223594</v>
       </c>
     </row>
@@ -3254,13 +3287,13 @@
       <c r="D109" s="2">
         <v>2013</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="9">
         <v>6091935.5319024697</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="12">
         <v>0.34668424379139939</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="12">
         <v>7.4572415604091402</v>
       </c>
     </row>
@@ -3277,13 +3310,13 @@
       <c r="D110" s="1">
         <v>2014</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" s="8">
         <v>8149594.8622279996</v>
       </c>
-      <c r="F110" s="2">
+      <c r="F110" s="12">
         <v>0.45889942351641422</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="12">
         <v>10.527096634943</v>
       </c>
     </row>
@@ -3300,13 +3333,13 @@
       <c r="D111" s="2">
         <v>2015</v>
       </c>
-      <c r="E111" s="2">
+      <c r="E111" s="9">
         <v>6095803.9262468796</v>
       </c>
-      <c r="F111" s="2">
+      <c r="F111" s="12">
         <v>0.33924002038215145</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="12">
         <v>7.4679796665816296</v>
       </c>
     </row>
@@ -3323,13 +3356,13 @@
       <c r="D112" s="1">
         <v>2016</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="8">
         <v>4833749.9387708204</v>
       </c>
-      <c r="F112" s="2">
+      <c r="F112" s="12">
         <v>0.26545938485204135</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="12">
         <v>5.7447025953266104</v>
       </c>
     </row>
@@ -3346,13 +3379,13 @@
       <c r="D113" s="2">
         <v>2017</v>
       </c>
-      <c r="E113" s="2">
+      <c r="E113" s="9">
         <v>6279172.2484475896</v>
       </c>
-      <c r="F113" s="2">
+      <c r="F113" s="12">
         <v>0.33996601236857549</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="12">
         <v>7.5252165317042596</v>
       </c>
     </row>
@@ -3369,13 +3402,13 @@
       <c r="D114" s="1">
         <v>1990</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="8">
         <v>5703080.2974104397</v>
       </c>
-      <c r="F114" s="2">
+      <c r="F114" s="12">
         <v>0.17228288364832312</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="12">
         <v>10.0233925373043</v>
       </c>
     </row>
@@ -3392,13 +3425,13 @@
       <c r="D115" s="2">
         <v>1991</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="9">
         <v>5132771.0791274495</v>
       </c>
-      <c r="F115" s="2">
+      <c r="F115" s="12">
         <v>0.15204606549936162</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="12">
         <v>9.0598436672653602</v>
       </c>
     </row>
@@ -3415,13 +3448,13 @@
       <c r="D116" s="1">
         <v>1992</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="8">
         <v>4146480.7809202899</v>
       </c>
-      <c r="F116" s="2">
+      <c r="F116" s="12">
         <v>0.12045669409755948</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="12">
         <v>6.7428284542992802</v>
       </c>
     </row>
@@ -3438,13 +3471,13 @@
       <c r="D117" s="2">
         <v>1993</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="9">
         <v>5932467.2772260802</v>
       </c>
-      <c r="F117" s="2">
+      <c r="F117" s="12">
         <v>0.16905951033672681</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G117" s="12">
         <v>9.3663992656800108</v>
       </c>
     </row>
@@ -3461,13 +3494,13 @@
       <c r="D118" s="1">
         <v>1994</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="8">
         <v>6910280.9490924599</v>
       </c>
-      <c r="F118" s="2">
+      <c r="F118" s="12">
         <v>0.19324592267939428</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G118" s="12">
         <v>10.3461915781239</v>
       </c>
     </row>
@@ -3484,13 +3517,13 @@
       <c r="D119" s="2">
         <v>1995</v>
       </c>
-      <c r="E119" s="2">
+      <c r="E119" s="9">
         <v>9104089.4407972991</v>
       </c>
-      <c r="F119" s="2">
+      <c r="F119" s="12">
         <v>0.2499681348891381</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G119" s="12">
         <v>15.489627769385701</v>
       </c>
     </row>
@@ -3507,13 +3540,13 @@
       <c r="D120" s="1">
         <v>1996</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" s="8">
         <v>7566507.3778917296</v>
       </c>
-      <c r="F120" s="2">
+      <c r="F120" s="12">
         <v>0.20408100598478071</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G120" s="12">
         <v>12.6591868446503</v>
       </c>
     </row>
@@ -3530,13 +3563,13 @@
       <c r="D121" s="2">
         <v>1997</v>
       </c>
-      <c r="E121" s="2">
+      <c r="E121" s="9">
         <v>9369562.4008433595</v>
       </c>
-      <c r="F121" s="2">
+      <c r="F121" s="12">
         <v>0.24837139223951224</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G121" s="12">
         <v>14.5272353278355</v>
       </c>
     </row>
@@ -3553,13 +3586,13 @@
       <c r="D122" s="1">
         <v>1998</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="8">
         <v>10599301.977713</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="12">
         <v>0.27628250385030234</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="12">
         <v>16.267154810209</v>
       </c>
     </row>
@@ -3576,13 +3609,13 @@
       <c r="D123" s="2">
         <v>1999</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="9">
         <v>6525646.4084442602</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="12">
         <v>0.16732855735901589</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="12">
         <v>11.916542445796001</v>
       </c>
     </row>
@@ -3599,13 +3632,13 @@
       <c r="D124" s="1">
         <v>2000</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="8">
         <v>4816859.1440249402</v>
       </c>
-      <c r="F124" s="2">
+      <c r="F124" s="12">
         <v>0.12154577703822711</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G124" s="12">
         <v>8.5619698726347107</v>
       </c>
     </row>
@@ -3622,13 +3655,13 @@
       <c r="D125" s="2">
         <v>2001</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E125" s="9">
         <v>6403323.7835684801</v>
       </c>
-      <c r="F125" s="2">
+      <c r="F125" s="12">
         <v>0.15906507808943959</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G125" s="12">
         <v>11.4469987025278</v>
       </c>
     </row>
@@ -3645,13 +3678,13 @@
       <c r="D126" s="1">
         <v>2002</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="8">
         <v>10675863.850263599</v>
       </c>
-      <c r="F126" s="2">
+      <c r="F126" s="12">
         <v>0.26118321346210638</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G126" s="12">
         <v>19.2599551211765</v>
       </c>
     </row>
@@ -3668,13 +3701,13 @@
       <c r="D127" s="2">
         <v>2003</v>
       </c>
-      <c r="E127" s="2">
+      <c r="E127" s="9">
         <v>4394626.5800293097</v>
       </c>
-      <c r="F127" s="2">
+      <c r="F127" s="12">
         <v>0.10593545897284036</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G127" s="12">
         <v>7.6971905442467303</v>
       </c>
     </row>
@@ -3691,13 +3724,13 @@
       <c r="D128" s="1">
         <v>2004</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" s="8">
         <v>4451653.3252040204</v>
       </c>
-      <c r="F128" s="2">
+      <c r="F128" s="12">
         <v>0.10580029768048342</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G128" s="12">
         <v>8.1578136005935793</v>
       </c>
     </row>
@@ -3714,13 +3747,13 @@
       <c r="D129" s="2">
         <v>2005</v>
       </c>
-      <c r="E129" s="2">
+      <c r="E129" s="9">
         <v>5468372.1790493801</v>
       </c>
-      <c r="F129" s="2">
+      <c r="F129" s="12">
         <v>0.12822106966444805</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G129" s="12">
         <v>9.1049057833751803</v>
       </c>
     </row>
@@ -3737,13 +3770,13 @@
       <c r="D130" s="1">
         <v>2006</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" s="8">
         <v>8393856.1104513593</v>
       </c>
-      <c r="F130" s="2">
+      <c r="F130" s="12">
         <v>0.19429772714639382</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G130" s="12">
         <v>13.537487177472499</v>
       </c>
     </row>
@@ -3760,13 +3793,13 @@
       <c r="D131" s="2">
         <v>2007</v>
       </c>
-      <c r="E131" s="2">
+      <c r="E131" s="9">
         <v>10296495.237465899</v>
       </c>
-      <c r="F131" s="2">
+      <c r="F131" s="12">
         <v>0.23541303300255839</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G131" s="12">
         <v>16.7678212024339</v>
       </c>
     </row>
@@ -3783,13 +3816,13 @@
       <c r="D132" s="1">
         <v>2008</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" s="8">
         <v>10191093.8003377</v>
       </c>
-      <c r="F132" s="2">
+      <c r="F132" s="12">
         <v>0.23028118405463113</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G132" s="12">
         <v>15.1513518555718</v>
       </c>
     </row>
@@ -3806,13 +3839,13 @@
       <c r="D133" s="2">
         <v>2009</v>
       </c>
-      <c r="E133" s="2">
+      <c r="E133" s="9">
         <v>5984432.6926613403</v>
       </c>
-      <c r="F133" s="2">
+      <c r="F133" s="12">
         <v>0.13373033950081206</v>
       </c>
-      <c r="G133" s="2">
+      <c r="G133" s="12">
         <v>8.2479371899134097</v>
       </c>
     </row>
@@ -3829,13 +3862,13 @@
       <c r="D134" s="1">
         <v>2010</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E134" s="8">
         <v>8295344.6828981703</v>
       </c>
-      <c r="F134" s="2">
+      <c r="F134" s="12">
         <v>0.18343198555819318</v>
       </c>
-      <c r="G134" s="2">
+      <c r="G134" s="12">
         <v>10.875086620691199</v>
       </c>
     </row>
@@ -3852,13 +3885,13 @@
       <c r="D135" s="2">
         <v>2011</v>
       </c>
-      <c r="E135" s="2">
+      <c r="E135" s="9">
         <v>11621345.583138401</v>
       </c>
-      <c r="F135" s="2">
+      <c r="F135" s="12">
         <v>0.25450245457237591</v>
       </c>
-      <c r="G135" s="2">
+      <c r="G135" s="12">
         <v>15.2752229039619</v>
       </c>
     </row>
@@ -3875,13 +3908,13 @@
       <c r="D136" s="1">
         <v>2012</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E136" s="8">
         <v>12753073.5650304</v>
       </c>
-      <c r="F136" s="2">
+      <c r="F136" s="12">
         <v>0.27678343530320337</v>
       </c>
-      <c r="G136" s="2">
+      <c r="G136" s="12">
         <v>15.995881317192</v>
       </c>
     </row>
@@ -3898,13 +3931,13 @@
       <c r="D137" s="2">
         <v>2013</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E137" s="9">
         <v>11540914.066931</v>
       </c>
-      <c r="F137" s="2">
+      <c r="F137" s="12">
         <v>0.24821839051362513</v>
       </c>
-      <c r="G137" s="2">
+      <c r="G137" s="12">
         <v>12.5659494347245</v>
       </c>
     </row>
@@ -3921,13 +3954,13 @@
       <c r="D138" s="1">
         <v>2014</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E138" s="8">
         <v>14022736.3115116</v>
       </c>
-      <c r="F138" s="2">
+      <c r="F138" s="12">
         <v>0.29855936619638052</v>
       </c>
-      <c r="G138" s="2">
+      <c r="G138" s="12">
         <v>16.3594448089544</v>
       </c>
     </row>
@@ -3944,13 +3977,13 @@
       <c r="D139" s="2">
         <v>2015</v>
       </c>
-      <c r="E139" s="2">
+      <c r="E139" s="9">
         <v>12063858.6049641</v>
       </c>
-      <c r="F139" s="2">
+      <c r="F139" s="12">
         <v>0.25386373613695207</v>
       </c>
-      <c r="G139" s="2">
+      <c r="G139" s="12">
         <v>12.960180948272701</v>
       </c>
     </row>
@@ -3967,13 +4000,13 @@
       <c r="D140" s="1">
         <v>2016</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E140" s="8">
         <v>11172801.9607409</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="12">
         <v>0.23192116161371873</v>
       </c>
-      <c r="G140" s="2">
+      <c r="G140" s="12">
         <v>11.5382883013546</v>
       </c>
     </row>
@@ -3990,13 +4023,13 @@
       <c r="D141" s="2">
         <v>2017</v>
       </c>
-      <c r="E141" s="2">
+      <c r="E141" s="9">
         <v>12598708.825383199</v>
       </c>
-      <c r="F141" s="2">
+      <c r="F141" s="12">
         <v>0.25758963045150685</v>
       </c>
-      <c r="G141" s="2">
+      <c r="G141" s="12">
         <v>13.5257044348346</v>
       </c>
     </row>
@@ -4013,13 +4046,13 @@
       <c r="D142" s="1">
         <v>1990</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E142" s="8">
         <v>1999721.5523687401</v>
       </c>
-      <c r="F142" s="2">
+      <c r="F142" s="12">
         <v>0.64114188918523252</v>
       </c>
-      <c r="G142" s="2">
+      <c r="G142" s="12">
         <v>68.672107708254998</v>
       </c>
     </row>
@@ -4036,13 +4069,13 @@
       <c r="D143" s="2">
         <v>1991</v>
       </c>
-      <c r="E143" s="2">
+      <c r="E143" s="9">
         <v>1962426.38143789</v>
       </c>
-      <c r="F143" s="2">
+      <c r="F143" s="12">
         <v>0.61287519720108996</v>
       </c>
-      <c r="G143" s="2">
+      <c r="G143" s="12">
         <v>59.697850347509203</v>
       </c>
     </row>
@@ -4059,13 +4092,13 @@
       <c r="D144" s="1">
         <v>1992</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E144" s="8">
         <v>1797482.1247527399</v>
       </c>
-      <c r="F144" s="2">
+      <c r="F144" s="12">
         <v>0.54684579396189226</v>
       </c>
-      <c r="G144" s="2">
+      <c r="G144" s="12">
         <v>48.045353910465302</v>
       </c>
     </row>
@@ -4082,13 +4115,13 @@
       <c r="D145" s="2">
         <v>1993</v>
       </c>
-      <c r="E145" s="2">
+      <c r="E145" s="9">
         <v>1922570.97257976</v>
       </c>
-      <c r="F145" s="2">
+      <c r="F145" s="12">
         <v>0.57015746517786481</v>
       </c>
-      <c r="G145" s="2">
+      <c r="G145" s="12">
         <v>49.410727944680303</v>
       </c>
     </row>
@@ -4105,13 +4138,13 @@
       <c r="D146" s="1">
         <v>1994</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E146" s="8">
         <v>1898729.9173320101</v>
       </c>
-      <c r="F146" s="2">
+      <c r="F146" s="12">
         <v>0.54892452076669851</v>
       </c>
-      <c r="G146" s="2">
+      <c r="G146" s="12">
         <v>36.5116929955513</v>
       </c>
     </row>
@@ -4128,13 +4161,13 @@
       <c r="D147" s="2">
         <v>1995</v>
       </c>
-      <c r="E147" s="2">
+      <c r="E147" s="9">
         <v>2115917.08832032</v>
       </c>
-      <c r="F147" s="2">
+      <c r="F147" s="12">
         <v>0.5967053266554766</v>
       </c>
-      <c r="G147" s="2">
+      <c r="G147" s="12">
         <v>44.064298014032097</v>
       </c>
     </row>
@@ -4151,13 +4184,13 @@
       <c r="D148" s="1">
         <v>1996</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E148" s="8">
         <v>2067428.87526742</v>
       </c>
-      <c r="F148" s="2">
+      <c r="F148" s="12">
         <v>0.56922601191283584</v>
       </c>
-      <c r="G148" s="2">
+      <c r="G148" s="12">
         <v>44.112334226352303</v>
       </c>
     </row>
@@ -4174,13 +4207,13 @@
       <c r="D149" s="2">
         <v>1997</v>
       </c>
-      <c r="E149" s="2">
+      <c r="E149" s="9">
         <v>2582264.8905039802</v>
       </c>
-      <c r="F149" s="2">
+      <c r="F149" s="12">
         <v>0.69434388021080407</v>
       </c>
-      <c r="G149" s="2">
+      <c r="G149" s="12">
         <v>52.520663700778897</v>
       </c>
     </row>
@@ -4197,13 +4230,13 @@
       <c r="D150" s="1">
         <v>1998</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E150" s="8">
         <v>3627379.5549940998</v>
       </c>
-      <c r="F150" s="2">
+      <c r="F150" s="12">
         <v>0.95356980940959513</v>
       </c>
-      <c r="G150" s="2">
+      <c r="G150" s="12">
         <v>69.284836970948007</v>
       </c>
     </row>
@@ -4220,13 +4253,13 @@
       <c r="D151" s="2">
         <v>1999</v>
       </c>
-      <c r="E151" s="2">
+      <c r="E151" s="9">
         <v>7494883.2168626599</v>
       </c>
-      <c r="F151" s="2">
+      <c r="F151" s="12">
         <v>1.929184869205318</v>
       </c>
-      <c r="G151" s="2">
+      <c r="G151" s="12">
         <v>137.799013137858</v>
       </c>
     </row>
@@ -4243,13 +4276,13 @@
       <c r="D152" s="1">
         <v>2000</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E152" s="8">
         <v>4645051.0532134101</v>
       </c>
-      <c r="F152" s="2">
+      <c r="F152" s="12">
         <v>1.1724005687060601</v>
       </c>
-      <c r="G152" s="2">
+      <c r="G152" s="12">
         <v>86.107541570124098</v>
       </c>
     </row>
@@ -4266,13 +4299,13 @@
       <c r="D153" s="2">
         <v>2001</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="9">
         <v>6512907.5548702003</v>
       </c>
-      <c r="F153" s="2">
+      <c r="F153" s="12">
         <v>1.6145036080491324</v>
       </c>
-      <c r="G153" s="2">
+      <c r="G153" s="12">
         <v>114.948842081777</v>
       </c>
     </row>
@@ -4289,13 +4322,13 @@
       <c r="D154" s="1">
         <v>2002</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E154" s="8">
         <v>11697988.502118099</v>
       </c>
-      <c r="F154" s="2">
+      <c r="F154" s="12">
         <v>2.852472202418459</v>
       </c>
-      <c r="G154" s="2">
+      <c r="G154" s="12">
         <v>187.876146840697</v>
       </c>
     </row>
@@ -4312,13 +4345,13 @@
       <c r="D155" s="2">
         <v>2003</v>
       </c>
-      <c r="E155" s="2">
+      <c r="E155" s="9">
         <v>5920445.5627332199</v>
       </c>
-      <c r="F155" s="2">
+      <c r="F155" s="12">
         <v>1.4218168978706101</v>
       </c>
-      <c r="G155" s="2">
+      <c r="G155" s="12">
         <v>90.684879370203802</v>
       </c>
     </row>
@@ -4335,13 +4368,13 @@
       <c r="D156" s="1">
         <v>2004</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E156" s="8">
         <v>6005031.1291280603</v>
       </c>
-      <c r="F156" s="2">
+      <c r="F156" s="12">
         <v>1.42130914298889</v>
       </c>
-      <c r="G156" s="2">
+      <c r="G156" s="12">
         <v>88.335204831663106</v>
       </c>
     </row>
@@ -4358,13 +4391,13 @@
       <c r="D157" s="2">
         <v>2005</v>
       </c>
-      <c r="E157" s="2">
+      <c r="E157" s="9">
         <v>6952975.4224733198</v>
       </c>
-      <c r="F157" s="2">
+      <c r="F157" s="12">
         <v>1.622252781724993</v>
       </c>
-      <c r="G157" s="2">
+      <c r="G157" s="12">
         <v>103.975011412478</v>
       </c>
     </row>
@@ -4381,13 +4414,13 @@
       <c r="D158" s="1">
         <v>2006</v>
       </c>
-      <c r="E158" s="1">
+      <c r="E158" s="8">
         <v>4446811.25408452</v>
       </c>
-      <c r="F158" s="2">
+      <c r="F158" s="12">
         <v>1.0234318191218688</v>
       </c>
-      <c r="G158" s="2">
+      <c r="G158" s="12">
         <v>63.842528228950897</v>
       </c>
     </row>
@@ -4404,13 +4437,13 @@
       <c r="D159" s="2">
         <v>2007</v>
       </c>
-      <c r="E159" s="2">
+      <c r="E159" s="9">
         <v>5008950.4812984699</v>
       </c>
-      <c r="F159" s="2">
+      <c r="F159" s="12">
         <v>1.1371056711233758</v>
       </c>
-      <c r="G159" s="2">
+      <c r="G159" s="12">
         <v>63.471398305052801</v>
       </c>
     </row>
@@ -4427,13 +4460,13 @@
       <c r="D160" s="1">
         <v>2008</v>
       </c>
-      <c r="E160" s="1">
+      <c r="E160" s="8">
         <v>5040453.4539260902</v>
       </c>
-      <c r="F160" s="2">
+      <c r="F160" s="12">
         <v>1.1293868370885256</v>
       </c>
-      <c r="G160" s="2">
+      <c r="G160" s="12">
         <v>63.7188401711295</v>
       </c>
     </row>
@@ -4450,13 +4483,13 @@
       <c r="D161" s="2">
         <v>2009</v>
       </c>
-      <c r="E161" s="2">
+      <c r="E161" s="9">
         <v>3614823.3041439001</v>
       </c>
-      <c r="F161" s="2">
+      <c r="F161" s="12">
         <v>0.79956277463921699</v>
       </c>
-      <c r="G161" s="2">
+      <c r="G161" s="12">
         <v>47.072574111635497</v>
       </c>
     </row>
@@ -4473,13 +4506,13 @@
       <c r="D162" s="1">
         <v>2010</v>
       </c>
-      <c r="E162" s="1">
+      <c r="E162" s="8">
         <v>4346500.6835725503</v>
       </c>
-      <c r="F162" s="2">
+      <c r="F162" s="12">
         <v>0.94963965120658733</v>
       </c>
-      <c r="G162" s="2">
+      <c r="G162" s="12">
         <v>58.514496006244997</v>
       </c>
     </row>
@@ -4496,13 +4529,13 @@
       <c r="D163" s="2">
         <v>2011</v>
       </c>
-      <c r="E163" s="2">
+      <c r="E163" s="9">
         <v>5399660.3171666199</v>
       </c>
-      <c r="F163" s="2">
+      <c r="F163" s="12">
         <v>1.1654781604072135</v>
       </c>
-      <c r="G163" s="2">
+      <c r="G163" s="12">
         <v>74.807103377175594</v>
       </c>
     </row>
@@ -4519,13 +4552,13 @@
       <c r="D164" s="1">
         <v>2012</v>
       </c>
-      <c r="E164" s="1">
+      <c r="E164" s="8">
         <v>5809168.5841619801</v>
       </c>
-      <c r="F164" s="2">
+      <c r="F164" s="12">
         <v>1.2391571211949617</v>
       </c>
-      <c r="G164" s="2">
+      <c r="G164" s="12">
         <v>80.926731083288502</v>
       </c>
     </row>
@@ -4542,13 +4575,13 @@
       <c r="D165" s="2">
         <v>2013</v>
       </c>
-      <c r="E165" s="2">
+      <c r="E165" s="9">
         <v>4890534.0527906297</v>
       </c>
-      <c r="F165" s="2">
+      <c r="F165" s="12">
         <v>1.0313230815669823</v>
       </c>
-      <c r="G165" s="2">
+      <c r="G165" s="12">
         <v>64.756964188781296</v>
       </c>
     </row>
@@ -4565,13 +4598,13 @@
       <c r="D166" s="1">
         <v>2014</v>
       </c>
-      <c r="E166" s="1">
+      <c r="E166" s="8">
         <v>4900848.9690224696</v>
       </c>
-      <c r="F166" s="2">
+      <c r="F166" s="12">
         <v>1.0220748631955099</v>
       </c>
-      <c r="G166" s="2">
+      <c r="G166" s="12">
         <v>63.885865852396698</v>
       </c>
     </row>
@@ -4588,13 +4621,13 @@
       <c r="D167" s="2">
         <v>2015</v>
       </c>
-      <c r="E167" s="2">
+      <c r="E167" s="9">
         <v>4830960.7271068403</v>
       </c>
-      <c r="F167" s="2">
+      <c r="F167" s="12">
         <v>0.99648529849563539</v>
       </c>
-      <c r="G167" s="2">
+      <c r="G167" s="12">
         <v>65.905030158678301</v>
       </c>
     </row>
@@ -4611,13 +4644,13 @@
       <c r="D168" s="1">
         <v>2016</v>
       </c>
-      <c r="E168" s="1">
+      <c r="E168" s="8">
         <v>4452544.3214550102</v>
       </c>
-      <c r="F168" s="2">
+      <c r="F168" s="12">
         <v>0.90886799784752204</v>
       </c>
-      <c r="G168" s="2">
+      <c r="G168" s="12">
         <v>56.795829042024302</v>
       </c>
     </row>
@@ -4634,13 +4667,13 @@
       <c r="D169" s="2">
         <v>2017</v>
       </c>
-      <c r="E169" s="2">
+      <c r="E169" s="9">
         <v>4529098.80201062</v>
       </c>
-      <c r="F169" s="2">
+      <c r="F169" s="12">
         <v>0.91496945495164039</v>
       </c>
-      <c r="G169" s="2">
+      <c r="G169" s="12">
         <v>57.9533952587568</v>
       </c>
     </row>
@@ -4657,13 +4690,13 @@
       <c r="D170" s="1">
         <v>1990</v>
       </c>
-      <c r="E170" s="1">
+      <c r="E170" s="8">
         <v>502437.60419401602</v>
       </c>
-      <c r="F170" s="2">
+      <c r="F170" s="12">
         <v>7.0438469675314183E-2</v>
       </c>
-      <c r="G170" s="2">
+      <c r="G170" s="12">
         <v>5.4901077075697398</v>
       </c>
     </row>
@@ -4680,13 +4713,13 @@
       <c r="D171" s="2">
         <v>1991</v>
       </c>
-      <c r="E171" s="2">
+      <c r="E171" s="9">
         <v>405922.68142405798</v>
       </c>
-      <c r="F171" s="2">
+      <c r="F171" s="12">
         <v>5.5835306935908942E-2</v>
       </c>
-      <c r="G171" s="2">
+      <c r="G171" s="12">
         <v>4.0785618032813504</v>
       </c>
     </row>
@@ -4703,13 +4736,13 @@
       <c r="D172" s="1">
         <v>1992</v>
       </c>
-      <c r="E172" s="1">
+      <c r="E172" s="8">
         <v>402435.63914207602</v>
       </c>
-      <c r="F172" s="2">
+      <c r="F172" s="12">
         <v>5.4324465326954105E-2</v>
       </c>
-      <c r="G172" s="2">
+      <c r="G172" s="12">
         <v>3.7185543884851899</v>
       </c>
     </row>
@@ -4726,13 +4759,13 @@
       <c r="D173" s="2">
         <v>1993</v>
       </c>
-      <c r="E173" s="2">
+      <c r="E173" s="9">
         <v>324990.15130414697</v>
       </c>
-      <c r="F173" s="2">
+      <c r="F173" s="12">
         <v>4.3067870567737476E-2</v>
       </c>
-      <c r="G173" s="2">
+      <c r="G173" s="12">
         <v>2.7855075716190298</v>
       </c>
     </row>
@@ -4749,13 +4782,13 @@
       <c r="D174" s="1">
         <v>1994</v>
       </c>
-      <c r="E174" s="1">
+      <c r="E174" s="8">
         <v>345874.86124771601</v>
       </c>
-      <c r="F174" s="2">
+      <c r="F174" s="12">
         <v>4.5012345295121811E-2</v>
       </c>
-      <c r="G174" s="2">
+      <c r="G174" s="12">
         <v>2.7945432428635599</v>
       </c>
     </row>
@@ -4772,13 +4805,13 @@
       <c r="D175" s="2">
         <v>1995</v>
       </c>
-      <c r="E175" s="2">
+      <c r="E175" s="9">
         <v>-295673.644906973</v>
       </c>
-      <c r="F175" s="2">
+      <c r="F175" s="12">
         <v>-3.7814764663892185E-2</v>
       </c>
-      <c r="G175" s="2">
+      <c r="G175" s="12">
         <v>-1.8747501151293999</v>
       </c>
     </row>
@@ -4795,13 +4828,13 @@
       <c r="D176" s="1">
         <v>1996</v>
       </c>
-      <c r="E176" s="1">
+      <c r="E176" s="8">
         <v>-158086.619362233</v>
       </c>
-      <c r="F176" s="2">
+      <c r="F176" s="12">
         <v>-1.9877608369449642E-2</v>
       </c>
-      <c r="G176" s="2">
+      <c r="G176" s="12">
         <v>-0.91923348912115999</v>
       </c>
     </row>
@@ -4818,13 +4851,13 @@
       <c r="D177" s="2">
         <v>1997</v>
       </c>
-      <c r="E177" s="2">
+      <c r="E177" s="9">
         <v>350825.53366701602</v>
       </c>
-      <c r="F177" s="2">
+      <c r="F177" s="12">
         <v>4.3397517771773385E-2</v>
       </c>
-      <c r="G177" s="2">
+      <c r="G177" s="12">
         <v>1.9594190833084899</v>
       </c>
     </row>
@@ -4841,13 +4874,13 @@
       <c r="D178" s="1">
         <v>1998</v>
       </c>
-      <c r="E178" s="1">
+      <c r="E178" s="8">
         <v>2464070.7816033298</v>
       </c>
-      <c r="F178" s="2">
+      <c r="F178" s="12">
         <v>0.29998426851757121</v>
       </c>
-      <c r="G178" s="2">
+      <c r="G178" s="12">
         <v>13.5028405709047</v>
       </c>
     </row>
@@ -4864,13 +4897,13 @@
       <c r="D179" s="2">
         <v>1999</v>
       </c>
-      <c r="E179" s="2">
+      <c r="E179" s="9">
         <v>5765779.55194066</v>
       </c>
-      <c r="F179" s="2">
+      <c r="F179" s="12">
         <v>0.69109187965248231</v>
       </c>
-      <c r="G179" s="2">
+      <c r="G179" s="12">
         <v>31.363210644422001</v>
       </c>
     </row>
@@ -4887,13 +4920,13 @@
       <c r="D180" s="1">
         <v>2000</v>
       </c>
-      <c r="E180" s="1">
+      <c r="E180" s="8">
         <v>6210822.1251833299</v>
       </c>
-      <c r="F180" s="2">
+      <c r="F180" s="12">
         <v>0.73318641543894814</v>
       </c>
-      <c r="G180" s="2">
+      <c r="G180" s="12">
         <v>31.698152953864501</v>
       </c>
     </row>
@@ -4910,13 +4943,13 @@
       <c r="D181" s="2">
         <v>2001</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E181" s="9">
         <v>6941497.2435764503</v>
       </c>
-      <c r="F181" s="2">
+      <c r="F181" s="12">
         <v>0.80724470794004544</v>
       </c>
-      <c r="G181" s="2">
+      <c r="G181" s="12">
         <v>35.4270291042953</v>
       </c>
     </row>
@@ -4933,13 +4966,13 @@
       <c r="D182" s="1">
         <v>2002</v>
       </c>
-      <c r="E182" s="1">
+      <c r="E182" s="8">
         <v>2886044.6503927298</v>
       </c>
-      <c r="F182" s="2">
+      <c r="F182" s="12">
         <v>0.33077875649200339</v>
       </c>
-      <c r="G182" s="2">
+      <c r="G182" s="12">
         <v>13.6946193446053</v>
       </c>
     </row>
@@ -4956,13 +4989,13 @@
       <c r="D183" s="2">
         <v>2003</v>
       </c>
-      <c r="E183" s="2">
+      <c r="E183" s="9">
         <v>272810.84691525501</v>
       </c>
-      <c r="F183" s="2">
+      <c r="F183" s="12">
         <v>3.0826084397203957E-2</v>
       </c>
-      <c r="G183" s="2">
+      <c r="G183" s="12">
         <v>1.2832188014866801</v>
       </c>
     </row>
@@ -4979,13 +5012,13 @@
       <c r="D184" s="1">
         <v>2004</v>
       </c>
-      <c r="E184" s="1">
+      <c r="E184" s="8">
         <v>449748.98512484803</v>
       </c>
-      <c r="F184" s="2">
+      <c r="F184" s="12">
         <v>5.0116891589575219E-2</v>
       </c>
-      <c r="G184" s="2">
+      <c r="G184" s="12">
         <v>2.48896276149457</v>
       </c>
     </row>
@@ -5002,13 +5035,13 @@
       <c r="D185" s="2">
         <v>2005</v>
       </c>
-      <c r="E185" s="2">
+      <c r="E185" s="9">
         <v>1732755.28492795</v>
       </c>
-      <c r="F185" s="2">
+      <c r="F185" s="12">
         <v>0.19047546278201055</v>
       </c>
-      <c r="G185" s="2">
+      <c r="G185" s="12">
         <v>9.4272918451121903</v>
       </c>
     </row>
@@ -5025,13 +5058,13 @@
       <c r="D186" s="1">
         <v>2006</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E186" s="8">
         <v>1453065.3271697499</v>
       </c>
-      <c r="F186" s="2">
+      <c r="F186" s="12">
         <v>0.15761637131681852</v>
       </c>
-      <c r="G186" s="2">
+      <c r="G186" s="12">
         <v>7.4821340656649902</v>
       </c>
     </row>
@@ -5048,13 +5081,13 @@
       <c r="D187" s="2">
         <v>2007</v>
       </c>
-      <c r="E187" s="2">
+      <c r="E187" s="9">
         <v>2706986.0922670201</v>
       </c>
-      <c r="F187" s="2">
+      <c r="F187" s="12">
         <v>0.28985823881218764</v>
       </c>
-      <c r="G187" s="2">
+      <c r="G187" s="12">
         <v>13.0416733919922</v>
       </c>
     </row>
@@ -5071,13 +5104,13 @@
       <c r="D188" s="1">
         <v>2008</v>
       </c>
-      <c r="E188" s="1">
+      <c r="E188" s="8">
         <v>4079134.9318404002</v>
       </c>
-      <c r="F188" s="2">
+      <c r="F188" s="12">
         <v>0.43128937744136181</v>
       </c>
-      <c r="G188" s="2">
+      <c r="G188" s="12">
         <v>20.1249773307342</v>
       </c>
     </row>
@@ -5094,13 +5127,13 @@
       <c r="D189" s="2">
         <v>2009</v>
       </c>
-      <c r="E189" s="2">
+      <c r="E189" s="9">
         <v>2779271.0091665299</v>
       </c>
-      <c r="F189" s="2">
+      <c r="F189" s="12">
         <v>0.29020267402803906</v>
       </c>
-      <c r="G189" s="2">
+      <c r="G189" s="12">
         <v>14.027046060639799</v>
       </c>
     </row>
@@ -5117,13 +5150,13 @@
       <c r="D190" s="1">
         <v>2010</v>
       </c>
-      <c r="E190" s="1">
+      <c r="E190" s="8">
         <v>3145023.0025248402</v>
       </c>
-      <c r="F190" s="2">
+      <c r="F190" s="12">
         <v>0.32439639015212379</v>
       </c>
-      <c r="G190" s="2">
+      <c r="G190" s="12">
         <v>15.2860766550432</v>
       </c>
     </row>
@@ -5140,13 +5173,13 @@
       <c r="D191" s="2">
         <v>2011</v>
       </c>
-      <c r="E191" s="2">
+      <c r="E191" s="9">
         <v>2781286.9203640199</v>
       </c>
-      <c r="F191" s="2">
+      <c r="F191" s="12">
         <v>0.28342881079833077</v>
       </c>
-      <c r="G191" s="2">
+      <c r="G191" s="12">
         <v>13.045929317737899</v>
       </c>
     </row>
@@ -5163,13 +5196,13 @@
       <c r="D192" s="1">
         <v>2012</v>
       </c>
-      <c r="E192" s="1">
+      <c r="E192" s="8">
         <v>3702425.06686403</v>
       </c>
-      <c r="F192" s="2">
+      <c r="F192" s="12">
         <v>0.37281492970134228</v>
       </c>
-      <c r="G192" s="2">
+      <c r="G192" s="12">
         <v>17.225594051513799</v>
       </c>
     </row>
@@ -5186,13 +5219,13 @@
       <c r="D193" s="2">
         <v>2013</v>
       </c>
-      <c r="E193" s="2">
+      <c r="E193" s="9">
         <v>2274101.30816101</v>
       </c>
-      <c r="F193" s="2">
+      <c r="F193" s="12">
         <v>0.22632377668799861</v>
       </c>
-      <c r="G193" s="2">
+      <c r="G193" s="12">
         <v>10.833855936725399</v>
       </c>
     </row>
@@ -5209,13 +5242,13 @@
       <c r="D194" s="1">
         <v>2014</v>
       </c>
-      <c r="E194" s="1">
+      <c r="E194" s="8">
         <v>2128005.4400645699</v>
       </c>
-      <c r="F194" s="2">
+      <c r="F194" s="12">
         <v>0.20934632956857549</v>
       </c>
-      <c r="G194" s="2">
+      <c r="G194" s="12">
         <v>9.8646351115025102</v>
       </c>
     </row>
@@ -5232,13 +5265,13 @@
       <c r="D195" s="2">
         <v>2015</v>
       </c>
-      <c r="E195" s="2">
+      <c r="E195" s="9">
         <v>1673888.0769624801</v>
       </c>
-      <c r="F195" s="2">
+      <c r="F195" s="12">
         <v>0.16279790672655906</v>
       </c>
-      <c r="G195" s="2">
+      <c r="G195" s="12">
         <v>7.1099207031398199</v>
       </c>
     </row>
@@ -5255,13 +5288,13 @@
       <c r="D196" s="1">
         <v>2016</v>
       </c>
-      <c r="E196" s="1">
+      <c r="E196" s="8">
         <v>1221434.885063</v>
       </c>
-      <c r="F196" s="2">
+      <c r="F196" s="12">
         <v>0.11746825207376418</v>
       </c>
-      <c r="G196" s="2">
+      <c r="G196" s="12">
         <v>4.9519538678506203</v>
       </c>
     </row>
@@ -5278,13 +5311,13 @@
       <c r="D197" s="2">
         <v>2017</v>
       </c>
-      <c r="E197" s="2">
+      <c r="E197" s="9">
         <v>1247882.41153839</v>
       </c>
-      <c r="F197" s="2">
+      <c r="F197" s="12">
         <v>0.11869898331003424</v>
       </c>
-      <c r="G197" s="2">
+      <c r="G197" s="12">
         <v>5.1134859027084101</v>
       </c>
     </row>
@@ -5301,13 +5334,13 @@
       <c r="D198" s="1">
         <v>1990</v>
       </c>
-      <c r="E198" s="1">
+      <c r="E198" s="8">
         <v>405076.73552456597</v>
       </c>
-      <c r="F198" s="2">
+      <c r="F198" s="12">
         <v>3.9593073553373666E-2</v>
       </c>
-      <c r="G198" s="2">
+      <c r="G198" s="12">
         <v>2.42407300849084</v>
       </c>
     </row>
@@ -5324,13 +5357,13 @@
       <c r="D199" s="2">
         <v>1991</v>
       </c>
-      <c r="E199" s="2">
+      <c r="E199" s="9">
         <v>155211.17124640301</v>
       </c>
-      <c r="F199" s="2">
+      <c r="F199" s="12">
         <v>1.4821540416959799E-2</v>
       </c>
-      <c r="G199" s="2">
+      <c r="G199" s="12">
         <v>0.94770252639505304</v>
       </c>
     </row>
@@ -5347,13 +5380,13 @@
       <c r="D200" s="1">
         <v>1992</v>
       </c>
-      <c r="E200" s="1">
+      <c r="E200" s="8">
         <v>-1144921.6569401301</v>
       </c>
-      <c r="F200" s="2">
+      <c r="F200" s="12">
         <v>-0.10684225988616368</v>
       </c>
-      <c r="G200" s="2">
+      <c r="G200" s="12">
         <v>-5.1672368002605999</v>
       </c>
     </row>
@@ -5370,13 +5403,13 @@
       <c r="D201" s="2">
         <v>1993</v>
       </c>
-      <c r="E201" s="2">
+      <c r="E201" s="9">
         <v>-1524610.17153558</v>
       </c>
-      <c r="F201" s="2">
+      <c r="F201" s="12">
         <v>-0.13909407641050817</v>
       </c>
-      <c r="G201" s="2">
+      <c r="G201" s="12">
         <v>-6.3294954469357902</v>
       </c>
     </row>
@@ -5393,13 +5426,13 @@
       <c r="D202" s="1">
         <v>1994</v>
       </c>
-      <c r="E202" s="1">
+      <c r="E202" s="8">
         <v>916061.86832216696</v>
       </c>
-      <c r="F202" s="2">
+      <c r="F202" s="12">
         <v>8.1732857630457442E-2</v>
       </c>
-      <c r="G202" s="2">
+      <c r="G202" s="12">
         <v>6.7663461651160803</v>
       </c>
     </row>
@@ -5416,13 +5449,13 @@
       <c r="D203" s="2">
         <v>1995</v>
       </c>
-      <c r="E203" s="2">
+      <c r="E203" s="9">
         <v>-1340978.6842684599</v>
       </c>
-      <c r="F203" s="2">
+      <c r="F203" s="12">
         <v>-0.11706492224080838</v>
       </c>
-      <c r="G203" s="2">
+      <c r="G203" s="12">
         <v>-5.9079387145995801</v>
       </c>
     </row>
@@ -5439,13 +5472,13 @@
       <c r="D204" s="1">
         <v>1996</v>
       </c>
-      <c r="E204" s="1">
+      <c r="E204" s="8">
         <v>-1895667.34614994</v>
       </c>
-      <c r="F204" s="2">
+      <c r="F204" s="12">
         <v>-0.16198131642740665</v>
       </c>
-      <c r="G204" s="2">
+      <c r="G204" s="12">
         <v>-7.8902353417715503</v>
       </c>
     </row>
@@ -5462,13 +5495,13 @@
       <c r="D205" s="2">
         <v>1997</v>
       </c>
-      <c r="E205" s="2">
+      <c r="E205" s="9">
         <v>665996.55363193795</v>
       </c>
-      <c r="F205" s="2">
+      <c r="F205" s="12">
         <v>5.5727265804697342E-2</v>
       </c>
-      <c r="G205" s="2">
+      <c r="G205" s="12">
         <v>3.6583053578613098</v>
       </c>
     </row>
@@ -5485,13 +5518,13 @@
       <c r="D206" s="1">
         <v>1998</v>
       </c>
-      <c r="E206" s="1">
+      <c r="E206" s="8">
         <v>1815686.25475255</v>
       </c>
-      <c r="F206" s="2">
+      <c r="F206" s="12">
         <v>0.14885114401972044</v>
       </c>
-      <c r="G206" s="2">
+      <c r="G206" s="12">
         <v>8.1367113504964994</v>
       </c>
     </row>
@@ -5508,13 +5541,13 @@
       <c r="D207" s="2">
         <v>1999</v>
       </c>
-      <c r="E207" s="2">
+      <c r="E207" s="9">
         <v>815836.92589101905</v>
       </c>
-      <c r="F207" s="2">
+      <c r="F207" s="12">
         <v>6.5571204459975815E-2</v>
       </c>
-      <c r="G207" s="2">
+      <c r="G207" s="12">
         <v>3.8185637444999898</v>
       </c>
     </row>
@@ -5531,13 +5564,13 @@
       <c r="D208" s="1">
         <v>2000</v>
       </c>
-      <c r="E208" s="1">
+      <c r="E208" s="8">
         <v>846520.68357453204</v>
       </c>
-      <c r="F208" s="2">
+      <c r="F208" s="12">
         <v>6.6755041682401386E-2</v>
       </c>
-      <c r="G208" s="2">
+      <c r="G208" s="12">
         <v>4.1167894499574196</v>
       </c>
     </row>
@@ -5554,13 +5587,13 @@
       <c r="D209" s="2">
         <v>2001</v>
       </c>
-      <c r="E209" s="2">
+      <c r="E209" s="9">
         <v>2936364.8170218999</v>
       </c>
-      <c r="F209" s="2">
+      <c r="F209" s="12">
         <v>0.22736080658319008</v>
       </c>
-      <c r="G209" s="2">
+      <c r="G209" s="12">
         <v>12.800477224681201</v>
       </c>
     </row>
@@ -5577,13 +5610,13 @@
       <c r="D210" s="1">
         <v>2002</v>
       </c>
-      <c r="E210" s="1">
+      <c r="E210" s="8">
         <v>5167376.3010798804</v>
       </c>
-      <c r="F210" s="2">
+      <c r="F210" s="12">
         <v>0.39316566241192119</v>
       </c>
-      <c r="G210" s="2">
+      <c r="G210" s="12">
         <v>20.875641299605899</v>
       </c>
     </row>
@@ -5600,13 +5633,13 @@
       <c r="D211" s="2">
         <v>2003</v>
       </c>
-      <c r="E211" s="2">
+      <c r="E211" s="9">
         <v>2957387.8139472101</v>
       </c>
-      <c r="F211" s="2">
+      <c r="F211" s="12">
         <v>0.22119579760263353</v>
       </c>
-      <c r="G211" s="2">
+      <c r="G211" s="12">
         <v>11.0565319187369</v>
       </c>
     </row>
@@ -5623,13 +5656,13 @@
       <c r="D212" s="1">
         <v>2004</v>
       </c>
-      <c r="E212" s="1">
+      <c r="E212" s="8">
         <v>2185459.0384666598</v>
       </c>
-      <c r="F212" s="2">
+      <c r="F212" s="12">
         <v>0.16074279482690937</v>
       </c>
-      <c r="G212" s="2">
+      <c r="G212" s="12">
         <v>7.59213097737927</v>
       </c>
     </row>
@@ -5646,13 +5679,13 @@
       <c r="D213" s="2">
         <v>2005</v>
       </c>
-      <c r="E213" s="2">
+      <c r="E213" s="9">
         <v>2359400.9269483201</v>
       </c>
-      <c r="F213" s="2">
+      <c r="F213" s="12">
         <v>0.1706495679841111</v>
       </c>
-      <c r="G213" s="2">
+      <c r="G213" s="12">
         <v>7.8725265031221596</v>
       </c>
     </row>
@@ -5669,13 +5702,13 @@
       <c r="D214" s="1">
         <v>2006</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="8">
         <v>4074795.1106190099</v>
       </c>
-      <c r="F214" s="2">
+      <c r="F214" s="12">
         <v>0.28983534466313465</v>
       </c>
-      <c r="G214" s="2">
+      <c r="G214" s="12">
         <v>14.2851960137037</v>
       </c>
     </row>
@@ -5692,13 +5725,13 @@
       <c r="D215" s="2">
         <v>2007</v>
       </c>
-      <c r="E215" s="2">
+      <c r="E215" s="9">
         <v>5236128.5129252197</v>
       </c>
-      <c r="F215" s="2">
+      <c r="F215" s="12">
         <v>0.36623966656817653</v>
       </c>
-      <c r="G215" s="2">
+      <c r="G215" s="12">
         <v>16.606486737704302</v>
       </c>
     </row>
@@ -5715,13 +5748,13 @@
       <c r="D216" s="1">
         <v>2008</v>
       </c>
-      <c r="E216" s="1">
+      <c r="E216" s="8">
         <v>5107182.1751197604</v>
       </c>
-      <c r="F216" s="2">
+      <c r="F216" s="12">
         <v>0.35134715018710516</v>
       </c>
-      <c r="G216" s="2">
+      <c r="G216" s="12">
         <v>15.3254065562402</v>
       </c>
     </row>
@@ -5738,13 +5771,13 @@
       <c r="D217" s="2">
         <v>2009</v>
       </c>
-      <c r="E217" s="2">
+      <c r="E217" s="9">
         <v>4343494.5527252201</v>
       </c>
-      <c r="F217" s="2">
+      <c r="F217" s="12">
         <v>0.29399584085049546</v>
       </c>
-      <c r="G217" s="2">
+      <c r="G217" s="12">
         <v>12.2340872080871</v>
       </c>
     </row>
@@ -5761,13 +5794,13 @@
       <c r="D218" s="1">
         <v>2010</v>
       </c>
-      <c r="E218" s="1">
+      <c r="E218" s="8">
         <v>6552192.4203790203</v>
       </c>
-      <c r="F218" s="2">
+      <c r="F218" s="12">
         <v>0.43649273335414163</v>
       </c>
-      <c r="G218" s="2">
+      <c r="G218" s="12">
         <v>18.259320787021199</v>
       </c>
     </row>
@@ -5784,13 +5817,13 @@
       <c r="D219" s="2">
         <v>2011</v>
       </c>
-      <c r="E219" s="2">
+      <c r="E219" s="9">
         <v>7796613.67637356</v>
       </c>
-      <c r="F219" s="2">
+      <c r="F219" s="12">
         <v>0.51145458386076881</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G219" s="12">
         <v>21.748845977184601</v>
       </c>
     </row>
@@ -5807,13 +5840,13 @@
       <c r="D220" s="1">
         <v>2012</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="8">
         <v>9205488.4391227104</v>
       </c>
-      <c r="F220" s="2">
+      <c r="F220" s="12">
         <v>0.59490037735056933</v>
       </c>
-      <c r="G220" s="2">
+      <c r="G220" s="12">
         <v>28.901777475558099</v>
       </c>
     </row>
@@ -5830,13 +5863,13 @@
       <c r="D221" s="2">
         <v>2013</v>
       </c>
-      <c r="E221" s="2">
+      <c r="E221" s="9">
         <v>7930421.3362466795</v>
       </c>
-      <c r="F221" s="2">
+      <c r="F221" s="12">
         <v>0.50489726467477425</v>
       </c>
-      <c r="G221" s="2">
+      <c r="G221" s="12">
         <v>19.481930989408799</v>
       </c>
     </row>
@@ -5853,13 +5886,13 @@
       <c r="D222" s="1">
         <v>2014</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="8">
         <v>7160090.36225235</v>
       </c>
-      <c r="F222" s="2">
+      <c r="F222" s="12">
         <v>0.44885220425353245</v>
       </c>
-      <c r="G222" s="2">
+      <c r="G222" s="12">
         <v>15.761263082414001</v>
       </c>
     </row>
@@ -5876,13 +5909,13 @@
       <c r="D223" s="2">
         <v>2015</v>
       </c>
-      <c r="E223" s="2">
+      <c r="E223" s="9">
         <v>7152176.5295364698</v>
       </c>
-      <c r="F223" s="2">
+      <c r="F223" s="12">
         <v>0.44116558904123304</v>
       </c>
-      <c r="G223" s="2">
+      <c r="G223" s="12">
         <v>16.7805347687503</v>
       </c>
     </row>
@@ -5899,13 +5932,13 @@
       <c r="D224" s="1">
         <v>2016</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="8">
         <v>6846398.7434999403</v>
       </c>
-      <c r="F224" s="2">
+      <c r="F224" s="12">
         <v>0.41515970793159546</v>
       </c>
-      <c r="G224" s="2">
+      <c r="G224" s="12">
         <v>16.888706403492598</v>
       </c>
     </row>
@@ -5922,13 +5955,13 @@
       <c r="D225" s="2">
         <v>2017</v>
       </c>
-      <c r="E225" s="2">
+      <c r="E225" s="9">
         <v>7250583.4189851796</v>
       </c>
-      <c r="F225" s="2">
+      <c r="F225" s="12">
         <v>0.43196803211112184</v>
       </c>
-      <c r="G225" s="2">
+      <c r="G225" s="12">
         <v>18.328734534142502</v>
       </c>
     </row>
@@ -5945,13 +5978,13 @@
       <c r="D226" s="1">
         <v>1990</v>
       </c>
-      <c r="E226" s="1">
+      <c r="E226" s="8">
         <v>1306463.4533474499</v>
       </c>
-      <c r="F226" s="2">
+      <c r="F226" s="12">
         <v>0.24790577862380453</v>
       </c>
-      <c r="G226" s="2">
+      <c r="G226" s="12">
         <v>52.797116816143301</v>
       </c>
     </row>
@@ -5968,13 +6001,13 @@
       <c r="D227" s="2">
         <v>1991</v>
       </c>
-      <c r="E227" s="2">
+      <c r="E227" s="9">
         <v>1330232.8877162901</v>
       </c>
-      <c r="F227" s="2">
+      <c r="F227" s="12">
         <v>0.24901401866647138</v>
       </c>
-      <c r="G227" s="2">
+      <c r="G227" s="12">
         <v>42.187024488133403</v>
       </c>
     </row>
@@ -5991,13 +6024,13 @@
       <c r="D228" s="1">
         <v>1992</v>
       </c>
-      <c r="E228" s="1">
+      <c r="E228" s="8">
         <v>1417641.14602728</v>
       </c>
-      <c r="F228" s="2">
+      <c r="F228" s="12">
         <v>0.2617505808765288</v>
       </c>
-      <c r="G228" s="2">
+      <c r="G228" s="12">
         <v>42.740998041230498</v>
       </c>
     </row>
@@ -6014,13 +6047,13 @@
       <c r="D229" s="2">
         <v>1993</v>
       </c>
-      <c r="E229" s="2">
+      <c r="E229" s="9">
         <v>1332694.0756394099</v>
       </c>
-      <c r="F229" s="2">
+      <c r="F229" s="12">
         <v>0.24274937625490162</v>
       </c>
-      <c r="G229" s="2">
+      <c r="G229" s="12">
         <v>33.5246086845139</v>
       </c>
     </row>
@@ -6037,13 +6070,13 @@
       <c r="D230" s="1">
         <v>1994</v>
       </c>
-      <c r="E230" s="1">
+      <c r="E230" s="8">
         <v>1438698.4508386899</v>
       </c>
-      <c r="F230" s="2">
+      <c r="F230" s="12">
         <v>0.25866566897495324</v>
       </c>
-      <c r="G230" s="2">
+      <c r="G230" s="12">
         <v>31.872512569356299</v>
       </c>
     </row>
@@ -6060,13 +6093,13 @@
       <c r="D231" s="2">
         <v>1995</v>
       </c>
-      <c r="E231" s="2">
+      <c r="E231" s="9">
         <v>1525732.8846170299</v>
       </c>
-      <c r="F231" s="2">
+      <c r="F231" s="12">
         <v>0.27104865599876177</v>
       </c>
-      <c r="G231" s="2">
+      <c r="G231" s="12">
         <v>30.5255870875542</v>
       </c>
     </row>
@@ -6083,13 +6116,13 @@
       <c r="D232" s="1">
         <v>1996</v>
       </c>
-      <c r="E232" s="1">
+      <c r="E232" s="8">
         <v>1658795.3324021001</v>
       </c>
-      <c r="F232" s="2">
+      <c r="F232" s="12">
         <v>0.29152817792655539</v>
       </c>
-      <c r="G232" s="2">
+      <c r="G232" s="12">
         <v>37.5743970736008</v>
       </c>
     </row>
@@ -6106,13 +6139,13 @@
       <c r="D233" s="2">
         <v>1997</v>
       </c>
-      <c r="E233" s="2">
+      <c r="E233" s="9">
         <v>1973325.4460318999</v>
       </c>
-      <c r="F233" s="2">
+      <c r="F233" s="12">
         <v>0.34342593909361291</v>
       </c>
-      <c r="G233" s="2">
+      <c r="G233" s="12">
         <v>36.431122538894201</v>
       </c>
     </row>
@@ -6129,13 +6162,13 @@
       <c r="D234" s="1">
         <v>1998</v>
       </c>
-      <c r="E234" s="1">
+      <c r="E234" s="8">
         <v>2678881.3158530998</v>
       </c>
-      <c r="F234" s="2">
+      <c r="F234" s="12">
         <v>0.46203541149587785</v>
       </c>
-      <c r="G234" s="2">
+      <c r="G234" s="12">
         <v>46.738256643496797</v>
       </c>
     </row>
@@ -6152,13 +6185,13 @@
       <c r="D235" s="2">
         <v>1999</v>
       </c>
-      <c r="E235" s="2">
+      <c r="E235" s="9">
         <v>2287048.1577414898</v>
       </c>
-      <c r="F235" s="2">
+      <c r="F235" s="12">
         <v>0.39128283280436094</v>
       </c>
-      <c r="G235" s="2">
+      <c r="G235" s="12">
         <v>40.934015115369498</v>
       </c>
     </row>
@@ -6175,13 +6208,13 @@
       <c r="D236" s="1">
         <v>2000</v>
       </c>
-      <c r="E236" s="1">
+      <c r="E236" s="8">
         <v>2232190.5080795502</v>
       </c>
-      <c r="F236" s="2">
+      <c r="F236" s="12">
         <v>0.37910844226894536</v>
       </c>
-      <c r="G236" s="2">
+      <c r="G236" s="12">
         <v>39.355395409558497</v>
       </c>
     </row>
@@ -6198,13 +6231,13 @@
       <c r="D237" s="2">
         <v>2001</v>
       </c>
-      <c r="E237" s="2">
+      <c r="E237" s="9">
         <v>2970540.6653425898</v>
       </c>
-      <c r="F237" s="2">
+      <c r="F237" s="12">
         <v>0.50118789697023614</v>
       </c>
-      <c r="G237" s="2">
+      <c r="G237" s="12">
         <v>50.707729167757101</v>
       </c>
     </row>
@@ -6221,13 +6254,13 @@
       <c r="D238" s="1">
         <v>2002</v>
       </c>
-      <c r="E238" s="1">
+      <c r="E238" s="8">
         <v>3065627.3036691798</v>
       </c>
-      <c r="F238" s="2">
+      <c r="F238" s="12">
         <v>0.51419444878718212</v>
       </c>
-      <c r="G238" s="2">
+      <c r="G238" s="12">
         <v>50.473466597126396</v>
       </c>
     </row>
@@ -6244,13 +6277,13 @@
       <c r="D239" s="2">
         <v>2003</v>
       </c>
-      <c r="E239" s="2">
+      <c r="E239" s="9">
         <v>2752551.2429909999</v>
       </c>
-      <c r="F239" s="2">
+      <c r="F239" s="12">
         <v>0.45921775825675676</v>
       </c>
-      <c r="G239" s="2">
+      <c r="G239" s="12">
         <v>42.779463802556002</v>
       </c>
     </row>
@@ -6267,13 +6300,13 @@
       <c r="D240" s="1">
         <v>2004</v>
       </c>
-      <c r="E240" s="1">
+      <c r="E240" s="8">
         <v>2650696.7106280099</v>
       </c>
-      <c r="F240" s="2">
+      <c r="F240" s="12">
         <v>0.44002269432735885</v>
       </c>
-      <c r="G240" s="2">
+      <c r="G240" s="12">
         <v>42.386305461533901</v>
       </c>
     </row>
@@ -6290,13 +6323,13 @@
       <c r="D241" s="2">
         <v>2005</v>
       </c>
-      <c r="E241" s="2">
+      <c r="E241" s="9">
         <v>2417587.5428185998</v>
       </c>
-      <c r="F241" s="2">
+      <c r="F241" s="12">
         <v>0.39946919081602772</v>
       </c>
-      <c r="G241" s="2">
+      <c r="G241" s="12">
         <v>38.386407939515202</v>
       </c>
     </row>
@@ -6313,13 +6346,13 @@
       <c r="D242" s="1">
         <v>2006</v>
       </c>
-      <c r="E242" s="1">
+      <c r="E242" s="8">
         <v>2275944.9647949301</v>
       </c>
-      <c r="F242" s="2">
+      <c r="F242" s="12">
         <v>0.37439463148460767</v>
       </c>
-      <c r="G242" s="2">
+      <c r="G242" s="12">
         <v>33.883864884046901</v>
       </c>
     </row>
@@ -6336,13 +6369,13 @@
       <c r="D243" s="2">
         <v>2007</v>
       </c>
-      <c r="E243" s="2">
+      <c r="E243" s="9">
         <v>2230217.3064503898</v>
       </c>
-      <c r="F243" s="2">
+      <c r="F243" s="12">
         <v>0.36525013207507201</v>
       </c>
-      <c r="G243" s="2">
+      <c r="G243" s="12">
         <v>32.577569627925499</v>
       </c>
     </row>
@@ -6359,13 +6392,13 @@
       <c r="D244" s="1">
         <v>2008</v>
       </c>
-      <c r="E244" s="1">
+      <c r="E244" s="8">
         <v>2544464.8944212301</v>
       </c>
-      <c r="F244" s="2">
+      <c r="F244" s="12">
         <v>0.41494861291931345</v>
       </c>
-      <c r="G244" s="2">
+      <c r="G244" s="12">
         <v>39.726323174450997</v>
       </c>
     </row>
@@ -6382,13 +6415,13 @@
       <c r="D245" s="2">
         <v>2009</v>
       </c>
-      <c r="E245" s="2">
+      <c r="E245" s="9">
         <v>1769027.4098689</v>
       </c>
-      <c r="F245" s="2">
+      <c r="F245" s="12">
         <v>0.28727304479845728</v>
       </c>
-      <c r="G245" s="2">
+      <c r="G245" s="12">
         <v>28.0235336474958</v>
       </c>
     </row>
@@ -6405,13 +6438,13 @@
       <c r="D246" s="1">
         <v>2010</v>
       </c>
-      <c r="E246" s="1">
+      <c r="E246" s="8">
         <v>1957017.64329453</v>
       </c>
-      <c r="F246" s="2">
+      <c r="F246" s="12">
         <v>0.31646469005409605</v>
       </c>
-      <c r="G246" s="2">
+      <c r="G246" s="12">
         <v>30.9799540117947</v>
       </c>
     </row>
@@ -6428,13 +6461,13 @@
       <c r="D247" s="2">
         <v>2011</v>
       </c>
-      <c r="E247" s="2">
+      <c r="E247" s="9">
         <v>2271547.6571385898</v>
       </c>
-      <c r="F247" s="2">
+      <c r="F247" s="12">
         <v>0.36572977896290287</v>
       </c>
-      <c r="G247" s="2">
+      <c r="G247" s="12">
         <v>34.944339597158901</v>
       </c>
     </row>
@@ -6451,13 +6484,13 @@
       <c r="D248" s="1">
         <v>2012</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="8">
         <v>2235549.9036340001</v>
       </c>
-      <c r="F248" s="2">
+      <c r="F248" s="12">
         <v>0.35837606662936838</v>
       </c>
-      <c r="G248" s="2">
+      <c r="G248" s="12">
         <v>34.362706586978398</v>
       </c>
     </row>
@@ -6474,13 +6507,13 @@
       <c r="D249" s="2">
         <v>2013</v>
       </c>
-      <c r="E249" s="2">
+      <c r="E249" s="9">
         <v>2451192.8766144598</v>
       </c>
-      <c r="F249" s="2">
+      <c r="F249" s="12">
         <v>0.39118941535500473</v>
       </c>
-      <c r="G249" s="2">
+      <c r="G249" s="12">
         <v>40.225677730831798</v>
       </c>
     </row>
@@ -6497,13 +6530,13 @@
       <c r="D250" s="1">
         <v>2014</v>
       </c>
-      <c r="E250" s="1">
+      <c r="E250" s="8">
         <v>2528176.5794719402</v>
       </c>
-      <c r="F250" s="2">
+      <c r="F250" s="12">
         <v>0.40161661310118191</v>
       </c>
-      <c r="G250" s="2">
+      <c r="G250" s="12">
         <v>40.978928283929598</v>
       </c>
     </row>
@@ -6520,13 +6553,13 @@
       <c r="D251" s="2">
         <v>2015</v>
       </c>
-      <c r="E251" s="2">
+      <c r="E251" s="9">
         <v>2344328.6651828699</v>
       </c>
-      <c r="F251" s="2">
+      <c r="F251" s="12">
         <v>0.37064484825025612</v>
       </c>
-      <c r="G251" s="2">
+      <c r="G251" s="12">
         <v>34.8148091240298</v>
       </c>
     </row>
@@ -6543,13 +6576,13 @@
       <c r="D252" s="1">
         <v>2016</v>
       </c>
-      <c r="E252" s="1">
+      <c r="E252" s="8">
         <v>2243080.9810027801</v>
       </c>
-      <c r="F252" s="2">
+      <c r="F252" s="12">
         <v>0.35290764332957525</v>
       </c>
-      <c r="G252" s="2">
+      <c r="G252" s="12">
         <v>31.8055672386301</v>
       </c>
     </row>
@@ -6566,13 +6599,13 @@
       <c r="D253" s="2">
         <v>2017</v>
       </c>
-      <c r="E253" s="2">
+      <c r="E253" s="9">
         <v>2268244.1579549299</v>
       </c>
-      <c r="F253" s="2">
+      <c r="F253" s="12">
         <v>0.35507892266044611</v>
       </c>
-      <c r="G253" s="2">
+      <c r="G253" s="12">
         <v>32.243380641830797</v>
       </c>
     </row>
@@ -6589,13 +6622,13 @@
       <c r="D254" s="1">
         <v>1990</v>
       </c>
-      <c r="E254" s="1">
+      <c r="E254" s="8">
         <v>1100842.6178007899</v>
       </c>
-      <c r="F254" s="2">
+      <c r="F254" s="12">
         <v>0.1188301616797053</v>
       </c>
-      <c r="G254" s="2">
+      <c r="G254" s="12">
         <v>22.1487570100985</v>
       </c>
     </row>
@@ -6612,13 +6645,13 @@
       <c r="D255" s="2">
         <v>1991</v>
       </c>
-      <c r="E255" s="2">
+      <c r="E255" s="9">
         <v>1422707.27923653</v>
       </c>
-      <c r="F255" s="2">
+      <c r="F255" s="12">
         <v>0.15002713057434672</v>
       </c>
-      <c r="G255" s="2">
+      <c r="G255" s="12">
         <v>28.729928616204301</v>
       </c>
     </row>
@@ -6635,13 +6668,13 @@
       <c r="D256" s="1">
         <v>1992</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="8">
         <v>1240435.2041895101</v>
       </c>
-      <c r="F256" s="2">
+      <c r="F256" s="12">
         <v>0.12776137647435473</v>
       </c>
-      <c r="G256" s="2">
+      <c r="G256" s="12">
         <v>20.9606941646277</v>
       </c>
     </row>
@@ -6658,13 +6691,13 @@
       <c r="D257" s="2">
         <v>1993</v>
       </c>
-      <c r="E257" s="2">
+      <c r="E257" s="9">
         <v>1390383.83630268</v>
       </c>
-      <c r="F257" s="2">
+      <c r="F257" s="12">
         <v>0.13989172314143072</v>
       </c>
-      <c r="G257" s="2">
+      <c r="G257" s="12">
         <v>24.9299101852136</v>
       </c>
     </row>
@@ -6681,13 +6714,13 @@
       <c r="D258" s="1">
         <v>1994</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="8">
         <v>1369618.80294275</v>
       </c>
-      <c r="F258" s="2">
+      <c r="F258" s="12">
         <v>0.13464596961686492</v>
       </c>
-      <c r="G258" s="2">
+      <c r="G258" s="12">
         <v>20.288384374093301</v>
       </c>
     </row>
@@ -6704,13 +6737,13 @@
       <c r="D259" s="2">
         <v>1995</v>
       </c>
-      <c r="E259" s="2">
+      <c r="E259" s="9">
         <v>1490627.0143472699</v>
       </c>
-      <c r="F259" s="2">
+      <c r="F259" s="12">
         <v>0.1432193518781005</v>
       </c>
-      <c r="G259" s="2">
+      <c r="G259" s="12">
         <v>21.056005733003801</v>
       </c>
     </row>
@@ -6727,13 +6760,13 @@
       <c r="D260" s="1">
         <v>1996</v>
       </c>
-      <c r="E260" s="1">
+      <c r="E260" s="8">
         <v>1485371.5057983999</v>
       </c>
-      <c r="F260" s="2">
+      <c r="F260" s="12">
         <v>0.13951080170925143</v>
       </c>
-      <c r="G260" s="2">
+      <c r="G260" s="12">
         <v>22.6072124345026</v>
       </c>
     </row>
@@ -6750,13 +6783,13 @@
       <c r="D261" s="2">
         <v>1997</v>
       </c>
-      <c r="E261" s="2">
+      <c r="E261" s="9">
         <v>2158373.2933529899</v>
       </c>
-      <c r="F261" s="2">
+      <c r="F261" s="12">
         <v>0.19823413789061259</v>
       </c>
-      <c r="G261" s="2">
+      <c r="G261" s="12">
         <v>28.772253181774602</v>
       </c>
     </row>
@@ -6773,13 +6806,13 @@
       <c r="D262" s="1">
         <v>1998</v>
       </c>
-      <c r="E262" s="1">
+      <c r="E262" s="8">
         <v>3088991.5495034</v>
       </c>
-      <c r="F262" s="2">
+      <c r="F262" s="12">
         <v>0.27743771775672715</v>
       </c>
-      <c r="G262" s="2">
+      <c r="G262" s="12">
         <v>35.754851119497502</v>
       </c>
     </row>
@@ -6796,13 +6829,13 @@
       <c r="D263" s="2">
         <v>1999</v>
       </c>
-      <c r="E263" s="2">
+      <c r="E263" s="9">
         <v>3148276.3612770601</v>
       </c>
-      <c r="F263" s="2">
+      <c r="F263" s="12">
         <v>0.27647987716493022</v>
       </c>
-      <c r="G263" s="2">
+      <c r="G263" s="12">
         <v>35.747251526565996</v>
       </c>
     </row>
@@ -6819,13 +6852,13 @@
       <c r="D264" s="1">
         <v>2000</v>
       </c>
-      <c r="E264" s="1">
+      <c r="E264" s="8">
         <v>2668786.6118421801</v>
       </c>
-      <c r="F264" s="2">
+      <c r="F264" s="12">
         <v>0.22906073400070209</v>
       </c>
-      <c r="G264" s="2">
+      <c r="G264" s="12">
         <v>27.327777053176099</v>
       </c>
     </row>
@@ -6842,13 +6875,13 @@
       <c r="D265" s="2">
         <v>2001</v>
       </c>
-      <c r="E265" s="2">
+      <c r="E265" s="9">
         <v>3425327.3365754099</v>
       </c>
-      <c r="F265" s="2">
+      <c r="F265" s="12">
         <v>0.28723918964992956</v>
       </c>
-      <c r="G265" s="2">
+      <c r="G265" s="12">
         <v>33.472639749727399</v>
       </c>
     </row>
@@ -6865,13 +6898,13 @@
       <c r="D266" s="1">
         <v>2002</v>
       </c>
-      <c r="E266" s="1">
+      <c r="E266" s="8">
         <v>4644095.0715717301</v>
       </c>
-      <c r="F266" s="2">
+      <c r="F266" s="12">
         <v>0.38038292010580149</v>
       </c>
-      <c r="G266" s="2">
+      <c r="G266" s="12">
         <v>43.315246362605997</v>
       </c>
     </row>
@@ -6888,13 +6921,13 @@
       <c r="D267" s="2">
         <v>2003</v>
       </c>
-      <c r="E267" s="2">
+      <c r="E267" s="9">
         <v>2739804.42597913</v>
       </c>
-      <c r="F267" s="2">
+      <c r="F267" s="12">
         <v>0.2191843540783304</v>
       </c>
-      <c r="G267" s="2">
+      <c r="G267" s="12">
         <v>26.223474538202499</v>
       </c>
     </row>
@@ -6911,13 +6944,13 @@
       <c r="D268" s="1">
         <v>2004</v>
       </c>
-      <c r="E268" s="1">
+      <c r="E268" s="8">
         <v>2486199.2533319499</v>
       </c>
-      <c r="F268" s="2">
+      <c r="F268" s="12">
         <v>0.19427985100663828</v>
       </c>
-      <c r="G268" s="2">
+      <c r="G268" s="12">
         <v>22.238612498697702</v>
       </c>
     </row>
@@ -6934,13 +6967,13 @@
       <c r="D269" s="2">
         <v>2005</v>
       </c>
-      <c r="E269" s="2">
+      <c r="E269" s="9">
         <v>3046030.9542968301</v>
       </c>
-      <c r="F269" s="2">
+      <c r="F269" s="12">
         <v>0.2325924674936492</v>
       </c>
-      <c r="G269" s="2">
+      <c r="G269" s="12">
         <v>25.157152255805901</v>
       </c>
     </row>
@@ -6957,13 +6990,13 @@
       <c r="D270" s="1">
         <v>2006</v>
       </c>
-      <c r="E270" s="1">
+      <c r="E270" s="8">
         <v>3532012.18095958</v>
       </c>
-      <c r="F270" s="2">
+      <c r="F270" s="12">
         <v>0.263642022912561</v>
       </c>
-      <c r="G270" s="2">
+      <c r="G270" s="12">
         <v>29.0096338357489</v>
       </c>
     </row>
@@ -6980,13 +7013,13 @@
       <c r="D271" s="2">
         <v>2007</v>
       </c>
-      <c r="E271" s="2">
+      <c r="E271" s="9">
         <v>3549930.41304453</v>
       </c>
-      <c r="F271" s="2">
+      <c r="F271" s="12">
         <v>0.25911900825142553</v>
       </c>
-      <c r="G271" s="2">
+      <c r="G271" s="12">
         <v>29.230451698789199</v>
       </c>
     </row>
@@ -7003,13 +7036,13 @@
       <c r="D272" s="1">
         <v>2008</v>
       </c>
-      <c r="E272" s="1">
+      <c r="E272" s="8">
         <v>4127662.2495529898</v>
       </c>
-      <c r="F272" s="2">
+      <c r="F272" s="12">
         <v>0.29470671494737899</v>
       </c>
-      <c r="G272" s="2">
+      <c r="G272" s="12">
         <v>37.892400582666397</v>
       </c>
     </row>
@@ -7026,13 +7059,13 @@
       <c r="D273" s="2">
         <v>2009</v>
       </c>
-      <c r="E273" s="2">
+      <c r="E273" s="9">
         <v>3281734.6278026402</v>
       </c>
-      <c r="F273" s="2">
+      <c r="F273" s="12">
         <v>0.22923544480320202</v>
       </c>
-      <c r="G273" s="2">
+      <c r="G273" s="12">
         <v>28.68143666564</v>
       </c>
     </row>
@@ -7049,13 +7082,13 @@
       <c r="D274" s="1">
         <v>2010</v>
       </c>
-      <c r="E274" s="1">
+      <c r="E274" s="8">
         <v>4072888.4435359202</v>
       </c>
-      <c r="F274" s="2">
+      <c r="F274" s="12">
         <v>0.27839292163608476</v>
       </c>
-      <c r="G274" s="2">
+      <c r="G274" s="12">
         <v>36.700389828623003</v>
       </c>
     </row>
@@ -7072,13 +7105,13 @@
       <c r="D275" s="2">
         <v>2011</v>
       </c>
-      <c r="E275" s="2">
+      <c r="E275" s="9">
         <v>4983336.5105401697</v>
       </c>
-      <c r="F275" s="2">
+      <c r="F275" s="12">
         <v>0.33335584390528927</v>
       </c>
-      <c r="G275" s="2">
+      <c r="G275" s="12">
         <v>44.342033898114899</v>
       </c>
     </row>
@@ -7095,13 +7128,13 @@
       <c r="D276" s="1">
         <v>2012</v>
       </c>
-      <c r="E276" s="1">
+      <c r="E276" s="8">
         <v>5436876.5261915997</v>
       </c>
-      <c r="F276" s="2">
+      <c r="F276" s="12">
         <v>0.35602622789546196</v>
       </c>
-      <c r="G276" s="2">
+      <c r="G276" s="12">
         <v>47.037407988359199</v>
       </c>
     </row>
@@ -7118,13 +7151,13 @@
       <c r="D277" s="2">
         <v>2013</v>
       </c>
-      <c r="E277" s="2">
+      <c r="E277" s="9">
         <v>4911239.1621086802</v>
       </c>
-      <c r="F277" s="2">
+      <c r="F277" s="12">
         <v>0.31490376776793283</v>
       </c>
-      <c r="G277" s="2">
+      <c r="G277" s="12">
         <v>39.033037125744599</v>
       </c>
     </row>
@@ -7141,13 +7174,13 @@
       <c r="D278" s="1">
         <v>2014</v>
       </c>
-      <c r="E278" s="1">
+      <c r="E278" s="8">
         <v>4644956.4724489199</v>
       </c>
-      <c r="F278" s="2">
+      <c r="F278" s="12">
         <v>0.29171365147578471</v>
       </c>
-      <c r="G278" s="2">
+      <c r="G278" s="12">
         <v>34.269047776942699</v>
       </c>
     </row>
@@ -7164,13 +7197,13 @@
       <c r="D279" s="2">
         <v>2015</v>
       </c>
-      <c r="E279" s="2">
+      <c r="E279" s="9">
         <v>4071184.5826847898</v>
       </c>
-      <c r="F279" s="2">
+      <c r="F279" s="12">
         <v>0.25050360464464616</v>
       </c>
-      <c r="G279" s="2">
+      <c r="G279" s="12">
         <v>26.378182128426101</v>
       </c>
     </row>
@@ -7187,13 +7220,13 @@
       <c r="D280" s="1">
         <v>2016</v>
       </c>
-      <c r="E280" s="1">
+      <c r="E280" s="8">
         <v>3744621.4899791698</v>
       </c>
-      <c r="F280" s="2">
+      <c r="F280" s="12">
         <v>0.22581085991552613</v>
       </c>
-      <c r="G280" s="2">
+      <c r="G280" s="12">
         <v>22.8671398911418</v>
       </c>
     </row>
@@ -7210,13 +7243,13 @@
       <c r="D281" s="2">
         <v>2017</v>
       </c>
-      <c r="E281" s="2">
+      <c r="E281" s="9">
         <v>3908840.3220697399</v>
       </c>
-      <c r="F281" s="2">
+      <c r="F281" s="12">
         <v>0.23108721974991073</v>
       </c>
-      <c r="G281" s="2">
+      <c r="G281" s="12">
         <v>24.109433031813399</v>
       </c>
     </row>
@@ -7233,13 +7266,13 @@
       <c r="D282" s="1">
         <v>1990</v>
       </c>
-      <c r="E282" s="1">
+      <c r="E282" s="8">
         <v>378282.18234175898</v>
       </c>
-      <c r="F282" s="2">
+      <c r="F282" s="12">
         <v>7.6343528222352977E-2</v>
       </c>
-      <c r="G282" s="2">
+      <c r="G282" s="12">
         <v>14.853253419984201</v>
       </c>
     </row>
@@ -7256,13 +7289,13 @@
       <c r="D283" s="2">
         <v>1991</v>
       </c>
-      <c r="E283" s="2">
+      <c r="E283" s="9">
         <v>476753.426753062</v>
       </c>
-      <c r="F283" s="2">
+      <c r="F283" s="12">
         <v>9.3499397284381641E-2</v>
       </c>
-      <c r="G283" s="2">
+      <c r="G283" s="12">
         <v>17.989180113758501</v>
       </c>
     </row>
@@ -7279,13 +7312,13 @@
       <c r="D284" s="1">
         <v>1992</v>
       </c>
-      <c r="E284" s="1">
+      <c r="E284" s="8">
         <v>393117.954403379</v>
       </c>
-      <c r="F284" s="2">
+      <c r="F284" s="12">
         <v>7.4950992259938801E-2</v>
       </c>
-      <c r="G284" s="2">
+      <c r="G284" s="12">
         <v>12.973209949249</v>
       </c>
     </row>
@@ -7302,13 +7335,13 @@
       <c r="D285" s="2">
         <v>1993</v>
       </c>
-      <c r="E285" s="2">
+      <c r="E285" s="9">
         <v>588687.30107842095</v>
       </c>
-      <c r="F285" s="2">
+      <c r="F285" s="12">
         <v>0.10913743067823896</v>
       </c>
-      <c r="G285" s="2">
+      <c r="G285" s="12">
         <v>21.0419612977295</v>
       </c>
     </row>
@@ -7325,13 +7358,13 @@
       <c r="D286" s="1">
         <v>1994</v>
       </c>
-      <c r="E286" s="1">
+      <c r="E286" s="8">
         <v>643826.62527142605</v>
       </c>
-      <c r="F286" s="2">
+      <c r="F286" s="12">
         <v>0.11602570287825302</v>
       </c>
-      <c r="G286" s="2">
+      <c r="G286" s="12">
         <v>19.559135986262199</v>
       </c>
     </row>
@@ -7348,13 +7381,13 @@
       <c r="D287" s="2">
         <v>1995</v>
       </c>
-      <c r="E287" s="2">
+      <c r="E287" s="9">
         <v>523300.07569129899</v>
       </c>
-      <c r="F287" s="2">
+      <c r="F287" s="12">
         <v>9.1662300874286035E-2</v>
       </c>
-      <c r="G287" s="2">
+      <c r="G287" s="12">
         <v>13.6757561908969</v>
       </c>
     </row>
@@ -7371,13 +7404,13 @@
       <c r="D288" s="1">
         <v>1996</v>
       </c>
-      <c r="E288" s="1">
+      <c r="E288" s="8">
         <v>859672.83560019697</v>
       </c>
-      <c r="F288" s="2">
+      <c r="F288" s="12">
         <v>0.14632729116599097</v>
       </c>
-      <c r="G288" s="2">
+      <c r="G288" s="12">
         <v>22.095333902067299</v>
       </c>
     </row>
@@ -7394,13 +7427,13 @@
       <c r="D289" s="2">
         <v>1997</v>
       </c>
-      <c r="E289" s="2">
+      <c r="E289" s="9">
         <v>1411847.1471894099</v>
       </c>
-      <c r="F289" s="2">
+      <c r="F289" s="12">
         <v>0.23351755659765297</v>
       </c>
-      <c r="G289" s="2">
+      <c r="G289" s="12">
         <v>34.592728513530197</v>
       </c>
     </row>
@@ -7417,13 +7450,13 @@
       <c r="D290" s="1">
         <v>1998</v>
       </c>
-      <c r="E290" s="1">
+      <c r="E290" s="8">
         <v>1743748.5900396199</v>
       </c>
-      <c r="F290" s="2">
+      <c r="F290" s="12">
         <v>0.28034543248225402</v>
       </c>
-      <c r="G290" s="2">
+      <c r="G290" s="12">
         <v>38.054847692943198</v>
       </c>
     </row>
@@ -7440,13 +7473,13 @@
       <c r="D291" s="2">
         <v>1999</v>
       </c>
-      <c r="E291" s="2">
+      <c r="E291" s="9">
         <v>2402244.39880765</v>
       </c>
-      <c r="F291" s="2">
+      <c r="F291" s="12">
         <v>0.37552671546156791</v>
       </c>
-      <c r="G291" s="2">
+      <c r="G291" s="12">
         <v>51.467296066189697</v>
       </c>
     </row>
@@ -7463,13 +7496,13 @@
       <c r="D292" s="1">
         <v>2000</v>
       </c>
-      <c r="E292" s="1">
+      <c r="E292" s="8">
         <v>2623004.9664487299</v>
       </c>
-      <c r="F292" s="2">
+      <c r="F292" s="12">
         <v>0.39893611657014905</v>
       </c>
-      <c r="G292" s="2">
+      <c r="G292" s="12">
         <v>53.160183777144397</v>
       </c>
     </row>
@@ -7486,13 +7519,13 @@
       <c r="D293" s="2">
         <v>2001</v>
       </c>
-      <c r="E293" s="2">
+      <c r="E293" s="9">
         <v>2944363.4484818699</v>
       </c>
-      <c r="F293" s="2">
+      <c r="F293" s="12">
         <v>0.43607278561639068</v>
       </c>
-      <c r="G293" s="2">
+      <c r="G293" s="12">
         <v>52.494711507847597</v>
       </c>
     </row>
@@ -7509,13 +7542,13 @@
       <c r="D294" s="1">
         <v>2002</v>
       </c>
-      <c r="E294" s="1">
+      <c r="E294" s="8">
         <v>3769923.8225076399</v>
       </c>
-      <c r="F294" s="2">
+      <c r="F294" s="12">
         <v>0.5440790622756011</v>
       </c>
-      <c r="G294" s="2">
+      <c r="G294" s="12">
         <v>62.934743310550303</v>
       </c>
     </row>
@@ -7532,13 +7565,13 @@
       <c r="D295" s="2">
         <v>2003</v>
       </c>
-      <c r="E295" s="2">
+      <c r="E295" s="9">
         <v>2312153.5352483001</v>
       </c>
-      <c r="F295" s="2">
+      <c r="F295" s="12">
         <v>0.32538045809855054</v>
       </c>
-      <c r="G295" s="2">
+      <c r="G295" s="12">
         <v>34.713936123963002</v>
       </c>
     </row>
@@ -7555,13 +7588,13 @@
       <c r="D296" s="1">
         <v>2004</v>
       </c>
-      <c r="E296" s="1">
+      <c r="E296" s="8">
         <v>1618218.5889965999</v>
       </c>
-      <c r="F296" s="2">
+      <c r="F296" s="12">
         <v>0.22219121090163393</v>
       </c>
-      <c r="G296" s="2">
+      <c r="G296" s="12">
         <v>22.340731636168499</v>
       </c>
     </row>
@@ -7578,13 +7611,13 @@
       <c r="D297" s="2">
         <v>2005</v>
       </c>
-      <c r="E297" s="2">
+      <c r="E297" s="9">
         <v>2041683.3276758799</v>
       </c>
-      <c r="F297" s="2">
+      <c r="F297" s="12">
         <v>0.27372078397585198</v>
       </c>
-      <c r="G297" s="2">
+      <c r="G297" s="12">
         <v>27.491534708129102</v>
       </c>
     </row>
@@ -7601,13 +7634,13 @@
       <c r="D298" s="1">
         <v>2006</v>
       </c>
-      <c r="E298" s="1">
+      <c r="E298" s="8">
         <v>1939926.1716261599</v>
       </c>
-      <c r="F298" s="2">
+      <c r="F298" s="12">
         <v>0.25411660618629289</v>
       </c>
-      <c r="G298" s="2">
+      <c r="G298" s="12">
         <v>26.002028240019499</v>
       </c>
     </row>
@@ -7624,13 +7657,13 @@
       <c r="D299" s="2">
         <v>2007</v>
       </c>
-      <c r="E299" s="2">
+      <c r="E299" s="9">
         <v>1902418.3229608601</v>
       </c>
-      <c r="F299" s="2">
+      <c r="F299" s="12">
         <v>0.24361868651054683</v>
       </c>
-      <c r="G299" s="2">
+      <c r="G299" s="12">
         <v>22.1253767364826</v>
       </c>
     </row>
@@ -7647,13 +7680,13 @@
       <c r="D300" s="1">
         <v>2008</v>
       </c>
-      <c r="E300" s="1">
+      <c r="E300" s="8">
         <v>1894327.4149507401</v>
       </c>
-      <c r="F300" s="2">
+      <c r="F300" s="12">
         <v>0.23735464414869567</v>
       </c>
-      <c r="G300" s="2">
+      <c r="G300" s="12">
         <v>22.326390637954901</v>
       </c>
     </row>
@@ -7670,13 +7703,13 @@
       <c r="D301" s="2">
         <v>2009</v>
       </c>
-      <c r="E301" s="2">
+      <c r="E301" s="9">
         <v>1793081.28776022</v>
       </c>
-      <c r="F301" s="2">
+      <c r="F301" s="12">
         <v>0.21998298218135443</v>
       </c>
-      <c r="G301" s="2">
+      <c r="G301" s="12">
         <v>23.344098448845699</v>
       </c>
     </row>
@@ -7693,13 +7726,13 @@
       <c r="D302" s="1">
         <v>2010</v>
       </c>
-      <c r="E302" s="1">
+      <c r="E302" s="8">
         <v>1850122.12412173</v>
       </c>
-      <c r="F302" s="2">
+      <c r="F302" s="12">
         <v>0.22245065818464951</v>
       </c>
-      <c r="G302" s="2">
+      <c r="G302" s="12">
         <v>23.333771388885101</v>
       </c>
     </row>
@@ -7716,13 +7749,13 @@
       <c r="D303" s="2">
         <v>2011</v>
       </c>
-      <c r="E303" s="2">
+      <c r="E303" s="9">
         <v>1380823.7344005301</v>
       </c>
-      <c r="F303" s="2">
+      <c r="F303" s="12">
         <v>0.16281378780810402</v>
       </c>
-      <c r="G303" s="2">
+      <c r="G303" s="12">
         <v>16.0401577948473</v>
       </c>
     </row>
@@ -7739,13 +7772,13 @@
       <c r="D304" s="1">
         <v>2012</v>
       </c>
-      <c r="E304" s="1">
+      <c r="E304" s="8">
         <v>2541674.1714464398</v>
       </c>
-      <c r="F304" s="2">
+      <c r="F304" s="12">
         <v>0.29414120720361531</v>
       </c>
-      <c r="G304" s="2">
+      <c r="G304" s="12">
         <v>28.345840234970201</v>
       </c>
     </row>
@@ -7762,13 +7795,13 @@
       <c r="D305" s="2">
         <v>2013</v>
       </c>
-      <c r="E305" s="2">
+      <c r="E305" s="9">
         <v>2088279.0126339199</v>
       </c>
-      <c r="F305" s="2">
+      <c r="F305" s="12">
         <v>0.23733140273143766</v>
       </c>
-      <c r="G305" s="2">
+      <c r="G305" s="12">
         <v>22.642704443996099</v>
       </c>
     </row>
@@ -7785,13 +7818,13 @@
       <c r="D306" s="1">
         <v>2014</v>
       </c>
-      <c r="E306" s="1">
+      <c r="E306" s="8">
         <v>2170510.1808116599</v>
       </c>
-      <c r="F306" s="2">
+      <c r="F306" s="12">
         <v>0.24235263296244527</v>
       </c>
-      <c r="G306" s="2">
+      <c r="G306" s="12">
         <v>23.3066780587775</v>
       </c>
     </row>
@@ -7808,13 +7841,13 @@
       <c r="D307" s="2">
         <v>2015</v>
       </c>
-      <c r="E307" s="2">
+      <c r="E307" s="9">
         <v>2001820.96216867</v>
       </c>
-      <c r="F307" s="2">
+      <c r="F307" s="12">
         <v>0.21966651620417754</v>
       </c>
-      <c r="G307" s="2">
+      <c r="G307" s="12">
         <v>20.380597155791499</v>
       </c>
     </row>
@@ -7831,13 +7864,13 @@
       <c r="D308" s="1">
         <v>2016</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E308" s="8">
         <v>2018549.4496780401</v>
       </c>
-      <c r="F308" s="2">
+      <c r="F308" s="12">
         <v>0.21772726239650955</v>
       </c>
-      <c r="G308" s="2">
+      <c r="G308" s="12">
         <v>20.9893719705988</v>
       </c>
     </row>
@@ -7854,13 +7887,13 @@
       <c r="D309" s="2">
         <v>2017</v>
       </c>
-      <c r="E309" s="2">
+      <c r="E309" s="9">
         <v>2060578.40474366</v>
       </c>
-      <c r="F309" s="2">
+      <c r="F309" s="12">
         <v>0.2185362609761014</v>
       </c>
-      <c r="G309" s="2">
+      <c r="G309" s="12">
         <v>21.5004266013873</v>
       </c>
     </row>
@@ -7877,13 +7910,13 @@
       <c r="D310" s="1">
         <v>1990</v>
       </c>
-      <c r="E310" s="1">
+      <c r="E310" s="8">
         <v>4720685.9683520198</v>
       </c>
-      <c r="F310" s="2">
+      <c r="F310" s="12">
         <v>5.6236803168245357E-2</v>
       </c>
-      <c r="G310" s="2">
+      <c r="G310" s="12">
         <v>1.4889765124318</v>
       </c>
     </row>
@@ -7900,13 +7933,13 @@
       <c r="D311" s="2">
         <v>1991</v>
       </c>
-      <c r="E311" s="2">
+      <c r="E311" s="9">
         <v>5582040.55171376</v>
       </c>
-      <c r="F311" s="2">
+      <c r="F311" s="12">
         <v>6.5277098823731602E-2</v>
       </c>
-      <c r="G311" s="2">
+      <c r="G311" s="12">
         <v>1.6908451685164401</v>
       </c>
     </row>
@@ -7923,13 +7956,13 @@
       <c r="D312" s="1">
         <v>1992</v>
       </c>
-      <c r="E312" s="1">
+      <c r="E312" s="8">
         <v>6927178.2505977601</v>
       </c>
-      <c r="F312" s="2">
+      <c r="F312" s="12">
         <v>7.9554157342495088E-2</v>
       </c>
-      <c r="G312" s="2">
+      <c r="G312" s="12">
         <v>2.0816080828110399</v>
       </c>
     </row>
@@ -7946,13 +7979,13 @@
       <c r="D313" s="2">
         <v>1993</v>
       </c>
-      <c r="E313" s="2">
+      <c r="E313" s="9">
         <v>4099172.3074295102</v>
       </c>
-      <c r="F313" s="2">
+      <c r="F313" s="12">
         <v>4.6253002058442995E-2</v>
       </c>
-      <c r="G313" s="2">
+      <c r="G313" s="12">
         <v>1.21253175039609</v>
       </c>
     </row>
@@ -7969,13 +8002,13 @@
       <c r="D314" s="1">
         <v>1994</v>
       </c>
-      <c r="E314" s="1">
+      <c r="E314" s="8">
         <v>1552218.04321632</v>
       </c>
-      <c r="F314" s="2">
+      <c r="F314" s="12">
         <v>1.721702430471982E-2</v>
       </c>
-      <c r="G314" s="2">
+      <c r="G314" s="12">
         <v>0.44156290491883898</v>
       </c>
     </row>
@@ -7992,13 +8025,13 @@
       <c r="D315" s="2">
         <v>1995</v>
       </c>
-      <c r="E315" s="2">
+      <c r="E315" s="9">
         <v>-8285939.0974742202</v>
       </c>
-      <c r="F315" s="2">
+      <c r="F315" s="12">
         <v>-9.0395678708685298E-2</v>
       </c>
-      <c r="G315" s="2">
+      <c r="G315" s="12">
         <v>-2.49880090676265</v>
       </c>
     </row>
@@ -8015,13 +8048,13 @@
       <c r="D316" s="1">
         <v>1996</v>
       </c>
-      <c r="E316" s="1">
+      <c r="E316" s="8">
         <v>-3993116.6354060099</v>
       </c>
-      <c r="F316" s="2">
+      <c r="F316" s="12">
         <v>-4.2868977373463554E-2</v>
       </c>
-      <c r="G316" s="2">
+      <c r="G316" s="12">
         <v>-1.15486055202354</v>
       </c>
     </row>
@@ -8038,13 +8071,13 @@
       <c r="D317" s="2">
         <v>1997</v>
       </c>
-      <c r="E317" s="2">
+      <c r="E317" s="9">
         <v>6956406.1683840901</v>
       </c>
-      <c r="F317" s="2">
+      <c r="F317" s="12">
         <v>7.3526399344516921E-2</v>
       </c>
-      <c r="G317" s="2">
+      <c r="G317" s="12">
         <v>1.8870212908594299</v>
       </c>
     </row>
@@ -8061,13 +8094,13 @@
       <c r="D318" s="1">
         <v>1998</v>
       </c>
-      <c r="E318" s="1">
+      <c r="E318" s="8">
         <v>13520432.3133297</v>
       </c>
-      <c r="F318" s="2">
+      <c r="F318" s="12">
         <v>0.14075572908854939</v>
       </c>
-      <c r="G318" s="2">
+      <c r="G318" s="12">
         <v>3.4814450380073998</v>
       </c>
     </row>
@@ -8084,13 +8117,13 @@
       <c r="D319" s="2">
         <v>1999</v>
       </c>
-      <c r="E319" s="2">
+      <c r="E319" s="9">
         <v>13017252.878973</v>
       </c>
-      <c r="F319" s="2">
+      <c r="F319" s="12">
         <v>0.13353082914266809</v>
       </c>
-      <c r="G319" s="2">
+      <c r="G319" s="12">
         <v>3.33334301597441</v>
       </c>
     </row>
@@ -8107,13 +8140,13 @@
       <c r="D320" s="1">
         <v>2000</v>
       </c>
-      <c r="E320" s="1">
+      <c r="E320" s="8">
         <v>25273194.029733501</v>
       </c>
-      <c r="F320" s="2">
+      <c r="F320" s="12">
         <v>0.25554291233299797</v>
       </c>
-      <c r="G320" s="2">
+      <c r="G320" s="12">
         <v>6.3810503306798303</v>
       </c>
     </row>
@@ -8130,13 +8163,13 @@
       <c r="D321" s="2">
         <v>2001</v>
       </c>
-      <c r="E321" s="2">
+      <c r="E321" s="9">
         <v>18770214.554055199</v>
       </c>
-      <c r="F321" s="2">
+      <c r="F321" s="12">
         <v>0.1871444550644599</v>
       </c>
-      <c r="G321" s="2">
+      <c r="G321" s="12">
         <v>4.57032128690809</v>
       </c>
     </row>
@@ -8153,13 +8186,13 @@
       <c r="D322" s="1">
         <v>2002</v>
       </c>
-      <c r="E322" s="1">
+      <c r="E322" s="8">
         <v>22405850.2985796</v>
       </c>
-      <c r="F322" s="2">
+      <c r="F322" s="12">
         <v>0.22034567830633425</v>
       </c>
-      <c r="G322" s="2">
+      <c r="G322" s="12">
         <v>5.4387394184464597</v>
       </c>
     </row>
@@ -8176,13 +8209,13 @@
       <c r="D323" s="2">
         <v>2003</v>
       </c>
-      <c r="E323" s="2">
+      <c r="E323" s="9">
         <v>26684941.778271101</v>
       </c>
-      <c r="F323" s="2">
+      <c r="F323" s="12">
         <v>0.25887352449307927</v>
       </c>
-      <c r="G323" s="2">
+      <c r="G323" s="12">
         <v>6.0958269045891598</v>
       </c>
     </row>
@@ -8199,13 +8232,13 @@
       <c r="D324" s="1">
         <v>2004</v>
       </c>
-      <c r="E324" s="1">
+      <c r="E324" s="8">
         <v>19564975.0181957</v>
       </c>
-      <c r="F324" s="2">
+      <c r="F324" s="12">
         <v>0.18719777082902644</v>
       </c>
-      <c r="G324" s="2">
+      <c r="G324" s="12">
         <v>4.4581691467301701</v>
       </c>
     </row>
@@ -8222,13 +8255,13 @@
       <c r="D325" s="2">
         <v>2005</v>
       </c>
-      <c r="E325" s="2">
+      <c r="E325" s="9">
         <v>30228639.102956299</v>
       </c>
-      <c r="F325" s="2">
+      <c r="F325" s="12">
         <v>0.28516238953781708</v>
       </c>
-      <c r="G325" s="2">
+      <c r="G325" s="12">
         <v>6.5148885273415997</v>
       </c>
     </row>
@@ -8245,13 +8278,13 @@
       <c r="D326" s="1">
         <v>2006</v>
       </c>
-      <c r="E326" s="1">
+      <c r="E326" s="8">
         <v>32494225.325195301</v>
       </c>
-      <c r="F326" s="2">
+      <c r="F326" s="12">
         <v>0.30210324772401731</v>
       </c>
-      <c r="G326" s="2">
+      <c r="G326" s="12">
         <v>6.8184215369162198</v>
       </c>
     </row>
@@ -8268,13 +8301,13 @@
       <c r="D327" s="2">
         <v>2007</v>
       </c>
-      <c r="E327" s="2">
+      <c r="E327" s="9">
         <v>12637038.9812569</v>
       </c>
-      <c r="F327" s="2">
+      <c r="F327" s="12">
         <v>0.11575454086943328</v>
       </c>
-      <c r="G327" s="2">
+      <c r="G327" s="12">
         <v>2.6338862730676502</v>
       </c>
     </row>
@@ -8291,13 +8324,13 @@
       <c r="D328" s="1">
         <v>2008</v>
       </c>
-      <c r="E328" s="1">
+      <c r="E328" s="8">
         <v>15417810.793175001</v>
       </c>
-      <c r="F328" s="2">
+      <c r="F328" s="12">
         <v>0.13913108147069442</v>
       </c>
-      <c r="G328" s="2">
+      <c r="G328" s="12">
         <v>3.1274739571258601</v>
       </c>
     </row>
@@ -8314,13 +8347,13 @@
       <c r="D329" s="2">
         <v>2009</v>
       </c>
-      <c r="E329" s="2">
+      <c r="E329" s="9">
         <v>22228848.183754899</v>
       </c>
-      <c r="F329" s="2">
+      <c r="F329" s="12">
         <v>0.19765301059676785</v>
       </c>
-      <c r="G329" s="2">
+      <c r="G329" s="12">
         <v>4.6708773975959703</v>
       </c>
     </row>
@@ -8337,13 +8370,13 @@
       <c r="D330" s="1">
         <v>2010</v>
       </c>
-      <c r="E330" s="1">
+      <c r="E330" s="8">
         <v>28664443.7342152</v>
       </c>
-      <c r="F330" s="2">
+      <c r="F330" s="12">
         <v>0.25123753196265503</v>
       </c>
-      <c r="G330" s="2">
+      <c r="G330" s="12">
         <v>6.1805787990996199</v>
       </c>
     </row>
@@ -8360,13 +8393,13 @@
       <c r="D331" s="2">
         <v>2011</v>
       </c>
-      <c r="E331" s="2">
+      <c r="E331" s="9">
         <v>19548910.344535999</v>
       </c>
-      <c r="F331" s="2">
+      <c r="F331" s="12">
         <v>0.16896936206868057</v>
       </c>
-      <c r="G331" s="2">
+      <c r="G331" s="12">
         <v>4.0376561702503801</v>
       </c>
     </row>
@@ -8383,13 +8416,13 @@
       <c r="D332" s="1">
         <v>2012</v>
       </c>
-      <c r="E332" s="1">
+      <c r="E332" s="8">
         <v>39819172.537759401</v>
       </c>
-      <c r="F332" s="2">
+      <c r="F332" s="12">
         <v>0.33953964679092896</v>
       </c>
-      <c r="G332" s="2">
+      <c r="G332" s="12">
         <v>8.0232135280671493</v>
       </c>
     </row>
@@ -8406,13 +8439,13 @@
       <c r="D333" s="2">
         <v>2013</v>
       </c>
-      <c r="E333" s="2">
+      <c r="E333" s="9">
         <v>45202543.286233999</v>
       </c>
-      <c r="F333" s="2">
+      <c r="F333" s="12">
         <v>0.38040633261997692</v>
       </c>
-      <c r="G333" s="2">
+      <c r="G333" s="12">
         <v>9.2225682412236001</v>
       </c>
     </row>
@@ -8429,13 +8462,13 @@
       <c r="D334" s="1">
         <v>2014</v>
       </c>
-      <c r="E334" s="1">
+      <c r="E334" s="8">
         <v>46035728.085890397</v>
       </c>
-      <c r="F334" s="2">
+      <c r="F334" s="12">
         <v>0.38249950634282248</v>
       </c>
-      <c r="G334" s="2">
+      <c r="G334" s="12">
         <v>9.5682755689222994</v>
       </c>
     </row>
@@ -8452,13 +8485,13 @@
       <c r="D335" s="2">
         <v>2015</v>
       </c>
-      <c r="E335" s="2">
+      <c r="E335" s="9">
         <v>33813141.5612441</v>
       </c>
-      <c r="F335" s="2">
+      <c r="F335" s="12">
         <v>0.277479866412087</v>
       </c>
-      <c r="G335" s="2">
+      <c r="G335" s="12">
         <v>7.0155439200396001</v>
       </c>
     </row>
@@ -8475,13 +8508,13 @@
       <c r="D336" s="1">
         <v>2016</v>
       </c>
-      <c r="E336" s="1">
+      <c r="E336" s="8">
         <v>27253807.096989099</v>
       </c>
-      <c r="F336" s="2">
+      <c r="F336" s="12">
         <v>0.22097741153615902</v>
       </c>
-      <c r="G336" s="2">
+      <c r="G336" s="12">
         <v>5.6144323082751502</v>
       </c>
     </row>
@@ -8498,13 +8531,13 @@
       <c r="D337" s="2">
         <v>2017</v>
       </c>
-      <c r="E337" s="2">
+      <c r="E337" s="9">
         <v>24868310.5807692</v>
       </c>
-      <c r="F337" s="2">
+      <c r="F337" s="12">
         <v>0.1993020394845941</v>
       </c>
-      <c r="G337" s="2">
+      <c r="G337" s="12">
         <v>5.0466415673601697</v>
       </c>
     </row>
@@ -8521,13 +8554,13 @@
       <c r="D338" s="1">
         <v>1990</v>
       </c>
-      <c r="E338" s="1">
+      <c r="E338" s="8">
         <v>409418.19027736498</v>
       </c>
-      <c r="F338" s="2">
+      <c r="F338" s="12">
         <v>9.8111236586955419E-2</v>
       </c>
-      <c r="G338" s="2">
+      <c r="G338" s="12">
         <v>20.030771168092901</v>
       </c>
     </row>
@@ -8544,13 +8577,13 @@
       <c r="D339" s="2">
         <v>1991</v>
       </c>
-      <c r="E339" s="2">
+      <c r="E339" s="9">
         <v>525443.91169535602</v>
       </c>
-      <c r="F339" s="2">
+      <c r="F339" s="12">
         <v>0.12311244416479757</v>
       </c>
-      <c r="G339" s="2">
+      <c r="G339" s="12">
         <v>26.432239144799802</v>
       </c>
     </row>
@@ -8567,13 +8600,13 @@
       <c r="D340" s="1">
         <v>1992</v>
       </c>
-      <c r="E340" s="1">
+      <c r="E340" s="8">
         <v>503937.22583541297</v>
       </c>
-      <c r="F340" s="2">
+      <c r="F340" s="12">
         <v>0.11544953627386323</v>
       </c>
-      <c r="G340" s="2">
+      <c r="G340" s="12">
         <v>21.230482908795</v>
       </c>
     </row>
@@ -8590,13 +8623,13 @@
       <c r="D341" s="2">
         <v>1993</v>
       </c>
-      <c r="E341" s="2">
+      <c r="E341" s="9">
         <v>524471.89002632501</v>
       </c>
-      <c r="F341" s="2">
+      <c r="F341" s="12">
         <v>0.11754188481092</v>
       </c>
-      <c r="G341" s="2">
+      <c r="G341" s="12">
         <v>22.968857181938699</v>
       </c>
     </row>
@@ -8613,13 +8646,13 @@
       <c r="D342" s="1">
         <v>1994</v>
       </c>
-      <c r="E342" s="1">
+      <c r="E342" s="8">
         <v>542679.87611687602</v>
       </c>
-      <c r="F342" s="2">
+      <c r="F342" s="12">
         <v>0.11903484889600263</v>
       </c>
-      <c r="G342" s="2">
+      <c r="G342" s="12">
         <v>21.553062344596601</v>
       </c>
     </row>
@@ -8636,13 +8669,13 @@
       <c r="D343" s="2">
         <v>1995</v>
       </c>
-      <c r="E343" s="2">
+      <c r="E343" s="9">
         <v>529321.52977525303</v>
       </c>
-      <c r="F343" s="2">
+      <c r="F343" s="12">
         <v>0.1137836478450673</v>
       </c>
-      <c r="G343" s="2">
+      <c r="G343" s="12">
         <v>19.2141782112875</v>
       </c>
     </row>
@@ -8659,13 +8692,13 @@
       <c r="D344" s="1">
         <v>1996</v>
       </c>
-      <c r="E344" s="1">
+      <c r="E344" s="8">
         <v>470190.008685874</v>
       </c>
-      <c r="F344" s="2">
+      <c r="F344" s="12">
         <v>9.9154367078421346E-2</v>
       </c>
-      <c r="G344" s="2">
+      <c r="G344" s="12">
         <v>16.5131721139436</v>
       </c>
     </row>
@@ -8682,13 +8715,13 @@
       <c r="D345" s="2">
         <v>1997</v>
       </c>
-      <c r="E345" s="2">
+      <c r="E345" s="9">
         <v>634179.92906090606</v>
       </c>
-      <c r="F345" s="2">
+      <c r="F345" s="12">
         <v>0.13135458348403189</v>
       </c>
-      <c r="G345" s="2">
+      <c r="G345" s="12">
         <v>20.3680502117607</v>
       </c>
     </row>
@@ -8705,13 +8738,13 @@
       <c r="D346" s="1">
         <v>1998</v>
       </c>
-      <c r="E346" s="1">
+      <c r="E346" s="8">
         <v>741447.19970839703</v>
       </c>
-      <c r="F346" s="2">
+      <c r="F346" s="12">
         <v>0.1509768274706571</v>
       </c>
-      <c r="G346" s="2">
+      <c r="G346" s="12">
         <v>21.859599440942901</v>
       </c>
     </row>
@@ -8728,13 +8761,13 @@
       <c r="D347" s="2">
         <v>1999</v>
       </c>
-      <c r="E347" s="2">
+      <c r="E347" s="9">
         <v>789795.38956563396</v>
       </c>
-      <c r="F347" s="2">
+      <c r="F347" s="12">
         <v>0.15824391696366139</v>
       </c>
-      <c r="G347" s="2">
+      <c r="G347" s="12">
         <v>21.948394130717499</v>
       </c>
     </row>
@@ -8751,13 +8784,13 @@
       <c r="D348" s="1">
         <v>2000</v>
       </c>
-      <c r="E348" s="1">
+      <c r="E348" s="8">
         <v>762422.27304600796</v>
       </c>
-      <c r="F348" s="2">
+      <c r="F348" s="12">
         <v>0.15040881298994041</v>
       </c>
-      <c r="G348" s="2">
+      <c r="G348" s="12">
         <v>20.489378917721101</v>
       </c>
     </row>
@@ -8774,13 +8807,13 @@
       <c r="D349" s="2">
         <v>2001</v>
       </c>
-      <c r="E349" s="2">
+      <c r="E349" s="9">
         <v>846541.28261270595</v>
       </c>
-      <c r="F349" s="2">
+      <c r="F349" s="12">
         <v>0.164536692441731</v>
       </c>
-      <c r="G349" s="2">
+      <c r="G349" s="12">
         <v>21.584225922033902</v>
       </c>
     </row>
@@ -8797,13 +8830,13 @@
       <c r="D350" s="1">
         <v>2002</v>
       </c>
-      <c r="E350" s="1">
+      <c r="E350" s="8">
         <v>974469.52974147897</v>
       </c>
-      <c r="F350" s="2">
+      <c r="F350" s="12">
         <v>0.18671575584239872</v>
       </c>
-      <c r="G350" s="2">
+      <c r="G350" s="12">
         <v>24.417721098899499</v>
       </c>
     </row>
@@ -8820,13 +8853,13 @@
       <c r="D351" s="2">
         <v>2003</v>
       </c>
-      <c r="E351" s="2">
+      <c r="E351" s="9">
         <v>1184476.7371004999</v>
       </c>
-      <c r="F351" s="2">
+      <c r="F351" s="12">
         <v>0.22382402439540816</v>
       </c>
-      <c r="G351" s="2">
+      <c r="G351" s="12">
         <v>27.321900293356801</v>
       </c>
     </row>
@@ -8843,13 +8876,13 @@
       <c r="D352" s="1">
         <v>2004</v>
       </c>
-      <c r="E352" s="1">
+      <c r="E352" s="8">
         <v>1022112.16319575</v>
       </c>
-      <c r="F352" s="2">
+      <c r="F352" s="12">
         <v>0.19051484868513513</v>
       </c>
-      <c r="G352" s="2">
+      <c r="G352" s="12">
         <v>23.345155023384699</v>
       </c>
     </row>
@@ -8866,13 +8899,13 @@
       <c r="D353" s="2">
         <v>2005</v>
       </c>
-      <c r="E353" s="2">
+      <c r="E353" s="9">
         <v>1227538.3889282199</v>
       </c>
-      <c r="F353" s="2">
+      <c r="F353" s="12">
         <v>0.22569192662772936</v>
       </c>
-      <c r="G353" s="2">
+      <c r="G353" s="12">
         <v>28.749769651433802</v>
       </c>
     </row>
@@ -8889,13 +8922,13 @@
       <c r="D354" s="1">
         <v>2006</v>
       </c>
-      <c r="E354" s="1">
+      <c r="E354" s="8">
         <v>1227363.3905609001</v>
       </c>
-      <c r="F354" s="2">
+      <c r="F354" s="12">
         <v>0.22259038639116796</v>
       </c>
-      <c r="G354" s="2">
+      <c r="G354" s="12">
         <v>27.7820666749796</v>
       </c>
     </row>
@@ -8912,13 +8945,13 @@
       <c r="D355" s="2">
         <v>2007</v>
       </c>
-      <c r="E355" s="2">
+      <c r="E355" s="9">
         <v>1366762.48793494</v>
       </c>
-      <c r="F355" s="2">
+      <c r="F355" s="12">
         <v>0.2445013395232451</v>
       </c>
-      <c r="G355" s="2">
+      <c r="G355" s="12">
         <v>30.0358636489531</v>
       </c>
     </row>
@@ -8935,13 +8968,13 @@
       <c r="D356" s="1">
         <v>2008</v>
       </c>
-      <c r="E356" s="1">
+      <c r="E356" s="8">
         <v>1124374.5900034599</v>
       </c>
-      <c r="F356" s="2">
+      <c r="F356" s="12">
         <v>0.19840737427271218</v>
       </c>
-      <c r="G356" s="2">
+      <c r="G356" s="12">
         <v>25.757361497214401</v>
       </c>
     </row>
@@ -8958,13 +8991,13 @@
       <c r="D357" s="2">
         <v>2009</v>
       </c>
-      <c r="E357" s="2">
+      <c r="E357" s="9">
         <v>1270857.72253127</v>
       </c>
-      <c r="F357" s="2">
+      <c r="F357" s="12">
         <v>0.22117259354877655</v>
       </c>
-      <c r="G357" s="2">
+      <c r="G357" s="12">
         <v>28.591708245280401</v>
       </c>
     </row>
@@ -8981,13 +9014,13 @@
       <c r="D358" s="1">
         <v>2010</v>
       </c>
-      <c r="E358" s="1">
+      <c r="E358" s="8">
         <v>1387296.5975297401</v>
       </c>
-      <c r="F358" s="2">
+      <c r="F358" s="12">
         <v>0.23820339930112294</v>
       </c>
-      <c r="G358" s="2">
+      <c r="G358" s="12">
         <v>31.042735610518701</v>
       </c>
     </row>
@@ -9004,13 +9037,13 @@
       <c r="D359" s="2">
         <v>2011</v>
       </c>
-      <c r="E359" s="2">
+      <c r="E359" s="9">
         <v>1393791.01275558</v>
       </c>
-      <c r="F359" s="2">
+      <c r="F359" s="12">
         <v>0.23611570604024734</v>
       </c>
-      <c r="G359" s="2">
+      <c r="G359" s="12">
         <v>29.005198383547398</v>
       </c>
     </row>
@@ -9027,13 +9060,13 @@
       <c r="D360" s="1">
         <v>2012</v>
       </c>
-      <c r="E360" s="1">
+      <c r="E360" s="8">
         <v>1864196.3489517199</v>
       </c>
-      <c r="F360" s="2">
+      <c r="F360" s="12">
         <v>0.31158220774723716</v>
       </c>
-      <c r="G360" s="2">
+      <c r="G360" s="12">
         <v>41.014835542861903</v>
       </c>
     </row>
@@ -9050,13 +9083,13 @@
       <c r="D361" s="2">
         <v>2013</v>
       </c>
-      <c r="E361" s="2">
+      <c r="E361" s="9">
         <v>1444529.9742901199</v>
       </c>
-      <c r="F361" s="2">
+      <c r="F361" s="12">
         <v>0.23829263845102605</v>
       </c>
-      <c r="G361" s="2">
+      <c r="G361" s="12">
         <v>33.196626817695602</v>
       </c>
     </row>
@@ -9073,13 +9106,13 @@
       <c r="D362" s="1">
         <v>2014</v>
       </c>
-      <c r="E362" s="1">
+      <c r="E362" s="8">
         <v>1420032.37179895</v>
       </c>
-      <c r="F362" s="2">
+      <c r="F362" s="12">
         <v>0.23116268464902329</v>
       </c>
-      <c r="G362" s="2">
+      <c r="G362" s="12">
         <v>30.883843914145299</v>
       </c>
     </row>
@@ -9096,13 +9129,13 @@
       <c r="D363" s="2">
         <v>2015</v>
       </c>
-      <c r="E363" s="2">
+      <c r="E363" s="9">
         <v>1351999.4518488799</v>
       </c>
-      <c r="F363" s="2">
+      <c r="F363" s="12">
         <v>0.21725846888138839</v>
       </c>
-      <c r="G363" s="2">
+      <c r="G363" s="12">
         <v>25.751536285697998</v>
       </c>
     </row>
@@ -9119,13 +9152,13 @@
       <c r="D364" s="1">
         <v>2016</v>
       </c>
-      <c r="E364" s="1">
+      <c r="E364" s="8">
         <v>1293658.9837160299</v>
       </c>
-      <c r="F364" s="2">
+      <c r="F364" s="12">
         <v>0.20521240223921794</v>
       </c>
-      <c r="G364" s="2">
+      <c r="G364" s="12">
         <v>23.477046247766701</v>
       </c>
     </row>
@@ -9142,13 +9175,13 @@
       <c r="D365" s="2">
         <v>2017</v>
       </c>
-      <c r="E365" s="2">
+      <c r="E365" s="9">
         <v>1267201.60356715</v>
       </c>
-      <c r="F365" s="2">
+      <c r="F365" s="12">
         <v>0.19846540384763509</v>
       </c>
-      <c r="G365" s="2">
+      <c r="G365" s="12">
         <v>23.055188670606402</v>
       </c>
     </row>
@@ -9165,13 +9198,13 @@
       <c r="D366" s="1">
         <v>1990</v>
       </c>
-      <c r="E366" s="1">
+      <c r="E366" s="8">
         <v>-203725.46475613301</v>
       </c>
-      <c r="F366" s="2">
+      <c r="F366" s="12">
         <v>-8.2446566068851881E-2</v>
       </c>
-      <c r="G366" s="2">
+      <c r="G366" s="12">
         <v>-7.4184919459040097</v>
       </c>
     </row>
@@ -9188,13 +9221,13 @@
       <c r="D367" s="2">
         <v>1991</v>
       </c>
-      <c r="E367" s="2">
+      <c r="E367" s="9">
         <v>-656946.91907025501</v>
       </c>
-      <c r="F367" s="2">
+      <c r="F367" s="12">
         <v>-0.26038324180350969</v>
       </c>
-      <c r="G367" s="2">
+      <c r="G367" s="12">
         <v>-20.3872403080283</v>
       </c>
     </row>
@@ -9211,13 +9244,13 @@
       <c r="D368" s="1">
         <v>1992</v>
       </c>
-      <c r="E368" s="1">
+      <c r="E368" s="8">
         <v>-927187.99484063499</v>
       </c>
-      <c r="F368" s="2">
+      <c r="F368" s="12">
         <v>-0.3599332278108055</v>
       </c>
-      <c r="G368" s="2">
+      <c r="G368" s="12">
         <v>-21.940351449695001</v>
       </c>
     </row>
@@ -9234,13 +9267,13 @@
       <c r="D369" s="2">
         <v>1993</v>
       </c>
-      <c r="E369" s="2">
+      <c r="E369" s="9">
         <v>-421735.76867583301</v>
       </c>
-      <c r="F369" s="2">
+      <c r="F369" s="12">
         <v>-0.16035580558016463</v>
       </c>
-      <c r="G369" s="2">
+      <c r="G369" s="12">
         <v>-10.8148337727611</v>
       </c>
     </row>
@@ -9257,13 +9290,13 @@
       <c r="D370" s="1">
         <v>1994</v>
       </c>
-      <c r="E370" s="1">
+      <c r="E370" s="8">
         <v>-453644.74276068498</v>
       </c>
-      <c r="F370" s="2">
+      <c r="F370" s="12">
         <v>-0.16901816049205848</v>
       </c>
-      <c r="G370" s="2">
+      <c r="G370" s="12">
         <v>-10.569629263343201</v>
       </c>
     </row>
@@ -9280,13 +9313,13 @@
       <c r="D371" s="2">
         <v>1995</v>
       </c>
-      <c r="E371" s="2">
+      <c r="E371" s="9">
         <v>257658.88104030199</v>
       </c>
-      <c r="F371" s="2">
+      <c r="F371" s="12">
         <v>9.4036087970913132E-2</v>
       </c>
-      <c r="G371" s="2">
+      <c r="G371" s="12">
         <v>8.7650659684915606</v>
       </c>
     </row>
@@ -9303,13 +9336,13 @@
       <c r="D372" s="1">
         <v>1996</v>
       </c>
-      <c r="E372" s="1">
+      <c r="E372" s="8">
         <v>-202114.717327477</v>
       </c>
-      <c r="F372" s="2">
+      <c r="F372" s="12">
         <v>-7.2287094895378046E-2</v>
       </c>
-      <c r="G372" s="2">
+      <c r="G372" s="12">
         <v>-4.4177847408432003</v>
       </c>
     </row>
@@ -9326,13 +9359,13 @@
       <c r="D373" s="2">
         <v>1997</v>
       </c>
-      <c r="E373" s="2">
+      <c r="E373" s="9">
         <v>-346914.74464102299</v>
       </c>
-      <c r="F373" s="2">
+      <c r="F373" s="12">
         <v>-0.12155386988122739</v>
       </c>
-      <c r="G373" s="2">
+      <c r="G373" s="12">
         <v>-6.2023655919619296</v>
       </c>
     </row>
@@ -9349,13 +9382,13 @@
       <c r="D374" s="1">
         <v>1998</v>
       </c>
-      <c r="E374" s="1">
+      <c r="E374" s="8">
         <v>-2674.2451914349899</v>
       </c>
-      <c r="F374" s="2">
+      <c r="F374" s="12">
         <v>-9.1835343112465313E-4</v>
       </c>
-      <c r="G374" s="2">
+      <c r="G374" s="12">
         <v>-4.5405159406811897E-2</v>
       </c>
     </row>
@@ -9372,13 +9405,13 @@
       <c r="D375" s="2">
         <v>1999</v>
       </c>
-      <c r="E375" s="2">
+      <c r="E375" s="9">
         <v>737903.31344934099</v>
       </c>
-      <c r="F375" s="2">
+      <c r="F375" s="12">
         <v>0.24836866827645271</v>
       </c>
-      <c r="G375" s="2">
+      <c r="G375" s="12">
         <v>13.1526398572913</v>
       </c>
     </row>
@@ -9395,13 +9428,13 @@
       <c r="D376" s="1">
         <v>2000</v>
       </c>
-      <c r="E376" s="1">
+      <c r="E376" s="8">
         <v>152709.81392640501</v>
       </c>
-      <c r="F376" s="2">
+      <c r="F376" s="12">
         <v>5.0399278523566009E-2</v>
       </c>
-      <c r="G376" s="2">
+      <c r="G376" s="12">
         <v>2.6711488217673902</v>
       </c>
     </row>
@@ -9418,13 +9451,13 @@
       <c r="D377" s="2">
         <v>2001</v>
       </c>
-      <c r="E377" s="2">
+      <c r="E377" s="9">
         <v>-627325.19523505704</v>
       </c>
-      <c r="F377" s="2">
+      <c r="F377" s="12">
         <v>-0.20301786253561716</v>
       </c>
-      <c r="G377" s="2">
+      <c r="G377" s="12">
         <v>-9.03938715824418</v>
       </c>
     </row>
@@ -9441,13 +9474,13 @@
       <c r="D378" s="1">
         <v>2002</v>
       </c>
-      <c r="E378" s="1">
+      <c r="E378" s="8">
         <v>461813.33753182</v>
       </c>
-      <c r="F378" s="2">
+      <c r="F378" s="12">
         <v>0.14665396555472213</v>
       </c>
-      <c r="G378" s="2">
+      <c r="G378" s="12">
         <v>7.9523384889285902</v>
       </c>
     </row>
@@ -9464,13 +9497,13 @@
       <c r="D379" s="2">
         <v>2003</v>
       </c>
-      <c r="E379" s="2">
+      <c r="E379" s="9">
         <v>-4271353.3093107697</v>
       </c>
-      <c r="F379" s="2">
+      <c r="F379" s="12">
         <v>-1.3310543188877437</v>
       </c>
-      <c r="G379" s="2">
+      <c r="G379" s="12">
         <v>-70.302648708142399</v>
       </c>
     </row>
@@ -9487,13 +9520,13 @@
       <c r="D380" s="1">
         <v>2004</v>
       </c>
-      <c r="E380" s="1">
+      <c r="E380" s="8">
         <v>-3847466.2393673798</v>
       </c>
-      <c r="F380" s="2">
+      <c r="F380" s="12">
         <v>-1.1769551053433405</v>
       </c>
-      <c r="G380" s="2">
+      <c r="G380" s="12">
         <v>-67.3613158420426</v>
       </c>
     </row>
@@ -9510,13 +9543,13 @@
       <c r="D381" s="2">
         <v>2005</v>
       </c>
-      <c r="E381" s="2">
+      <c r="E381" s="9">
         <v>-5822483.5538522098</v>
       </c>
-      <c r="F381" s="2">
+      <c r="F381" s="12">
         <v>-1.7484935597153783</v>
       </c>
-      <c r="G381" s="2">
+      <c r="G381" s="12">
         <v>-86.373064244696806</v>
       </c>
     </row>
@@ -9533,13 +9566,13 @@
       <c r="D382" s="1">
         <v>2006</v>
       </c>
-      <c r="E382" s="1">
+      <c r="E382" s="8">
         <v>-6580600.5024964903</v>
       </c>
-      <c r="F382" s="2">
+      <c r="F382" s="12">
         <v>-1.9400355255001445</v>
       </c>
-      <c r="G382" s="2">
+      <c r="G382" s="12">
         <v>-89.324612301052895</v>
       </c>
     </row>
@@ -9556,13 +9589,13 @@
       <c r="D383" s="2">
         <v>2007</v>
       </c>
-      <c r="E383" s="2">
+      <c r="E383" s="9">
         <v>-6061213.2860136097</v>
       </c>
-      <c r="F383" s="2">
+      <c r="F383" s="12">
         <v>-1.7548388205019136</v>
       </c>
-      <c r="G383" s="2">
+      <c r="G383" s="12">
         <v>-84.226728562687896</v>
       </c>
     </row>
@@ -9579,13 +9612,13 @@
       <c r="D384" s="1">
         <v>2008</v>
       </c>
-      <c r="E384" s="1">
+      <c r="E384" s="8">
         <v>-2068389.7973053099</v>
       </c>
-      <c r="F384" s="2">
+      <c r="F384" s="12">
         <v>-0.58827923700378548</v>
       </c>
-      <c r="G384" s="2">
+      <c r="G384" s="12">
         <v>-28.281414149679801</v>
       </c>
     </row>
@@ -9602,13 +9635,13 @@
       <c r="D385" s="2">
         <v>2009</v>
       </c>
-      <c r="E385" s="2">
+      <c r="E385" s="9">
         <v>7081909.0198108898</v>
       </c>
-      <c r="F385" s="2">
+      <c r="F385" s="12">
         <v>1.978739597600137</v>
       </c>
-      <c r="G385" s="2">
+      <c r="G385" s="12">
         <v>84.114630897486805</v>
       </c>
     </row>
@@ -9625,13 +9658,13 @@
       <c r="D386" s="1">
         <v>2010</v>
       </c>
-      <c r="E386" s="1">
+      <c r="E386" s="8">
         <v>13207348.923381001</v>
       </c>
-      <c r="F386" s="2">
+      <c r="F386" s="12">
         <v>3.6254045905520176</v>
       </c>
-      <c r="G386" s="2">
+      <c r="G386" s="12">
         <v>145.57216960849101</v>
       </c>
     </row>
@@ -9648,13 +9681,13 @@
       <c r="D387" s="2">
         <v>2011</v>
       </c>
-      <c r="E387" s="2">
+      <c r="E387" s="9">
         <v>4801835.9993971596</v>
       </c>
-      <c r="F387" s="2">
+      <c r="F387" s="12">
         <v>1.295692390555089</v>
       </c>
-      <c r="G387" s="2">
+      <c r="G387" s="12">
         <v>48.248943236609598</v>
       </c>
     </row>
@@ -9671,13 +9704,13 @@
       <c r="D388" s="1">
         <v>2012</v>
       </c>
-      <c r="E388" s="1">
+      <c r="E388" s="8">
         <v>14507826.505157501</v>
       </c>
-      <c r="F388" s="2">
+      <c r="F388" s="12">
         <v>3.8472093622798993</v>
       </c>
-      <c r="G388" s="2">
+      <c r="G388" s="12">
         <v>148.53016373421801</v>
       </c>
     </row>
@@ -9694,13 +9727,13 @@
       <c r="D389" s="2">
         <v>2013</v>
       </c>
-      <c r="E389" s="2">
+      <c r="E389" s="9">
         <v>9633469.7444067709</v>
       </c>
-      <c r="F389" s="2">
+      <c r="F389" s="12">
         <v>2.5119868955428348</v>
       </c>
-      <c r="G389" s="2">
+      <c r="G389" s="12">
         <v>84.756660602303498</v>
       </c>
     </row>
@@ -9717,13 +9750,13 @@
       <c r="D390" s="1">
         <v>2014</v>
       </c>
-      <c r="E390" s="1">
+      <c r="E390" s="8">
         <v>11208150.949978899</v>
       </c>
-      <c r="F390" s="2">
+      <c r="F390" s="12">
         <v>2.8731481543139963</v>
       </c>
-      <c r="G390" s="2">
+      <c r="G390" s="12">
         <v>103.245527480969</v>
       </c>
     </row>
@@ -9740,13 +9773,13 @@
       <c r="D391" s="2">
         <v>2015</v>
       </c>
-      <c r="E391" s="2">
+      <c r="E391" s="9">
         <v>10806667.989202</v>
       </c>
-      <c r="F391" s="2">
+      <c r="F391" s="12">
         <v>2.7234546343755039</v>
       </c>
-      <c r="G391" s="2">
+      <c r="G391" s="12">
         <v>99.353454286936795</v>
       </c>
     </row>
@@ -9763,13 +9796,13 @@
       <c r="D392" s="1">
         <v>2016</v>
       </c>
-      <c r="E392" s="1">
+      <c r="E392" s="8">
         <v>10886165.949503999</v>
       </c>
-      <c r="F392" s="2">
+      <c r="F392" s="12">
         <v>2.6965979562804061</v>
       </c>
-      <c r="G392" s="2">
+      <c r="G392" s="12">
         <v>104.04479421759299</v>
       </c>
     </row>
@@ -9786,13 +9819,13 @@
       <c r="D393" s="2">
         <v>2017</v>
       </c>
-      <c r="E393" s="2">
+      <c r="E393" s="9">
         <v>11597542.660844401</v>
       </c>
-      <c r="F393" s="2">
+      <c r="F393" s="12">
         <v>2.8238477382138787</v>
       </c>
-      <c r="G393" s="2">
+      <c r="G393" s="12">
         <v>111.377289326781</v>
       </c>
     </row>
@@ -9809,13 +9842,13 @@
       <c r="D394" s="1">
         <v>1990</v>
       </c>
-      <c r="E394" s="1">
+      <c r="E394" s="8">
         <v>1370985.98870766</v>
       </c>
-      <c r="F394" s="2">
+      <c r="F394" s="12">
         <v>0.32464740438258582</v>
       </c>
-      <c r="G394" s="2">
+      <c r="G394" s="12">
         <v>64.195556774908994</v>
       </c>
     </row>
@@ -9832,13 +9865,13 @@
       <c r="D395" s="2">
         <v>1991</v>
       </c>
-      <c r="E395" s="2">
+      <c r="E395" s="9">
         <v>1410408.16261437</v>
       </c>
-      <c r="F395" s="2">
+      <c r="F395" s="12">
         <v>0.32542874079703971</v>
       </c>
-      <c r="G395" s="2">
+      <c r="G395" s="12">
         <v>67.052295763111204</v>
       </c>
     </row>
@@ -9855,13 +9888,13 @@
       <c r="D396" s="1">
         <v>1992</v>
       </c>
-      <c r="E396" s="1">
+      <c r="E396" s="8">
         <v>1436267.6462968099</v>
       </c>
-      <c r="F396" s="2">
+      <c r="F396" s="12">
         <v>0.32311983043797748</v>
       </c>
-      <c r="G396" s="2">
+      <c r="G396" s="12">
         <v>55.670604859138798</v>
       </c>
     </row>
@@ -9878,13 +9911,13 @@
       <c r="D397" s="2">
         <v>1993</v>
       </c>
-      <c r="E397" s="2">
+      <c r="E397" s="9">
         <v>1317271.6498375</v>
       </c>
-      <c r="F397" s="2">
+      <c r="F397" s="12">
         <v>0.2891289837220149</v>
       </c>
-      <c r="G397" s="2">
+      <c r="G397" s="12">
         <v>45.203362884042399</v>
       </c>
     </row>
@@ -9901,13 +9934,13 @@
       <c r="D398" s="1">
         <v>1994</v>
       </c>
-      <c r="E398" s="1">
+      <c r="E398" s="8">
         <v>1354517.02342516</v>
       </c>
-      <c r="F398" s="2">
+      <c r="F398" s="12">
         <v>0.29029511860804974</v>
       </c>
-      <c r="G398" s="2">
+      <c r="G398" s="12">
         <v>39.788578968546197</v>
       </c>
     </row>
@@ -9924,13 +9957,13 @@
       <c r="D399" s="2">
         <v>1995</v>
       </c>
-      <c r="E399" s="2">
+      <c r="E399" s="9">
         <v>1360245.9717733499</v>
       </c>
-      <c r="F399" s="2">
+      <c r="F399" s="12">
         <v>0.28474899974321749</v>
       </c>
-      <c r="G399" s="2">
+      <c r="G399" s="12">
         <v>34.549009239258098</v>
       </c>
     </row>
@@ -9947,13 +9980,13 @@
       <c r="D400" s="1">
         <v>1996</v>
       </c>
-      <c r="E400" s="1">
+      <c r="E400" s="8">
         <v>1336260.72514635</v>
       </c>
-      <c r="F400" s="2">
+      <c r="F400" s="12">
         <v>0.27337576210031711</v>
       </c>
-      <c r="G400" s="2">
+      <c r="G400" s="12">
         <v>35.932568727026698</v>
       </c>
     </row>
@@ -9970,13 +10003,13 @@
       <c r="D401" s="2">
         <v>1997</v>
       </c>
-      <c r="E401" s="2">
+      <c r="E401" s="9">
         <v>1576051.9439278201</v>
       </c>
-      <c r="F401" s="2">
+      <c r="F401" s="12">
         <v>0.31533652339492196</v>
       </c>
-      <c r="G401" s="2">
+      <c r="G401" s="12">
         <v>38.179821125870802</v>
       </c>
     </row>
@@ -9993,13 +10026,13 @@
       <c r="D402" s="1">
         <v>1998</v>
       </c>
-      <c r="E402" s="1">
+      <c r="E402" s="8">
         <v>1328286.05056146</v>
       </c>
-      <c r="F402" s="2">
+      <c r="F402" s="12">
         <v>0.26004033879433436</v>
       </c>
-      <c r="G402" s="2">
+      <c r="G402" s="12">
         <v>30.299110783988599</v>
       </c>
     </row>
@@ -10016,13 +10049,13 @@
       <c r="D403" s="2">
         <v>1999</v>
       </c>
-      <c r="E403" s="2">
+      <c r="E403" s="9">
         <v>1289009.94325234</v>
       </c>
-      <c r="F403" s="2">
+      <c r="F403" s="12">
         <v>0.24712613942721243</v>
       </c>
-      <c r="G403" s="2">
+      <c r="G403" s="12">
         <v>29.4568698592809</v>
       </c>
     </row>
@@ -10039,13 +10072,13 @@
       <c r="D404" s="1">
         <v>2000</v>
       </c>
-      <c r="E404" s="1">
+      <c r="E404" s="8">
         <v>1396233.8340255499</v>
       </c>
-      <c r="F404" s="2">
+      <c r="F404" s="12">
         <v>0.26230205410962804</v>
       </c>
-      <c r="G404" s="2">
+      <c r="G404" s="12">
         <v>38.718322957272498</v>
       </c>
     </row>
@@ -10062,13 +10095,13 @@
       <c r="D405" s="2">
         <v>2001</v>
       </c>
-      <c r="E405" s="2">
+      <c r="E405" s="9">
         <v>1326273.3611182801</v>
       </c>
-      <c r="F405" s="2">
+      <c r="F405" s="12">
         <v>0.24433923380955785</v>
       </c>
-      <c r="G405" s="2">
+      <c r="G405" s="12">
         <v>35.888806627028103</v>
       </c>
     </row>
@@ -10085,13 +10118,13 @@
       <c r="D406" s="1">
         <v>2002</v>
       </c>
-      <c r="E406" s="1">
+      <c r="E406" s="8">
         <v>547822.58928488498</v>
       </c>
-      <c r="F406" s="2">
+      <c r="F406" s="12">
         <v>9.9027944556197567E-2</v>
       </c>
-      <c r="G406" s="2">
+      <c r="G406" s="12">
         <v>14.2023618109853</v>
       </c>
     </row>
@@ -10108,13 +10141,13 @@
       <c r="D407" s="2">
         <v>2003</v>
       </c>
-      <c r="E407" s="2">
+      <c r="E407" s="9">
         <v>722134.37154781399</v>
       </c>
-      <c r="F407" s="2">
+      <c r="F407" s="12">
         <v>0.12819711903920006</v>
       </c>
-      <c r="G407" s="2">
+      <c r="G407" s="12">
         <v>17.912353243958901</v>
       </c>
     </row>
@@ -10131,13 +10164,13 @@
       <c r="D408" s="1">
         <v>2004</v>
       </c>
-      <c r="E408" s="1">
+      <c r="E408" s="8">
         <v>955796.44746960304</v>
       </c>
-      <c r="F408" s="2">
+      <c r="F408" s="12">
         <v>0.16677655687831147</v>
       </c>
-      <c r="G408" s="2">
+      <c r="G408" s="12">
         <v>23.5342082602867</v>
       </c>
     </row>
@@ -10154,13 +10187,13 @@
       <c r="D409" s="2">
         <v>2005</v>
       </c>
-      <c r="E409" s="2">
+      <c r="E409" s="9">
         <v>1196517.5964233</v>
       </c>
-      <c r="F409" s="2">
+      <c r="F409" s="12">
         <v>0.2054460158693853</v>
       </c>
-      <c r="G409" s="2">
+      <c r="G409" s="12">
         <v>31.654817464929501</v>
       </c>
     </row>
@@ -10177,13 +10210,13 @@
       <c r="D410" s="1">
         <v>2006</v>
       </c>
-      <c r="E410" s="1">
+      <c r="E410" s="8">
         <v>1519809.7694168701</v>
       </c>
-      <c r="F410" s="2">
+      <c r="F410" s="12">
         <v>0.25702854209654491</v>
       </c>
-      <c r="G410" s="2">
+      <c r="G410" s="12">
         <v>38.8828224228686</v>
       </c>
     </row>
@@ -10200,13 +10233,13 @@
       <c r="D411" s="2">
         <v>2007</v>
       </c>
-      <c r="E411" s="2">
+      <c r="E411" s="9">
         <v>1709693.0833093701</v>
       </c>
-      <c r="F411" s="2">
+      <c r="F411" s="12">
         <v>0.28504386183884128</v>
       </c>
-      <c r="G411" s="2">
+      <c r="G411" s="12">
         <v>42.3027800466595</v>
       </c>
     </row>
@@ -10223,13 +10256,13 @@
       <c r="D412" s="1">
         <v>2008</v>
       </c>
-      <c r="E412" s="1">
+      <c r="E412" s="8">
         <v>2827435.9808975202</v>
       </c>
-      <c r="F412" s="2">
+      <c r="F412" s="12">
         <v>0.46496233857877328</v>
       </c>
-      <c r="G412" s="2">
+      <c r="G412" s="12">
         <v>66.093183351142301</v>
       </c>
     </row>
@@ -10246,13 +10279,13 @@
       <c r="D413" s="2">
         <v>2009</v>
       </c>
-      <c r="E413" s="2">
+      <c r="E413" s="9">
         <v>2406902.1872489899</v>
       </c>
-      <c r="F413" s="2">
+      <c r="F413" s="12">
         <v>0.39047731785350259</v>
       </c>
-      <c r="G413" s="2">
+      <c r="G413" s="12">
         <v>53.114910895928197</v>
       </c>
     </row>
@@ -10269,13 +10302,13 @@
       <c r="D414" s="1">
         <v>2010</v>
       </c>
-      <c r="E414" s="1">
+      <c r="E414" s="8">
         <v>3258513.6264107702</v>
       </c>
-      <c r="F414" s="2">
+      <c r="F414" s="12">
         <v>0.52152906952797218</v>
       </c>
-      <c r="G414" s="2">
+      <c r="G414" s="12">
         <v>64.887454070901995</v>
       </c>
     </row>
@@ -10292,13 +10325,13 @@
       <c r="D415" s="2">
         <v>2011</v>
       </c>
-      <c r="E415" s="2">
+      <c r="E415" s="9">
         <v>2937582.3541639498</v>
       </c>
-      <c r="F415" s="2">
+      <c r="F415" s="12">
         <v>0.46377997381811648</v>
       </c>
-      <c r="G415" s="2">
+      <c r="G415" s="12">
         <v>56.505866619192503</v>
       </c>
     </row>
@@ -10315,13 +10348,13 @@
       <c r="D416" s="1">
         <v>2012</v>
       </c>
-      <c r="E416" s="1">
+      <c r="E416" s="8">
         <v>3403808.1988936602</v>
       </c>
-      <c r="F416" s="2">
+      <c r="F416" s="12">
         <v>0.53002307675080351</v>
       </c>
-      <c r="G416" s="2">
+      <c r="G416" s="12">
         <v>65.796720098778195</v>
       </c>
     </row>
@@ -10338,13 +10371,13 @@
       <c r="D417" s="2">
         <v>2013</v>
       </c>
-      <c r="E417" s="2">
+      <c r="E417" s="9">
         <v>3639072.8144973</v>
       </c>
-      <c r="F417" s="2">
+      <c r="F417" s="12">
         <v>0.55899736013783408</v>
       </c>
-      <c r="G417" s="2">
+      <c r="G417" s="12">
         <v>70.359036866069403</v>
       </c>
     </row>
@@ -10361,13 +10394,13 @@
       <c r="D418" s="1">
         <v>2014</v>
       </c>
-      <c r="E418" s="1">
+      <c r="E418" s="8">
         <v>3653461.5427677599</v>
       </c>
-      <c r="F418" s="2">
+      <c r="F418" s="12">
         <v>0.55355477920723639</v>
       </c>
-      <c r="G418" s="2">
+      <c r="G418" s="12">
         <v>66.934913749837705</v>
       </c>
     </row>
@@ -10384,13 +10417,13 @@
       <c r="D419" s="2">
         <v>2015</v>
       </c>
-      <c r="E419" s="2">
+      <c r="E419" s="9">
         <v>3423655.4824038302</v>
       </c>
-      <c r="F419" s="2">
+      <c r="F419" s="12">
         <v>0.51183367953413517</v>
       </c>
-      <c r="G419" s="2">
+      <c r="G419" s="12">
         <v>56.579863844371097</v>
       </c>
     </row>
@@ -10407,13 +10440,13 @@
       <c r="D420" s="1">
         <v>2016</v>
       </c>
-      <c r="E420" s="1">
+      <c r="E420" s="8">
         <v>3057503.7247095299</v>
       </c>
-      <c r="F420" s="2">
+      <c r="F420" s="12">
         <v>0.45109231701232366</v>
       </c>
-      <c r="G420" s="2">
+      <c r="G420" s="12">
         <v>42.7398411992177</v>
       </c>
     </row>
@@ -10430,13 +10463,13 @@
       <c r="D421" s="2">
         <v>2017</v>
       </c>
-      <c r="E421" s="2">
+      <c r="E421" s="9">
         <v>3144445.64735458</v>
       </c>
-      <c r="F421" s="2">
+      <c r="F421" s="12">
         <v>0.45790674928710934</v>
       </c>
-      <c r="G421" s="2">
+      <c r="G421" s="12">
         <v>43.8487522065316</v>
       </c>
     </row>
@@ -10453,13 +10486,13 @@
       <c r="D422" s="1">
         <v>1990</v>
       </c>
-      <c r="E422" s="1">
+      <c r="E422" s="8">
         <v>1563851.1018965701</v>
       </c>
-      <c r="F422" s="2">
+      <c r="F422" s="12">
         <v>7.0855471065949444E-2</v>
       </c>
-      <c r="G422" s="2">
+      <c r="G422" s="12">
         <v>7.4637790876359302</v>
       </c>
     </row>
@@ -10476,13 +10509,13 @@
       <c r="D423" s="2">
         <v>1991</v>
       </c>
-      <c r="E423" s="2">
+      <c r="E423" s="9">
         <v>1688930.62926532</v>
       </c>
-      <c r="F423" s="2">
+      <c r="F423" s="12">
         <v>7.499025971340556E-2</v>
       </c>
-      <c r="G423" s="2">
+      <c r="G423" s="12">
         <v>8.3715457047516306</v>
       </c>
     </row>
@@ -10499,13 +10532,13 @@
       <c r="D424" s="1">
         <v>1992</v>
       </c>
-      <c r="E424" s="1">
+      <c r="E424" s="8">
         <v>1538771.68921793</v>
       </c>
-      <c r="F424" s="2">
+      <c r="F424" s="12">
         <v>6.6999246275871033E-2</v>
       </c>
-      <c r="G424" s="2">
+      <c r="G424" s="12">
         <v>7.5760933090322498</v>
       </c>
     </row>
@@ -10522,13 +10555,13 @@
       <c r="D425" s="2">
         <v>1993</v>
       </c>
-      <c r="E425" s="2">
+      <c r="E425" s="9">
         <v>1534068.9511534099</v>
       </c>
-      <c r="F425" s="2">
+      <c r="F425" s="12">
         <v>6.5536096682903708E-2</v>
       </c>
-      <c r="G425" s="2">
+      <c r="G425" s="12">
         <v>6.5339418602543597</v>
       </c>
     </row>
@@ -10545,13 +10578,13 @@
       <c r="D426" s="1">
         <v>1994</v>
       </c>
-      <c r="E426" s="1">
+      <c r="E426" s="8">
         <v>1951574.3800102801</v>
       </c>
-      <c r="F426" s="2">
+      <c r="F426" s="12">
         <v>8.1823587271404971E-2</v>
       </c>
-      <c r="G426" s="2">
+      <c r="G426" s="12">
         <v>8.44130371775646</v>
       </c>
     </row>
@@ -10568,13 +10601,13 @@
       <c r="D427" s="2">
         <v>1995</v>
       </c>
-      <c r="E427" s="2">
+      <c r="E427" s="9">
         <v>2538136.4400463598</v>
       </c>
-      <c r="F427" s="2">
+      <c r="F427" s="12">
         <v>0.10445435779440963</v>
       </c>
-      <c r="G427" s="2">
+      <c r="G427" s="12">
         <v>10.717479305550301</v>
       </c>
     </row>
@@ -10591,13 +10624,13 @@
       <c r="D428" s="1">
         <v>1996</v>
       </c>
-      <c r="E428" s="1">
+      <c r="E428" s="8">
         <v>2010887.5818068599</v>
       </c>
-      <c r="F428" s="2">
+      <c r="F428" s="12">
         <v>8.1234854237976079E-2</v>
       </c>
-      <c r="G428" s="2">
+      <c r="G428" s="12">
         <v>8.3149408847340105</v>
       </c>
     </row>
@@ -10614,13 +10647,13 @@
       <c r="D429" s="2">
         <v>1997</v>
       </c>
-      <c r="E429" s="2">
+      <c r="E429" s="9">
         <v>2659108.7079007099</v>
       </c>
-      <c r="F429" s="2">
+      <c r="F429" s="12">
         <v>0.10547414651940462</v>
       </c>
-      <c r="G429" s="2">
+      <c r="G429" s="12">
         <v>9.7597709819024701</v>
       </c>
     </row>
@@ -10637,13 +10670,13 @@
       <c r="D430" s="1">
         <v>1998</v>
       </c>
-      <c r="E430" s="1">
+      <c r="E430" s="8">
         <v>3085004.0490520201</v>
       </c>
-      <c r="F430" s="2">
+      <c r="F430" s="12">
         <v>0.12023556197100398</v>
       </c>
-      <c r="G430" s="2">
+      <c r="G430" s="12">
         <v>11.188894828898199</v>
       </c>
     </row>
@@ -10660,13 +10693,13 @@
       <c r="D431" s="2">
         <v>1999</v>
       </c>
-      <c r="E431" s="2">
+      <c r="E431" s="9">
         <v>3803220.2539465199</v>
       </c>
-      <c r="F431" s="2">
+      <c r="F431" s="12">
         <v>0.14584018153027534</v>
       </c>
-      <c r="G431" s="2">
+      <c r="G431" s="12">
         <v>13.048517467135699</v>
       </c>
     </row>
@@ -10683,13 +10716,13 @@
       <c r="D432" s="1">
         <v>2000</v>
       </c>
-      <c r="E432" s="1">
+      <c r="E432" s="8">
         <v>3382381.3231186098</v>
       </c>
-      <c r="F432" s="2">
+      <c r="F432" s="12">
         <v>0.12782998197727172</v>
       </c>
-      <c r="G432" s="2">
+      <c r="G432" s="12">
         <v>11.2452749934717</v>
       </c>
     </row>
@@ -10706,13 +10739,13 @@
       <c r="D433" s="2">
         <v>2001</v>
       </c>
-      <c r="E433" s="2">
+      <c r="E433" s="9">
         <v>3016770.97018622</v>
       </c>
-      <c r="F433" s="2">
+      <c r="F433" s="12">
         <v>0.11257028136073062</v>
       </c>
-      <c r="G433" s="2">
+      <c r="G433" s="12">
         <v>11.2028213195247</v>
       </c>
     </row>
@@ -10729,13 +10762,13 @@
       <c r="D434" s="1">
         <v>2002</v>
       </c>
-      <c r="E434" s="1">
+      <c r="E434" s="8">
         <v>4311864.8717789203</v>
       </c>
-      <c r="F434" s="2">
+      <c r="F434" s="12">
         <v>0.1591035338835807</v>
       </c>
-      <c r="G434" s="2">
+      <c r="G434" s="12">
         <v>16.011041156058599</v>
       </c>
     </row>
@@ -10752,13 +10785,13 @@
       <c r="D435" s="2">
         <v>2003</v>
       </c>
-      <c r="E435" s="2">
+      <c r="E435" s="9">
         <v>1290157.3471991001</v>
       </c>
-      <c r="F435" s="2">
+      <c r="F435" s="12">
         <v>4.7134200906002489E-2</v>
       </c>
-      <c r="G435" s="2">
+      <c r="G435" s="12">
         <v>4.9422603472541198</v>
       </c>
     </row>
@@ -10775,13 +10808,13 @@
       <c r="D436" s="1">
         <v>2004</v>
       </c>
-      <c r="E436" s="1">
+      <c r="E436" s="8">
         <v>-873170.09811318095</v>
       </c>
-      <c r="F436" s="2">
+      <c r="F436" s="12">
         <v>-3.1609111573746775E-2</v>
       </c>
-      <c r="G436" s="2">
+      <c r="G436" s="12">
         <v>-2.7670892961310498</v>
       </c>
     </row>
@@ -10798,13 +10831,13 @@
       <c r="D437" s="2">
         <v>2005</v>
       </c>
-      <c r="E437" s="2">
+      <c r="E437" s="9">
         <v>-1865181.8951499099</v>
       </c>
-      <c r="F437" s="2">
+      <c r="F437" s="12">
         <v>-6.6933965949541013E-2</v>
       </c>
-      <c r="G437" s="2">
+      <c r="G437" s="12">
         <v>-5.0776723088931401</v>
       </c>
     </row>
@@ -10821,13 +10854,13 @@
       <c r="D438" s="1">
         <v>2006</v>
       </c>
-      <c r="E438" s="1">
+      <c r="E438" s="8">
         <v>3303151.1953753899</v>
       </c>
-      <c r="F438" s="2">
+      <c r="F438" s="12">
         <v>0.11754149866114119</v>
       </c>
-      <c r="G438" s="2">
+      <c r="G438" s="12">
         <v>11.687312846218999</v>
       </c>
     </row>
@@ -10844,13 +10877,13 @@
       <c r="D439" s="2">
         <v>2007</v>
       </c>
-      <c r="E439" s="2">
+      <c r="E439" s="9">
         <v>2408698.5673994599</v>
       </c>
-      <c r="F439" s="2">
+      <c r="F439" s="12">
         <v>8.5013890777519502E-2</v>
       </c>
-      <c r="G439" s="2">
+      <c r="G439" s="12">
         <v>6.9769545844807297</v>
       </c>
     </row>
@@ -10867,13 +10900,13 @@
       <c r="D440" s="1">
         <v>2008</v>
       </c>
-      <c r="E440" s="1">
+      <c r="E440" s="8">
         <v>6886593.0945361797</v>
       </c>
-      <c r="F440" s="2">
+      <c r="F440" s="12">
         <v>0.24111032471592253</v>
       </c>
-      <c r="G440" s="2">
+      <c r="G440" s="12">
         <v>16.9331552322761</v>
       </c>
     </row>
@@ -10890,13 +10923,13 @@
       <c r="D441" s="2">
         <v>2009</v>
       </c>
-      <c r="E441" s="2">
+      <c r="E441" s="9">
         <v>-431631.71841375402</v>
       </c>
-      <c r="F441" s="2">
+      <c r="F441" s="12">
         <v>-1.4990856055768902E-2</v>
       </c>
-      <c r="G441" s="2">
+      <c r="G441" s="12">
         <v>-0.84291115972100294</v>
       </c>
     </row>
@@ -10913,13 +10946,13 @@
       <c r="D442" s="1">
         <v>2010</v>
       </c>
-      <c r="E442" s="1">
+      <c r="E442" s="8">
         <v>3513253.0332871201</v>
       </c>
-      <c r="F442" s="2">
+      <c r="F442" s="12">
         <v>0.12102979996166184</v>
       </c>
-      <c r="G442" s="2">
+      <c r="G442" s="12">
         <v>6.1473659170608803</v>
       </c>
     </row>
@@ -10936,13 +10969,13 @@
       <c r="D443" s="2">
         <v>2011</v>
       </c>
-      <c r="E443" s="2">
+      <c r="E443" s="9">
         <v>7076040.7246112702</v>
       </c>
-      <c r="F443" s="2">
+      <c r="F443" s="12">
         <v>0.24180018878524023</v>
       </c>
-      <c r="G443" s="2">
+      <c r="G443" s="12">
         <v>14.4530652577536</v>
       </c>
     </row>
@@ -10959,13 +10992,13 @@
       <c r="D444" s="1">
         <v>2012</v>
       </c>
-      <c r="E444" s="1">
+      <c r="E444" s="8">
         <v>8435950.2404621392</v>
       </c>
-      <c r="F444" s="2">
+      <c r="F444" s="12">
         <v>0.28589657506565014</v>
       </c>
-      <c r="G444" s="2">
+      <c r="G444" s="12">
         <v>15.5771740081662</v>
       </c>
     </row>
@@ -10982,13 +11015,13 @@
       <c r="D445" s="2">
         <v>2013</v>
       </c>
-      <c r="E445" s="2">
+      <c r="E445" s="9">
         <v>11949508.5619023</v>
       </c>
-      <c r="F445" s="2">
+      <c r="F445" s="12">
         <v>0.40134038294828706</v>
       </c>
-      <c r="G445" s="2">
+      <c r="G445" s="12">
         <v>26.1732996367158</v>
       </c>
     </row>
@@ -11005,13 +11038,13 @@
       <c r="D446" s="1">
         <v>2014</v>
       </c>
-      <c r="E446" s="1">
+      <c r="E446" s="8">
         <v>12007588.465947401</v>
       </c>
-      <c r="F446" s="2">
+      <c r="F446" s="12">
         <v>0.39905578152035232</v>
       </c>
-      <c r="G446" s="2">
+      <c r="G446" s="12">
         <v>23.929871100115101</v>
       </c>
     </row>
@@ -11028,13 +11061,13 @@
       <c r="D447" s="2">
         <v>2015</v>
       </c>
-      <c r="E447" s="2">
+      <c r="E447" s="9">
         <v>10905054.596988499</v>
       </c>
-      <c r="F447" s="2">
+      <c r="F447" s="12">
         <v>0.35788305592164676</v>
       </c>
-      <c r="G447" s="2">
+      <c r="G447" s="12">
         <v>21.170657081367398</v>
       </c>
     </row>
@@ -11051,13 +11084,13 @@
       <c r="D448" s="1">
         <v>2016</v>
       </c>
-      <c r="E448" s="1">
+      <c r="E448" s="8">
         <v>8763504.8389085308</v>
       </c>
-      <c r="F448" s="2">
+      <c r="F448" s="12">
         <v>0.28337013641947006</v>
       </c>
-      <c r="G448" s="2">
+      <c r="G448" s="12">
         <v>15.5609462494557</v>
       </c>
     </row>
@@ -11074,13 +11107,13 @@
       <c r="D449" s="2">
         <v>2017</v>
       </c>
-      <c r="E449" s="2">
+      <c r="E449" s="9">
         <v>9557379.1646410003</v>
       </c>
-      <c r="F449" s="2">
+      <c r="F449" s="12">
         <v>0.30394921653227963</v>
       </c>
-      <c r="G449" s="2">
+      <c r="G449" s="12">
         <v>18.144772754033401</v>
       </c>
     </row>
@@ -11097,13 +11130,13 @@
       <c r="D450" s="1">
         <v>1990</v>
       </c>
-      <c r="E450" s="1">
+      <c r="E450" s="8">
         <v>1117144.74030164</v>
       </c>
-      <c r="F450" s="2">
+      <c r="F450" s="12">
         <v>0.35921052742818005</v>
       </c>
-      <c r="G450" s="2">
+      <c r="G450" s="12">
         <v>28.160135325670399</v>
       </c>
     </row>
@@ -11120,13 +11153,13 @@
       <c r="D451" s="2">
         <v>1991</v>
       </c>
-      <c r="E451" s="2">
+      <c r="E451" s="9">
         <v>1046910.7027764</v>
       </c>
-      <c r="F451" s="2">
+      <c r="F451" s="12">
         <v>0.33426267649310348</v>
       </c>
-      <c r="G451" s="2">
+      <c r="G451" s="12">
         <v>23.123252490052899</v>
       </c>
     </row>
@@ -11143,13 +11176,13 @@
       <c r="D452" s="1">
         <v>1992</v>
       </c>
-      <c r="E452" s="1">
+      <c r="E452" s="8">
         <v>1061721.15531945</v>
       </c>
-      <c r="F452" s="2">
+      <c r="F452" s="12">
         <v>0.33662687232702915</v>
       </c>
-      <c r="G452" s="2">
+      <c r="G452" s="12">
         <v>20.644499666499001</v>
       </c>
     </row>
@@ -11166,13 +11199,13 @@
       <c r="D453" s="2">
         <v>1993</v>
       </c>
-      <c r="E453" s="2">
+      <c r="E453" s="9">
         <v>1219387.3873743699</v>
       </c>
-      <c r="F453" s="2">
+      <c r="F453" s="12">
         <v>0.38369647179810257</v>
       </c>
-      <c r="G453" s="2">
+      <c r="G453" s="12">
         <v>27.468577088576001</v>
       </c>
     </row>
@@ -11189,13 +11222,13 @@
       <c r="D454" s="1">
         <v>1994</v>
       </c>
-      <c r="E454" s="1">
+      <c r="E454" s="8">
         <v>1389857.56967564</v>
       </c>
-      <c r="F454" s="2">
+      <c r="F454" s="12">
         <v>0.43419480464718524</v>
       </c>
-      <c r="G454" s="2">
+      <c r="G454" s="12">
         <v>34.488777468238098</v>
       </c>
     </row>
@@ -11212,13 +11245,13 @@
       <c r="D455" s="2">
         <v>1995</v>
       </c>
-      <c r="E455" s="2">
+      <c r="E455" s="9">
         <v>1538568.5035788801</v>
       </c>
-      <c r="F455" s="2">
+      <c r="F455" s="12">
         <v>0.47722348125895786</v>
       </c>
-      <c r="G455" s="2">
+      <c r="G455" s="12">
         <v>33.751621239398197</v>
       </c>
     </row>
@@ -11235,13 +11268,13 @@
       <c r="D456" s="1">
         <v>1996</v>
       </c>
-      <c r="E456" s="1">
+      <c r="E456" s="8">
         <v>2038361.22631709</v>
       </c>
-      <c r="F456" s="2">
+      <c r="F456" s="12">
         <v>0.62776754737206342</v>
       </c>
-      <c r="G456" s="2">
+      <c r="G456" s="12">
         <v>37.716283736651</v>
       </c>
     </row>
@@ -11258,13 +11291,13 @@
       <c r="D457" s="2">
         <v>1997</v>
       </c>
-      <c r="E457" s="2">
+      <c r="E457" s="9">
         <v>2710411.9110712698</v>
       </c>
-      <c r="F457" s="2">
+      <c r="F457" s="12">
         <v>0.8288721440584923</v>
       </c>
-      <c r="G457" s="2">
+      <c r="G457" s="12">
         <v>49.163021926070499</v>
       </c>
     </row>
@@ -11281,13 +11314,13 @@
       <c r="D458" s="1">
         <v>1998</v>
       </c>
-      <c r="E458" s="1">
+      <c r="E458" s="8">
         <v>3156027.5776968799</v>
       </c>
-      <c r="F458" s="2">
+      <c r="F458" s="12">
         <v>0.95898741346000604</v>
       </c>
-      <c r="G458" s="2">
+      <c r="G458" s="12">
         <v>55.957086163558898</v>
       </c>
     </row>
@@ -11304,13 +11337,13 @@
       <c r="D459" s="2">
         <v>1999</v>
       </c>
-      <c r="E459" s="2">
+      <c r="E459" s="9">
         <v>3165440.2299620602</v>
       </c>
-      <c r="F459" s="2">
+      <c r="F459" s="12">
         <v>0.95690454351936527</v>
       </c>
-      <c r="G459" s="2">
+      <c r="G459" s="12">
         <v>47.379390083799599</v>
       </c>
     </row>
@@ -11327,13 +11360,13 @@
       <c r="D460" s="1">
         <v>2000</v>
       </c>
-      <c r="E460" s="1">
+      <c r="E460" s="8">
         <v>3036566.34469439</v>
       </c>
-      <c r="F460" s="2">
+      <c r="F460" s="12">
         <v>0.91462841707662346</v>
       </c>
-      <c r="G460" s="2">
+      <c r="G460" s="12">
         <v>57.650730994119598</v>
       </c>
     </row>
@@ -11350,13 +11383,13 @@
       <c r="D461" s="2">
         <v>2001</v>
       </c>
-      <c r="E461" s="2">
+      <c r="E461" s="9">
         <v>2607601.82003133</v>
       </c>
-      <c r="F461" s="2">
+      <c r="F461" s="12">
         <v>0.78424114888160301</v>
       </c>
-      <c r="G461" s="2">
+      <c r="G461" s="12">
         <v>51.835465500950697</v>
       </c>
     </row>
@@ -11373,13 +11406,13 @@
       <c r="D462" s="1">
         <v>2002</v>
       </c>
-      <c r="E462" s="1">
+      <c r="E462" s="8">
         <v>1473945.00602721</v>
       </c>
-      <c r="F462" s="2">
+      <c r="F462" s="12">
         <v>0.44315845039904089</v>
       </c>
-      <c r="G462" s="2">
+      <c r="G462" s="12">
         <v>32.3394258001005</v>
       </c>
     </row>
@@ -11396,13 +11429,13 @@
       <c r="D463" s="2">
         <v>2003</v>
       </c>
-      <c r="E463" s="2">
+      <c r="E463" s="9">
         <v>1887469.6168160799</v>
       </c>
-      <c r="F463" s="2">
+      <c r="F463" s="12">
         <v>0.56783081131651025</v>
       </c>
-      <c r="G463" s="2">
+      <c r="G463" s="12">
         <v>41.6864454487079</v>
       </c>
     </row>
@@ -11419,13 +11452,13 @@
       <c r="D464" s="1">
         <v>2004</v>
       </c>
-      <c r="E464" s="1">
+      <c r="E464" s="8">
         <v>2030498.8686917999</v>
       </c>
-      <c r="F464" s="2">
+      <c r="F464" s="12">
         <v>0.61141188458048779</v>
       </c>
-      <c r="G464" s="2">
+      <c r="G464" s="12">
         <v>36.494850431106599</v>
       </c>
     </row>
@@ -11442,13 +11475,13 @@
       <c r="D465" s="2">
         <v>2005</v>
       </c>
-      <c r="E465" s="2">
+      <c r="E465" s="9">
         <v>2321692.4418940502</v>
       </c>
-      <c r="F465" s="2">
+      <c r="F465" s="12">
         <v>0.69888393795726977</v>
       </c>
-      <c r="G465" s="2">
+      <c r="G465" s="12">
         <v>40.548081418215801</v>
       </c>
     </row>
@@ -11465,13 +11498,13 @@
       <c r="D466" s="1">
         <v>2006</v>
       </c>
-      <c r="E466" s="1">
+      <c r="E466" s="8">
         <v>2129384.7975866701</v>
       </c>
-      <c r="F466" s="2">
+      <c r="F466" s="12">
         <v>0.64041648047719402</v>
       </c>
-      <c r="G466" s="2">
+      <c r="G466" s="12">
         <v>32.282547525135399</v>
       </c>
     </row>
@@ -11488,13 +11521,13 @@
       <c r="D467" s="2">
         <v>2007</v>
       </c>
-      <c r="E467" s="2">
+      <c r="E467" s="9">
         <v>2604129.0791237601</v>
       </c>
-      <c r="F467" s="2">
+      <c r="F467" s="12">
         <v>0.78155134427483797</v>
       </c>
-      <c r="G467" s="2">
+      <c r="G467" s="12">
         <v>43.792554340601299</v>
       </c>
     </row>
@@ -11511,13 +11544,13 @@
       <c r="D468" s="1">
         <v>2008</v>
       </c>
-      <c r="E468" s="1">
+      <c r="E468" s="8">
         <v>2549012.0183577999</v>
       </c>
-      <c r="F468" s="2">
+      <c r="F468" s="12">
         <v>0.76317725100532929</v>
       </c>
-      <c r="G468" s="2">
+      <c r="G468" s="12">
         <v>31.082993734247701</v>
       </c>
     </row>
@@ -11534,13 +11567,13 @@
       <c r="D469" s="2">
         <v>2009</v>
       </c>
-      <c r="E469" s="2">
+      <c r="E469" s="9">
         <v>2182152.2250328199</v>
       </c>
-      <c r="F469" s="2">
+      <c r="F469" s="12">
         <v>0.65138872389039404</v>
       </c>
-      <c r="G469" s="2">
+      <c r="G469" s="12">
         <v>27.457664326815699</v>
       </c>
     </row>
@@ -11557,13 +11590,13 @@
       <c r="D470" s="1">
         <v>2010</v>
       </c>
-      <c r="E470" s="1">
+      <c r="E470" s="8">
         <v>3834276.4103019098</v>
       </c>
-      <c r="F470" s="2">
+      <c r="F470" s="12">
         <v>1.1414934237278684</v>
       </c>
-      <c r="G470" s="2">
+      <c r="G470" s="12">
         <v>60.893316852994197</v>
       </c>
     </row>
@@ -11580,13 +11613,13 @@
       <c r="D471" s="2">
         <v>2011</v>
       </c>
-      <c r="E471" s="2">
+      <c r="E471" s="9">
         <v>3822474.5969655402</v>
       </c>
-      <c r="F471" s="2">
+      <c r="F471" s="12">
         <v>1.1346021362319798</v>
       </c>
-      <c r="G471" s="2">
+      <c r="G471" s="12">
         <v>49.942429112922397</v>
       </c>
     </row>
@@ -11603,13 +11636,13 @@
       <c r="D472" s="1">
         <v>2012</v>
       </c>
-      <c r="E472" s="1">
+      <c r="E472" s="8">
         <v>4897111.9131760905</v>
       </c>
-      <c r="F472" s="2">
+      <c r="F472" s="12">
         <v>1.4492784590636552</v>
       </c>
-      <c r="G472" s="2">
+      <c r="G472" s="12">
         <v>56.989262251814203</v>
       </c>
     </row>
@@ -11626,13 +11659,13 @@
       <c r="D473" s="2">
         <v>2013</v>
       </c>
-      <c r="E473" s="2">
+      <c r="E473" s="9">
         <v>5348452.3097566701</v>
       </c>
-      <c r="F473" s="2">
+      <c r="F473" s="12">
         <v>1.578180085499165</v>
       </c>
-      <c r="G473" s="2">
+      <c r="G473" s="12">
         <v>71.409398194667702</v>
       </c>
     </row>
@@ -11649,13 +11682,13 @@
       <c r="D474" s="1">
         <v>2014</v>
       </c>
-      <c r="E474" s="1">
+      <c r="E474" s="8">
         <v>5688764.7392929504</v>
       </c>
-      <c r="F474" s="2">
+      <c r="F474" s="12">
         <v>1.6731660997920443</v>
       </c>
-      <c r="G474" s="2">
+      <c r="G474" s="12">
         <v>85.467445074311499</v>
       </c>
     </row>
@@ -11672,13 +11705,13 @@
       <c r="D475" s="2">
         <v>2015</v>
       </c>
-      <c r="E475" s="2">
+      <c r="E475" s="9">
         <v>5452225.8417514497</v>
       </c>
-      <c r="F475" s="2">
+      <c r="F475" s="12">
         <v>1.597955991134657</v>
       </c>
-      <c r="G475" s="2">
+      <c r="G475" s="12">
         <v>82.379608187360503</v>
       </c>
     </row>
@@ -11695,13 +11728,13 @@
       <c r="D476" s="1">
         <v>2016</v>
       </c>
-      <c r="E476" s="1">
+      <c r="E476" s="8">
         <v>5431701.7202618802</v>
       </c>
-      <c r="F476" s="2">
+      <c r="F476" s="12">
         <v>1.5863614837213436</v>
       </c>
-      <c r="G476" s="2">
+      <c r="G476" s="12">
         <v>81.278862531026903</v>
       </c>
     </row>
@@ -11718,13 +11751,13 @@
       <c r="D477" s="2">
         <v>2017</v>
       </c>
-      <c r="E477" s="2">
+      <c r="E477" s="9">
         <v>5531319.3992609801</v>
       </c>
-      <c r="F477" s="2">
+      <c r="F477" s="12">
         <v>1.6093451845391271</v>
       </c>
-      <c r="G477" s="2">
+      <c r="G477" s="12">
         <v>82.528823111323206</v>
       </c>
     </row>
@@ -11741,13 +11774,13 @@
       <c r="D478" s="1">
         <v>1990</v>
       </c>
-      <c r="E478" s="1">
+      <c r="E478" s="8">
         <v>-35773657.7056714</v>
       </c>
-      <c r="F478" s="2">
+      <c r="F478" s="12">
         <v>-1.8221187646142414</v>
       </c>
-      <c r="G478" s="2">
+      <c r="G478" s="12">
         <v>-29.365519638944001</v>
       </c>
     </row>
@@ -11764,13 +11797,13 @@
       <c r="D479" s="2">
         <v>1991</v>
       </c>
-      <c r="E479" s="2">
+      <c r="E479" s="9">
         <v>-30146983.0084619</v>
       </c>
-      <c r="F479" s="2">
+      <c r="F479" s="12">
         <v>-1.5001484379210739</v>
       </c>
-      <c r="G479" s="2">
+      <c r="G479" s="12">
         <v>-26.202802613070201</v>
       </c>
     </row>
@@ -11787,13 +11820,13 @@
       <c r="D480" s="1">
         <v>1992</v>
       </c>
-      <c r="E480" s="1">
+      <c r="E480" s="8">
         <v>-24055678.973347101</v>
       </c>
-      <c r="F480" s="2">
+      <c r="F480" s="12">
         <v>-1.1701371229374016</v>
       </c>
-      <c r="G480" s="2">
+      <c r="G480" s="12">
         <v>-22.784726499722201</v>
       </c>
     </row>
@@ -11810,13 +11843,13 @@
       <c r="D481" s="2">
         <v>1993</v>
       </c>
-      <c r="E481" s="2">
+      <c r="E481" s="9">
         <v>-33307299.070204299</v>
       </c>
-      <c r="F481" s="2">
+      <c r="F481" s="12">
         <v>-1.5847789441977589</v>
       </c>
-      <c r="G481" s="2">
+      <c r="G481" s="12">
         <v>-26.867689159703801</v>
       </c>
     </row>
@@ -11833,13 +11866,13 @@
       <c r="D482" s="1">
         <v>1994</v>
       </c>
-      <c r="E482" s="1">
+      <c r="E482" s="8">
         <v>-39261156.455996498</v>
       </c>
-      <c r="F482" s="2">
+      <c r="F482" s="12">
         <v>-1.8282261446331314</v>
       </c>
-      <c r="G482" s="2">
+      <c r="G482" s="12">
         <v>-30.310278430207799</v>
       </c>
     </row>
@@ -11856,13 +11889,13 @@
       <c r="D483" s="2">
         <v>1995</v>
       </c>
-      <c r="E483" s="2">
+      <c r="E483" s="9">
         <v>-39674954.759208202</v>
       </c>
-      <c r="F483" s="2">
+      <c r="F483" s="12">
         <v>-1.8090809702798871</v>
       </c>
-      <c r="G483" s="2">
+      <c r="G483" s="12">
         <v>-29.858920174620199</v>
       </c>
     </row>
@@ -11879,13 +11912,13 @@
       <c r="D484" s="1">
         <v>1996</v>
       </c>
-      <c r="E484" s="1">
+      <c r="E484" s="8">
         <v>-39572998.067387499</v>
       </c>
-      <c r="F484" s="2">
+      <c r="F484" s="12">
         <v>-1.7677565472789913</v>
       </c>
-      <c r="G484" s="2">
+      <c r="G484" s="12">
         <v>-32.346846167195501</v>
       </c>
     </row>
@@ -11902,13 +11935,13 @@
       <c r="D485" s="2">
         <v>1997</v>
       </c>
-      <c r="E485" s="2">
+      <c r="E485" s="9">
         <v>-40199828.528317198</v>
       </c>
-      <c r="F485" s="2">
+      <c r="F485" s="12">
         <v>-1.7602166795830283</v>
       </c>
-      <c r="G485" s="2">
+      <c r="G485" s="12">
         <v>-30.115949715584001</v>
       </c>
     </row>
@@ -11925,13 +11958,13 @@
       <c r="D486" s="1">
         <v>1998</v>
       </c>
-      <c r="E486" s="1">
+      <c r="E486" s="8">
         <v>-53619836.073599704</v>
       </c>
-      <c r="F486" s="2">
+      <c r="F486" s="12">
         <v>-2.3023674727811287</v>
       </c>
-      <c r="G486" s="2">
+      <c r="G486" s="12">
         <v>-32.145769674593701</v>
       </c>
     </row>
@@ -11948,13 +11981,13 @@
       <c r="D487" s="2">
         <v>1999</v>
       </c>
-      <c r="E487" s="2">
+      <c r="E487" s="9">
         <v>-123889527.350582</v>
       </c>
-      <c r="F487" s="2">
+      <c r="F487" s="12">
         <v>-5.218598456216597</v>
       </c>
-      <c r="G487" s="2">
+      <c r="G487" s="12">
         <v>-71.794012422548406</v>
       </c>
     </row>
@@ -11971,13 +12004,13 @@
       <c r="D488" s="1">
         <v>2000</v>
       </c>
-      <c r="E488" s="1">
+      <c r="E488" s="8">
         <v>-107297327.37534299</v>
       </c>
-      <c r="F488" s="2">
+      <c r="F488" s="12">
         <v>-4.4352400535442706</v>
       </c>
-      <c r="G488" s="2">
+      <c r="G488" s="12">
         <v>-70.650293924552599</v>
       </c>
     </row>
@@ -11994,13 +12027,13 @@
       <c r="D489" s="2">
         <v>2001</v>
       </c>
-      <c r="E489" s="2">
+      <c r="E489" s="9">
         <v>-113494750.429515</v>
       </c>
-      <c r="F489" s="2">
+      <c r="F489" s="12">
         <v>-4.6049967714645383</v>
       </c>
-      <c r="G489" s="2">
+      <c r="G489" s="12">
         <v>-65.995222014215997</v>
       </c>
     </row>
@@ -12017,13 +12050,13 @@
       <c r="D490" s="1">
         <v>2002</v>
       </c>
-      <c r="E490" s="1">
+      <c r="E490" s="8">
         <v>-139287147.200257</v>
       </c>
-      <c r="F490" s="2">
+      <c r="F490" s="12">
         <v>-5.5492887330779679</v>
       </c>
-      <c r="G490" s="2">
+      <c r="G490" s="12">
         <v>-72.264457317617698</v>
       </c>
     </row>
@@ -12040,13 +12073,13 @@
       <c r="D491" s="2">
         <v>2003</v>
       </c>
-      <c r="E491" s="2">
+      <c r="E491" s="9">
         <v>-83166727.334118307</v>
       </c>
-      <c r="F491" s="2">
+      <c r="F491" s="12">
         <v>-3.2548030421931085</v>
       </c>
-      <c r="G491" s="2">
+      <c r="G491" s="12">
         <v>-43.438922915199299</v>
       </c>
     </row>
@@ -12063,13 +12096,13 @@
       <c r="D492" s="1">
         <v>2004</v>
       </c>
-      <c r="E492" s="1">
+      <c r="E492" s="8">
         <v>-57495474.187774703</v>
       </c>
-      <c r="F492" s="2">
+      <c r="F492" s="12">
         <v>-2.2116195787119555</v>
       </c>
-      <c r="G492" s="2">
+      <c r="G492" s="12">
         <v>-38.0090171244087</v>
       </c>
     </row>
@@ -12086,13 +12119,13 @@
       <c r="D493" s="2">
         <v>2005</v>
       </c>
-      <c r="E493" s="2">
+      <c r="E493" s="9">
         <v>-54682928.087987602</v>
       </c>
-      <c r="F493" s="2">
+      <c r="F493" s="12">
         <v>-2.0688153786314922</v>
       </c>
-      <c r="G493" s="2">
+      <c r="G493" s="12">
         <v>-33.3791730746862</v>
       </c>
     </row>
@@ -12109,13 +12142,13 @@
       <c r="D494" s="1">
         <v>2006</v>
       </c>
-      <c r="E494" s="1">
+      <c r="E494" s="8">
         <v>-63102489.060067199</v>
       </c>
-      <c r="F494" s="2">
+      <c r="F494" s="12">
         <v>-2.3501858122930055</v>
       </c>
-      <c r="G494" s="2">
+      <c r="G494" s="12">
         <v>-37.191734607605497</v>
       </c>
     </row>
@@ -12132,13 +12165,13 @@
       <c r="D495" s="2">
         <v>2007</v>
       </c>
-      <c r="E495" s="2">
+      <c r="E495" s="9">
         <v>-45838827.668005899</v>
       </c>
-      <c r="F495" s="2">
+      <c r="F495" s="12">
         <v>-1.6822822837641624</v>
       </c>
-      <c r="G495" s="2">
+      <c r="G495" s="12">
         <v>-28.4292326806601</v>
       </c>
     </row>
@@ -12155,13 +12188,13 @@
       <c r="D496" s="1">
         <v>2008</v>
       </c>
-      <c r="E496" s="1">
+      <c r="E496" s="8">
         <v>-45073238.234897599</v>
       </c>
-      <c r="F496" s="2">
+      <c r="F496" s="12">
         <v>-1.6309610014074973</v>
       </c>
-      <c r="G496" s="2">
+      <c r="G496" s="12">
         <v>-25.100347460704899</v>
       </c>
     </row>
@@ -12178,13 +12211,13 @@
       <c r="D497" s="2">
         <v>2009</v>
       </c>
-      <c r="E497" s="2">
+      <c r="E497" s="9">
         <v>-22627232.6095546</v>
       </c>
-      <c r="F497" s="2">
+      <c r="F497" s="12">
         <v>-0.80722174055704754</v>
       </c>
-      <c r="G497" s="2">
+      <c r="G497" s="12">
         <v>-12.5622975082905</v>
       </c>
     </row>
@@ -12201,13 +12234,13 @@
       <c r="D498" s="1">
         <v>2010</v>
       </c>
-      <c r="E498" s="1">
+      <c r="E498" s="8">
         <v>-23019041.9720296</v>
       </c>
-      <c r="F498" s="2">
+      <c r="F498" s="12">
         <v>-0.80938966146376934</v>
       </c>
-      <c r="G498" s="2">
+      <c r="G498" s="12">
         <v>-12.149235308550701</v>
       </c>
     </row>
@@ -12224,13 +12257,13 @@
       <c r="D499" s="2">
         <v>2011</v>
       </c>
-      <c r="E499" s="2">
+      <c r="E499" s="9">
         <v>-15618009.4051315</v>
       </c>
-      <c r="F499" s="2">
+      <c r="F499" s="12">
         <v>-0.54064003756340007</v>
       </c>
-      <c r="G499" s="2">
+      <c r="G499" s="12">
         <v>-9.1654907696211705</v>
       </c>
     </row>
@@ -12247,13 +12280,13 @@
       <c r="D500" s="1">
         <v>2012</v>
       </c>
-      <c r="E500" s="1">
+      <c r="E500" s="8">
         <v>-11556681.206889199</v>
       </c>
-      <c r="F500" s="2">
+      <c r="F500" s="12">
         <v>-0.3936065258979326</v>
       </c>
-      <c r="G500" s="2">
+      <c r="G500" s="12">
         <v>-6.0514314750788198</v>
       </c>
     </row>
@@ -12270,13 +12303,13 @@
       <c r="D501" s="2">
         <v>2013</v>
       </c>
-      <c r="E501" s="2">
+      <c r="E501" s="9">
         <v>-12264661.2896444</v>
       </c>
-      <c r="F501" s="2">
+      <c r="F501" s="12">
         <v>-0.41182839023687584</v>
       </c>
-      <c r="G501" s="2">
+      <c r="G501" s="12">
         <v>-6.7074941615572197</v>
       </c>
     </row>
@@ -12293,13 +12326,13 @@
       <c r="D502" s="1">
         <v>2014</v>
       </c>
-      <c r="E502" s="1">
+      <c r="E502" s="8">
         <v>-13020076.6439048</v>
       </c>
-      <c r="F502" s="2">
+      <c r="F502" s="12">
         <v>-0.43338137482624239</v>
       </c>
-      <c r="G502" s="2">
+      <c r="G502" s="12">
         <v>-7.0708852489756504</v>
       </c>
     </row>
@@ -12316,13 +12349,13 @@
       <c r="D503" s="2">
         <v>2015</v>
       </c>
-      <c r="E503" s="2">
+      <c r="E503" s="9">
         <v>-13670596.842540201</v>
       </c>
-      <c r="F503" s="2">
+      <c r="F503" s="12">
         <v>-0.45444441335483682</v>
       </c>
-      <c r="G503" s="2">
+      <c r="G503" s="12">
         <v>-7.9992065993155199</v>
       </c>
     </row>
@@ -12339,13 +12372,13 @@
       <c r="D504" s="1">
         <v>2016</v>
       </c>
-      <c r="E504" s="1">
+      <c r="E504" s="8">
         <v>-17049088.472057499</v>
       </c>
-      <c r="F504" s="2">
+      <c r="F504" s="12">
         <v>-0.57113960912724859</v>
       </c>
-      <c r="G504" s="2">
+      <c r="G504" s="12">
         <v>-10.446175435331799</v>
       </c>
     </row>
@@ -12362,13 +12395,13 @@
       <c r="D505" s="4">
         <v>2017</v>
       </c>
-      <c r="E505" s="4">
+      <c r="E505" s="10">
         <v>-13376957.603607699</v>
       </c>
-      <c r="F505" s="4">
+      <c r="F505" s="13">
         <v>-0.45496760776844092</v>
       </c>
-      <c r="G505" s="4">
+      <c r="G505" s="13">
         <v>-8.7059475454265201</v>
       </c>
     </row>
